--- a/prices/kt.xlsx
+++ b/prices/kt.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="5" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="566">
   <si>
     <t>Прайс-лист</t>
   </si>
@@ -47,7 +47,7 @@
     <t>Сводный код</t>
   </si>
   <si>
-    <t> Розн. До 1,5 тыс.</t>
+    <t>Розн. До 1,5 тыс.</t>
   </si>
   <si>
     <t>От 1,5 тыс. до 3 тыс.</t>
@@ -71,694 +71,694 @@
     <t>ТНП</t>
   </si>
   <si>
-    <t>    31. ТНП Q</t>
-  </si>
-  <si>
-    <t>         !Бытовая техника ArtLife Q</t>
-  </si>
-  <si>
-    <t>            Ваги кухоні ArtLife </t>
-  </si>
-  <si>
-    <t>                AL2510 eлектронні, скляна платформа, до 5кг </t>
-  </si>
-  <si>
-    <t>         !Бытовая техника Sinbo Q</t>
-  </si>
-  <si>
-    <t>            Бритва електрична "Sinbo"</t>
-  </si>
-  <si>
-    <t>                SS-4025</t>
-  </si>
-  <si>
-    <t>                SS-4028 (2в1+тример)</t>
-  </si>
-  <si>
-    <t>                SS-4031</t>
-  </si>
-  <si>
-    <t>            Ваги кухонні "Sinbo"</t>
-  </si>
-  <si>
-    <t>                цифрові SKS-4513 (млин)</t>
-  </si>
-  <si>
-    <t>                цифрові SKS-4514 (скло)</t>
-  </si>
-  <si>
-    <t>                цифрові SKS-4516 (чаша)</t>
-  </si>
-  <si>
-    <t>            Ваги підлогові "Sinbo"</t>
-  </si>
-  <si>
-    <t>                SBS-4418 скло кольор.</t>
-  </si>
-  <si>
-    <t>                SBS-4421 скло кольор.</t>
-  </si>
-  <si>
-    <t>            Диспенсер для рiдкого мила "Sinbo" SD-6801</t>
-  </si>
-  <si>
-    <t>            Кавоварка електрична "Sinbo"</t>
-  </si>
-  <si>
-    <t>                SCM-2922 (0.3л, нерж, подставка)</t>
-  </si>
-  <si>
-    <t>            Кофемашина "Sinbo" </t>
-  </si>
-  <si>
-    <t>                SCM-2935</t>
-  </si>
-  <si>
-    <t>            Кавомолка електрична "Sinbo" </t>
-  </si>
-  <si>
-    <t>                SCM-2914 плюс подрібнювач (2в1)</t>
-  </si>
-  <si>
-    <t>            Машинка для стрижки "Sinbo" </t>
-  </si>
-  <si>
-    <t>                SHC-4342</t>
-  </si>
-  <si>
-    <t>                SHC-4346</t>
-  </si>
-  <si>
-    <t>                SHC-4348</t>
-  </si>
-  <si>
-    <t>                SHC-4352</t>
-  </si>
-  <si>
-    <t>            Міксер "Sinbo"</t>
-  </si>
-  <si>
-    <t>                SMX-2714</t>
-  </si>
-  <si>
-    <t>                SMX-2720</t>
-  </si>
-  <si>
-    <t>                SMX-2724</t>
-  </si>
-  <si>
-    <t>                SMX-2727 + блендер</t>
-  </si>
-  <si>
-    <t>            Пароварка "Sinbo"  </t>
-  </si>
-  <si>
-    <t>                SFS-5702</t>
-  </si>
-  <si>
-    <t>                SFS-5703 (нерж)</t>
-  </si>
-  <si>
-    <t>            Прилад для укладання волосся "Sinbo"</t>
-  </si>
-  <si>
-    <t>                SHD-2651 (дуйка+5 насадок)</t>
-  </si>
-  <si>
-    <t>                SHD-2692 прасочка керам.</t>
-  </si>
-  <si>
-    <t>                SHD-2694 (плойка+щітка)</t>
-  </si>
-  <si>
-    <t>                SHD-7016 випрямлювач</t>
-  </si>
-  <si>
-    <t>            Пилосос "Sinbo"</t>
-  </si>
-  <si>
-    <t>                SVC-3446</t>
-  </si>
-  <si>
-    <t>                SVC-3459</t>
-  </si>
-  <si>
-    <t>            Ручний подрiбнювач "Sinbo" </t>
-  </si>
-  <si>
-    <t>                STO-6506 (мiнi подр.)</t>
-  </si>
-  <si>
-    <t>                STO-6508</t>
-  </si>
-  <si>
-    <t>                STO-6509 (мельниця)</t>
-  </si>
-  <si>
-    <t>            Сендвічниця електрична "Sinbo"  </t>
-  </si>
-  <si>
-    <t>                SSM-2520G</t>
-  </si>
-  <si>
-    <t>                SSM-2520W (вафельниця)</t>
-  </si>
-  <si>
-    <t>                SSM-2520Т (трикутна)</t>
-  </si>
-  <si>
-    <t>            Тостер "Sinbo" </t>
-  </si>
-  <si>
-    <t>                ST- 2416 </t>
-  </si>
-  <si>
-    <t>            Триммер д/вилуч. волосся в носі/вухах "Sinbo"</t>
-  </si>
-  <si>
-    <t>                STR-4912</t>
-  </si>
-  <si>
-    <t>                STR-4913</t>
-  </si>
-  <si>
-    <t>            Зволожувач повітря "Sinbo"</t>
-  </si>
-  <si>
-    <t>                SAH-6107</t>
-  </si>
-  <si>
-    <t>            Праска "Sinbo"</t>
-  </si>
-  <si>
-    <t>                SSI-2851 керам, пар, 2000W(2845)</t>
-  </si>
-  <si>
-    <t>                SSI-2854 нерж, пар, 2000W</t>
-  </si>
-  <si>
-    <t>                SSI-2861 тефлон, пар, 1200W</t>
-  </si>
-  <si>
-    <t>                SSI-2872 керам, пар, 2000W</t>
-  </si>
-  <si>
-    <t>            Фрітюрниця "Sinbo" SDF-3822</t>
-  </si>
-  <si>
-    <t>            Хлібопіч "Sinbo"</t>
-  </si>
-  <si>
-    <t>                SBM-4712</t>
-  </si>
-  <si>
-    <t>            Чайник електричний "Sinbo"</t>
-  </si>
-  <si>
-    <t>                SK-2384B (1.5л, диск)</t>
-  </si>
-  <si>
-    <t>                SK-2385B (1,7 л, нерж. + пласт.)</t>
-  </si>
-  <si>
-    <t>                SK-7307 (1,5 л, пласт. + скло)</t>
-  </si>
-  <si>
-    <t>                ТЕРМОПОТ SK-2394</t>
-  </si>
-  <si>
-    <t>                ТЕРМОПОТ SK-2395 (3,2 л)</t>
-  </si>
-  <si>
-    <t>            Епілятор "Sinbo" </t>
-  </si>
-  <si>
-    <t>                SEL-6012</t>
-  </si>
-  <si>
-    <t>         1 Мясорубки</t>
-  </si>
-  <si>
-    <t>            Мясорубки ручные</t>
-  </si>
-  <si>
-    <t>                М'ясорубка алюмінієва "МА-С-1"</t>
-  </si>
-  <si>
-    <t>                М`ясорубка алюмінієва сувенірна "МА-С-1"</t>
-  </si>
-  <si>
-    <t>                М'ясорубка чавунна "МЧ-С-1"</t>
-  </si>
-  <si>
-    <t>            ЕлектроМіксер ЭМР-205 "Вихор" (Мінськ)</t>
-  </si>
-  <si>
-    <t>            Електром'ясорубка "Помічниця" (Мінськ)</t>
-  </si>
-  <si>
-    <t>                201-00 (600-1000Вт) КЕМ-П2У з шатківницею+"реверс"</t>
+    <t>31. ТНП Q</t>
+  </si>
+  <si>
+    <t>!Бытовая техника ArtLife Q</t>
+  </si>
+  <si>
+    <t>Ваги кухоні ArtLife</t>
+  </si>
+  <si>
+    <t>AL2510 eлектронні, скляна платформа, до 5кг</t>
+  </si>
+  <si>
+    <t>!Бытовая техника Sinbo Q</t>
+  </si>
+  <si>
+    <t>Бритва електрична "Sinbo"</t>
+  </si>
+  <si>
+    <t>SS-4025</t>
+  </si>
+  <si>
+    <t>SS-4028 (2в1+тример)</t>
+  </si>
+  <si>
+    <t>SS-4031</t>
+  </si>
+  <si>
+    <t>Ваги кухонні "Sinbo"</t>
+  </si>
+  <si>
+    <t>цифрові SKS-4513 (млин)</t>
+  </si>
+  <si>
+    <t>цифрові SKS-4514 (скло)</t>
+  </si>
+  <si>
+    <t>цифрові SKS-4516 (чаша)</t>
+  </si>
+  <si>
+    <t>Ваги підлогові "Sinbo"</t>
+  </si>
+  <si>
+    <t>SBS-4418 скло кольор.</t>
+  </si>
+  <si>
+    <t>SBS-4421 скло кольор.</t>
+  </si>
+  <si>
+    <t>Диспенсер для рiдкого мила "Sinbo" SD-6801</t>
+  </si>
+  <si>
+    <t>Кавоварка електрична "Sinbo"</t>
+  </si>
+  <si>
+    <t>SCM-2922 (0.3л, нерж, подставка)</t>
+  </si>
+  <si>
+    <t>Кофемашина "Sinbo"</t>
+  </si>
+  <si>
+    <t>SCM-2935</t>
+  </si>
+  <si>
+    <t>Кавомолка електрична "Sinbo"</t>
+  </si>
+  <si>
+    <t>SCM-2914 плюс подрібнювач (2в1)</t>
+  </si>
+  <si>
+    <t>Машинка для стрижки "Sinbo"</t>
+  </si>
+  <si>
+    <t>SHC-4342</t>
+  </si>
+  <si>
+    <t>SHC-4346</t>
+  </si>
+  <si>
+    <t>SHC-4348</t>
+  </si>
+  <si>
+    <t>SHC-4352</t>
+  </si>
+  <si>
+    <t>Міксер "Sinbo"</t>
+  </si>
+  <si>
+    <t>SMX-2714</t>
+  </si>
+  <si>
+    <t>SMX-2720</t>
+  </si>
+  <si>
+    <t>SMX-2724</t>
+  </si>
+  <si>
+    <t>SMX-2727 + блендер</t>
+  </si>
+  <si>
+    <t>Пароварка "Sinbo"</t>
+  </si>
+  <si>
+    <t>SFS-5702</t>
+  </si>
+  <si>
+    <t>SFS-5703 (нерж)</t>
+  </si>
+  <si>
+    <t>Прилад для укладання волосся "Sinbo"</t>
+  </si>
+  <si>
+    <t>SHD-2651 (дуйка+5 насадок)</t>
+  </si>
+  <si>
+    <t>SHD-2692 прасочка керам.</t>
+  </si>
+  <si>
+    <t>SHD-2694 (плойка+щітка)</t>
+  </si>
+  <si>
+    <t>SHD-7016 випрямлювач</t>
+  </si>
+  <si>
+    <t>Пилосос "Sinbo"</t>
+  </si>
+  <si>
+    <t>SVC-3446</t>
+  </si>
+  <si>
+    <t>SVC-3459</t>
+  </si>
+  <si>
+    <t>Ручний подрiбнювач "Sinbo"</t>
+  </si>
+  <si>
+    <t>STO-6506 (мiнi подр.)</t>
+  </si>
+  <si>
+    <t>STO-6508</t>
+  </si>
+  <si>
+    <t>STO-6509 (мельниця)</t>
+  </si>
+  <si>
+    <t>Сендвічниця електрична "Sinbo"</t>
+  </si>
+  <si>
+    <t>SSM-2520G</t>
+  </si>
+  <si>
+    <t>SSM-2520W (вафельниця)</t>
+  </si>
+  <si>
+    <t>SSM-2520Т (трикутна)</t>
+  </si>
+  <si>
+    <t>Тостер "Sinbo"</t>
+  </si>
+  <si>
+    <t>ST- 2416</t>
+  </si>
+  <si>
+    <t>Триммер д/вилуч. волосся в носі/вухах "Sinbo"</t>
+  </si>
+  <si>
+    <t>STR-4912</t>
+  </si>
+  <si>
+    <t>STR-4913</t>
+  </si>
+  <si>
+    <t>Зволожувач повітря "Sinbo"</t>
+  </si>
+  <si>
+    <t>SAH-6107</t>
+  </si>
+  <si>
+    <t>Праска "Sinbo"</t>
+  </si>
+  <si>
+    <t>SSI-2851 керам, пар, 2000W(2845)</t>
+  </si>
+  <si>
+    <t>SSI-2854 нерж, пар, 2000W</t>
+  </si>
+  <si>
+    <t>SSI-2861 тефлон, пар, 1200W</t>
+  </si>
+  <si>
+    <t>SSI-2872 керам, пар, 2000W</t>
+  </si>
+  <si>
+    <t>Фрітюрниця "Sinbo" SDF-3822</t>
+  </si>
+  <si>
+    <t>Хлібопіч "Sinbo"</t>
+  </si>
+  <si>
+    <t>SBM-4712</t>
+  </si>
+  <si>
+    <t>Чайник електричний "Sinbo"</t>
+  </si>
+  <si>
+    <t>SK-2384B (1.5л, диск)</t>
+  </si>
+  <si>
+    <t>SK-2385B (1,7 л, нерж. + пласт.)</t>
+  </si>
+  <si>
+    <t>SK-7307 (1,5 л, пласт. + скло)</t>
+  </si>
+  <si>
+    <t>ТЕРМОПОТ SK-2394</t>
+  </si>
+  <si>
+    <t>ТЕРМОПОТ SK-2395 (3,2 л)</t>
+  </si>
+  <si>
+    <t>Епілятор "Sinbo"</t>
+  </si>
+  <si>
+    <t>SEL-6012</t>
+  </si>
+  <si>
+    <t>1 Мясорубки</t>
+  </si>
+  <si>
+    <t>Мясорубки ручные</t>
+  </si>
+  <si>
+    <t>М'ясорубка алюмінієва "МА-С-1"</t>
+  </si>
+  <si>
+    <t>М`ясорубка алюмінієва сувенірна "МА-С-1"</t>
+  </si>
+  <si>
+    <t>М'ясорубка чавунна "МЧ-С-1"</t>
+  </si>
+  <si>
+    <t>ЕлектроМіксер ЭМР-205 "Вихор" (Мінськ)</t>
+  </si>
+  <si>
+    <t>Електром'ясорубка "Помічниця" (Мінськ)</t>
+  </si>
+  <si>
+    <t>201-00 (600-1000Вт) КЕМ-П2У з шатківницею+"реверс"</t>
   </si>
   <si>
     <t>от 50 шт.</t>
   </si>
   <si>
-    <t>                201-01 (600-1000Вт) КЕМ-П2У +"реверс"</t>
-  </si>
-  <si>
-    <t>                201-02 (600-1000Вт) КЕМ-П2У з шатківницею и соковитиск.+"реверс"</t>
-  </si>
-  <si>
-    <t>                202-01 (900-1300Вт) КЕМ-П2У+"реверс"</t>
-  </si>
-  <si>
-    <t>                202-02 (900-1300Вт) КЕМ-П2У з шатківницею и соковитиск.+"реверс"</t>
-  </si>
-  <si>
-    <t>                202-03 (900-1300Вт) КЕМ-П2У з соковитиск.+"реверс"</t>
-  </si>
-  <si>
-    <t>                22 (600-1000Вт) КЕМ-36 з шатківницею</t>
-  </si>
-  <si>
-    <t>                23 (600-1000Вт) КЕМ-36</t>
-  </si>
-  <si>
-    <t>                24 (600-1000Вт) КЕМ-36 з шатківницею</t>
-  </si>
-  <si>
-    <t>                25 (600Вт) КЕМ-36 з шатківницею и соковитиск.</t>
-  </si>
-  <si>
-    <t>                25 (600Вт) КЕМ-36 з шатківницею и соковитиск. (свiтло-зелена)</t>
-  </si>
-  <si>
-    <t>                26 (600-1000Вт) КЕМ-36 з соковитиск.</t>
-  </si>
-  <si>
-    <t>                302-01 (1500Вт) КЕМ-П2У(мод.23)</t>
-  </si>
-  <si>
-    <t>                302-02 (1500Вт) КЕМ-П2У(мод.24)</t>
-  </si>
-  <si>
-    <t>                302-03 (1500Вт) КЕМ-П2У(мод.25)</t>
-  </si>
-  <si>
-    <t>                302-04 (1500Вт) КЕМ-П2У(мод.26)</t>
-  </si>
-  <si>
-    <t>                31 (600-1000Вт) КЕМ-36 мод.23+ "реверс"</t>
-  </si>
-  <si>
-    <t>                32 (600-1000Вт) КЕМ-36 мод.24+ "реверс"</t>
-  </si>
-  <si>
-    <t>                33 (600-1000Вт) КЕМ-36 мод.25+ "реверс"</t>
-  </si>
-  <si>
-    <t>                34 (600-1000Вт) КЕМ-36 мод.26+ "реверс"</t>
-  </si>
-  <si>
-    <t>         2 Соковыжималки</t>
-  </si>
-  <si>
-    <t>            Соковитискач  алюм. ручний "Мотор Сич"</t>
-  </si>
-  <si>
-    <t>            Соковитискач чавунний ручний"Мотор Сич" СБЧ-1</t>
-  </si>
-  <si>
-    <t>            Соковитискач "Sinbo"</t>
-  </si>
-  <si>
-    <t>                40 Вт, SJ-3132 (прес для цитрусових)</t>
-  </si>
-  <si>
-    <t>                700 Вт, SJ-3122</t>
-  </si>
-  <si>
-    <t>                700 Вт, SJ-3130</t>
-  </si>
-  <si>
-    <t>            Електросоковитискач "Журавинка" СВСП-102 (с шинк., 120 Вт)</t>
-  </si>
-  <si>
-    <t>            Електросоковитискач "Журавинка" СВСП-102П (с шинк., 160 Вт)</t>
-  </si>
-  <si>
-    <t>            Електросоковитискач "Журавинка" СВСП-301М (без шинк., 120 Вт)</t>
-  </si>
-  <si>
-    <t>            Електросоковитискач "Журавинка" СВСП-301П (без шинк., 160 Вт)</t>
-  </si>
-  <si>
-    <t>            Електросоковитиск. Дачниця СВПР-201 (підвищеної продуктивності)</t>
-  </si>
-  <si>
-    <t>            Електросоковитиск. садовий СВПП-301 (підвищеної продуктивності без шатківниці)</t>
-  </si>
-  <si>
-    <t>            Електросоковитиск. садова СВШПП-302 (с шинк., Мінськ)</t>
-  </si>
-  <si>
-    <t>         3 Электро-газо-плитки</t>
-  </si>
-  <si>
-    <t>            ЛЕМИРА</t>
-  </si>
-  <si>
-    <t>                Эл.-плит.  Леміра </t>
-  </si>
-  <si>
-    <t>                    ЭПТ 1-1.0/220 (ТЭН широкий)</t>
+    <t>201-01 (600-1000Вт) КЕМ-П2У +"реверс"</t>
+  </si>
+  <si>
+    <t>201-02 (600-1000Вт) КЕМ-П2У з шатківницею и соковитиск.+"реверс"</t>
+  </si>
+  <si>
+    <t>202-01 (900-1300Вт) КЕМ-П2У+"реверс"</t>
+  </si>
+  <si>
+    <t>202-02 (900-1300Вт) КЕМ-П2У з шатківницею и соковитиск.+"реверс"</t>
+  </si>
+  <si>
+    <t>202-03 (900-1300Вт) КЕМ-П2У з соковитиск.+"реверс"</t>
+  </si>
+  <si>
+    <t>22 (600-1000Вт) КЕМ-36 з шатківницею</t>
+  </si>
+  <si>
+    <t>23 (600-1000Вт) КЕМ-36</t>
+  </si>
+  <si>
+    <t>24 (600-1000Вт) КЕМ-36 з шатківницею</t>
+  </si>
+  <si>
+    <t>25 (600Вт) КЕМ-36 з шатківницею и соковитиск.</t>
+  </si>
+  <si>
+    <t>25 (600Вт) КЕМ-36 з шатківницею и соковитиск. (свiтло-зелена)</t>
+  </si>
+  <si>
+    <t>26 (600-1000Вт) КЕМ-36 з соковитиск.</t>
+  </si>
+  <si>
+    <t>302-01 (1500Вт) КЕМ-П2У(мод.23)</t>
+  </si>
+  <si>
+    <t>302-02 (1500Вт) КЕМ-П2У(мод.24)</t>
+  </si>
+  <si>
+    <t>302-03 (1500Вт) КЕМ-П2У(мод.25)</t>
+  </si>
+  <si>
+    <t>302-04 (1500Вт) КЕМ-П2У(мод.26)</t>
+  </si>
+  <si>
+    <t>31 (600-1000Вт) КЕМ-36 мод.23+ "реверс"</t>
+  </si>
+  <si>
+    <t>32 (600-1000Вт) КЕМ-36 мод.24+ "реверс"</t>
+  </si>
+  <si>
+    <t>33 (600-1000Вт) КЕМ-36 мод.25+ "реверс"</t>
+  </si>
+  <si>
+    <t>34 (600-1000Вт) КЕМ-36 мод.26+ "реверс"</t>
+  </si>
+  <si>
+    <t>2 Соковыжималки</t>
+  </si>
+  <si>
+    <t>Соковитискач  алюм. ручний "Мотор Сич"</t>
+  </si>
+  <si>
+    <t>Соковитискач чавунний ручний"Мотор Сич" СБЧ-1</t>
+  </si>
+  <si>
+    <t>Соковитискач "Sinbo"</t>
+  </si>
+  <si>
+    <t>40 Вт, SJ-3132 (прес для цитрусових)</t>
+  </si>
+  <si>
+    <t>700 Вт, SJ-3122</t>
+  </si>
+  <si>
+    <t>700 Вт, SJ-3130</t>
+  </si>
+  <si>
+    <t>Електросоковитискач "Журавинка" СВСП-102 (с шинк., 120 Вт)</t>
+  </si>
+  <si>
+    <t>Електросоковитискач "Журавинка" СВСП-102П (с шинк., 160 Вт)</t>
+  </si>
+  <si>
+    <t>Електросоковитискач "Журавинка" СВСП-301М (без шинк., 120 Вт)</t>
+  </si>
+  <si>
+    <t>Електросоковитискач "Журавинка" СВСП-301П (без шинк., 160 Вт)</t>
+  </si>
+  <si>
+    <t>Електросоковитиск. Дачниця СВПР-201 (підвищеної продуктивності)</t>
+  </si>
+  <si>
+    <t>Електросоковитиск. садовий СВПП-301 (підвищеної продуктивності без шатківниці)</t>
+  </si>
+  <si>
+    <t>Електросоковитиск. садова СВШПП-302 (с шинк., Мінськ)</t>
+  </si>
+  <si>
+    <t>3 Электро-газо-плитки</t>
+  </si>
+  <si>
+    <t>ЛЕМИРА</t>
+  </si>
+  <si>
+    <t>Эл.-плит.  Леміра</t>
+  </si>
+  <si>
+    <t>ЭПТ 1-1.0/220 (ТЭН широкий)</t>
   </si>
   <si>
     <t>от 50 шт. в ассорт.</t>
   </si>
   <si>
-    <t>                    ЭПТ 2-2.0/220 (2 широкі ТЕНи)</t>
-  </si>
-  <si>
-    <t>                    ЭПТ2-Т 1-1.0/220 (ТЭН)</t>
-  </si>
-  <si>
-    <t>                    ЭПТ2-Т 2-2.0/220 (ТЭН)</t>
-  </si>
-  <si>
-    <t>                    ЭПТ2Ч-Т 2-2.5/220 (блин+ТЭН)</t>
-  </si>
-  <si>
-    <t>                    ЭПЧ-Т 1-1.5/220 (1 блин)</t>
-  </si>
-  <si>
-    <t>                    ЭПЧ-Т 2-3.0/220 (2 блина)</t>
-  </si>
-  <si>
-    <t>            ТЕРМИЯ</t>
-  </si>
-  <si>
-    <t>                Електроплита Термія</t>
-  </si>
-  <si>
-    <t>                    ЕПЧ 1-1,5/220 (біла, млин)</t>
-  </si>
-  <si>
-    <t>                    ЕПЧ 1,5/220 (нерж)</t>
-  </si>
-  <si>
-    <t>            ЭЛНА</t>
-  </si>
-  <si>
-    <t>                Газова плитка ЭЛНА (Таганок)</t>
-  </si>
-  <si>
-    <t>                    ПГ-1-Н без кришки 1-конф.</t>
-  </si>
-  <si>
-    <t>                    ПГ-2-Н без кришки</t>
-  </si>
-  <si>
-    <t>                    ПГ-2-Н з кришкою</t>
-  </si>
-  <si>
-    <t>                Тен до електроплитці</t>
-  </si>
-  <si>
-    <t>                    1 КВт, до електроплитці типу "Мечта"</t>
-  </si>
-  <si>
-    <t>                    1 КВт, нерж.</t>
-  </si>
-  <si>
-    <t>                    1 КВт, сталь</t>
-  </si>
-  <si>
-    <t>                Електроплита  ЕЛНА Блин</t>
-  </si>
-  <si>
-    <t>                    001Н (1-конф, 1,5КВт)</t>
-  </si>
-  <si>
-    <t>                    002Н (2-конф, 2,2КВт)</t>
-  </si>
-  <si>
-    <t>                Електроплита  ЕЛНА комбі</t>
-  </si>
-  <si>
-    <t>                    011Н (мечта+млин, 2,5КВт)</t>
-  </si>
-  <si>
-    <t>                    101Н (Вузький тен+млин, 2,5КВт)</t>
-  </si>
-  <si>
-    <t>                Електроплита ЕЛНА Цинк</t>
-  </si>
-  <si>
-    <t>                    100Н (1-конф., 1КВт )</t>
-  </si>
-  <si>
-    <t>                    200Н (2-конф., 2КВт )</t>
-  </si>
-  <si>
-    <t>                Електроплита ЕЛНА "Мрія"</t>
-  </si>
-  <si>
-    <t>                    010Н (1-конф., 1КВт.)</t>
-  </si>
-  <si>
-    <t>                    020Н (2-конф., 2КВт.)</t>
-  </si>
-  <si>
-    <t>         4 Электрические духовки</t>
-  </si>
-  <si>
-    <t>            Духовка "Асель"</t>
-  </si>
-  <si>
-    <t>                33л. з таймером FCATT-23 (AF-0023) білий</t>
+    <t>ЭПТ 2-2.0/220 (2 широкі ТЕНи)</t>
+  </si>
+  <si>
+    <t>ЭПТ2-Т 1-1.0/220 (ТЭН)</t>
+  </si>
+  <si>
+    <t>ЭПТ2-Т 2-2.0/220 (ТЭН)</t>
+  </si>
+  <si>
+    <t>ЭПТ2Ч-Т 2-2.5/220 (блин+ТЭН)</t>
+  </si>
+  <si>
+    <t>ЭПЧ-Т 1-1.5/220 (1 блин)</t>
+  </si>
+  <si>
+    <t>ЭПЧ-Т 2-3.0/220 (2 блина)</t>
+  </si>
+  <si>
+    <t>ТЕРМИЯ</t>
+  </si>
+  <si>
+    <t>Електроплита Термія</t>
+  </si>
+  <si>
+    <t>ЕПЧ 1-1,5/220 (біла, млин)</t>
+  </si>
+  <si>
+    <t>ЕПЧ 1,5/220 (нерж)</t>
+  </si>
+  <si>
+    <t>ЭЛНА</t>
+  </si>
+  <si>
+    <t>Газова плитка ЭЛНА (Таганок)</t>
+  </si>
+  <si>
+    <t>ПГ-1-Н без кришки 1-конф.</t>
+  </si>
+  <si>
+    <t>ПГ-2-Н без кришки</t>
+  </si>
+  <si>
+    <t>ПГ-2-Н з кришкою</t>
+  </si>
+  <si>
+    <t>Тен до електроплитці</t>
+  </si>
+  <si>
+    <t>1 КВт, до електроплитці типу "Мечта"</t>
+  </si>
+  <si>
+    <t>1 КВт, нерж.</t>
+  </si>
+  <si>
+    <t>1 КВт, сталь</t>
+  </si>
+  <si>
+    <t>Електроплита  ЕЛНА Блин</t>
+  </si>
+  <si>
+    <t>001Н (1-конф, 1,5КВт)</t>
+  </si>
+  <si>
+    <t>002Н (2-конф, 2,2КВт)</t>
+  </si>
+  <si>
+    <t>Електроплита  ЕЛНА комбі</t>
+  </si>
+  <si>
+    <t>011Н (мечта+млин, 2,5КВт)</t>
+  </si>
+  <si>
+    <t>101Н (Вузький тен+млин, 2,5КВт)</t>
+  </si>
+  <si>
+    <t>Електроплита ЕЛНА Цинк</t>
+  </si>
+  <si>
+    <t>100Н (1-конф., 1КВт )</t>
+  </si>
+  <si>
+    <t>200Н (2-конф., 2КВт )</t>
+  </si>
+  <si>
+    <t>Електроплита ЕЛНА "Мрія"</t>
+  </si>
+  <si>
+    <t>010Н (1-конф., 1КВт.)</t>
+  </si>
+  <si>
+    <t>020Н (2-конф., 2КВт.)</t>
+  </si>
+  <si>
+    <t>4 Электрические духовки</t>
+  </si>
+  <si>
+    <t>Духовка "Асель"</t>
+  </si>
+  <si>
+    <t>33л. з таймером FCATT-23 (AF-0023) білий</t>
   </si>
   <si>
     <t>от 5 шт. в ассорт.</t>
   </si>
   <si>
-    <t>                33л. з таймером FCATT-23 (AF-0023) червоний</t>
-  </si>
-  <si>
-    <t>                33л. з таймером FCATT-23 (AF-0023) сірий</t>
-  </si>
-  <si>
-    <t>                33л. з таймером FCATT-23 (AF-0023) чорний</t>
-  </si>
-  <si>
-    <t>                40л + гриль AF 0124 білий</t>
-  </si>
-  <si>
-    <t>                40л з таймером AF 0123 червоний</t>
-  </si>
-  <si>
-    <t>                40л з таймером AF 0123 сірий</t>
-  </si>
-  <si>
-    <t>                40л з таймером AF 0123 чорний</t>
-  </si>
-  <si>
-    <t>         5 Электросушители</t>
-  </si>
-  <si>
-    <t>            Сушарка електрична "БелОМО" ( 5 решіток)</t>
-  </si>
-  <si>
-    <t>            Сушарка електрична "Ротор" с 5-ю реш</t>
-  </si>
-  <si>
-    <t>            Електросушарка ЕСОФ-0, 6/220 "Ветерок-2" (6 решіток, підвищеної продуктивності)</t>
-  </si>
-  <si>
-    <t>         6 Электроконвектора, радиаторы</t>
-  </si>
-  <si>
-    <t>            ИК обогреватели "Calore"</t>
-  </si>
-  <si>
-    <t>                ИК обогреватель "Calore" IH-14, 1400 Вт, с телескоп. ножкой</t>
-  </si>
-  <si>
-    <t>                ИК обогреватель "Calore" IH-20, 2000 Вт, с телескоп. ножкой</t>
-  </si>
-  <si>
-    <t>                ИК обогреватель "Calore" IH-25, 2500 Вт, с телескоп. ножкой</t>
-  </si>
-  <si>
-    <t>            Масляные радиаторы "Calore"</t>
-  </si>
-  <si>
-    <t>                Масляний радіатор "Calore"</t>
-  </si>
-  <si>
-    <t>                    HR-11F 2500Вт</t>
-  </si>
-  <si>
-    <t>                    HR-7F 1500Вт</t>
-  </si>
-  <si>
-    <t>                    HR-9F 2000Вт</t>
-  </si>
-  <si>
-    <t>            Масляные радиаторы "Sinbo"</t>
-  </si>
-  <si>
-    <t>                Масляний радiатор "Sinbo" SFH-3322 9 секц</t>
-  </si>
-  <si>
-    <t>            Тепловентилятор "Calore"</t>
-  </si>
-  <si>
-    <t>                Тепловентилятор "Calore" FH-VR2, 1000/2000 Вт</t>
-  </si>
-  <si>
-    <t>                Керамічний тепловентилятор Calore" FHС-15N, 1500 Вт</t>
-  </si>
-  <si>
-    <t>                Керамічний тепловентилятор "Calore" FHС-15S, 1500 Вт</t>
-  </si>
-  <si>
-    <t>                Керамічний тепловентилятор "Calore" FHС-2HR, баштовий, 2000 Вт</t>
-  </si>
-  <si>
-    <t>            Электроконвектор "Calore" </t>
-  </si>
-  <si>
-    <t>                Електроконвектор "Calore"  ЕТ</t>
-  </si>
-  <si>
-    <t>                    1000ED 1000 Вт</t>
-  </si>
-  <si>
-    <t>                    1000EDI 1000Вт</t>
-  </si>
-  <si>
-    <t>                    1500ED 1500 Вт</t>
-  </si>
-  <si>
-    <t>                    1500EDI 1500Вт</t>
-  </si>
-  <si>
-    <t>                    2000EDI 2000Вт</t>
-  </si>
-  <si>
-    <t>                    2500EDI 2500Вт</t>
-  </si>
-  <si>
-    <t>                    500ED 500 Вт</t>
-  </si>
-  <si>
-    <t>                    500EDI 500Вт</t>
-  </si>
-  <si>
-    <t>                Електроконвектор "Calore"  МТ</t>
-  </si>
-  <si>
-    <t>                    1000SR 1000 Вт</t>
-  </si>
-  <si>
-    <t>                    1500SR 1500Вт</t>
-  </si>
-  <si>
-    <t>                    2000SR 2000 Вт</t>
-  </si>
-  <si>
-    <t>                    2500SR 2500Вт</t>
-  </si>
-  <si>
-    <t>                    500SR 500 Вт</t>
-  </si>
-  <si>
-    <t>            Электроконвектор "Термия", "Convector"</t>
-  </si>
-  <si>
-    <t>                Електроконвектор "Термія" ЕВНА (настінний)</t>
-  </si>
-  <si>
-    <t>                    1,0 КВт, С(450 мм), мш(1вим, штамп.решітка)</t>
-  </si>
-  <si>
-    <t>                    1,5 КВт, С(450 мм), сш(2 вим.,штамп.решітка)</t>
-  </si>
-  <si>
-    <t>                    2,0 КВт, С(450 мм), сш(2 вим, штамп.решітка)</t>
-  </si>
-  <si>
-    <t>                    2,5 КВт, С(450 мм), сш(2 вим, штамп.решітка)</t>
-  </si>
-  <si>
-    <t>         7 Сепараторы</t>
-  </si>
-  <si>
-    <t>            Сепаратор МоторСіч СЦМ-100 гр18 (метал)</t>
-  </si>
-  <si>
-    <t>            Сепаратор МоторСіч СЦМ-100 гр19 (пропілен)</t>
-  </si>
-  <si>
-    <t>            Сепаратор-слівкоотделітель ПЕНЗА РЗ-ОПС (механічний)</t>
-  </si>
-  <si>
-    <t>            Електросепаратор "Салют" 50л</t>
-  </si>
-  <si>
-    <t>            Електросепаратор ПЕНЗА ЭСБ02</t>
-  </si>
-  <si>
-    <t>        11 Вентиляторы </t>
-  </si>
-  <si>
-    <t>            Вентилятор напольний ArtLife (4шт/уп)</t>
-  </si>
-  <si>
-    <t>                30см, 45W, сірий</t>
-  </si>
-  <si>
-    <t>        17 Электрошашлычница</t>
-  </si>
-  <si>
-    <t>            Електрошашличниця ЕШВ "Пікнік"</t>
-  </si>
-  <si>
-    <t>    34.Товары для дома и сада Q</t>
-  </si>
-  <si>
-    <t>        1 Гладильные доски, чехлы</t>
-  </si>
-  <si>
-    <t>            Дошка для прасування</t>
-  </si>
-  <si>
-    <t>                110х30 Basic, цельномет, з підставкою для праски і розеткою, вис. 94см, д20мм(труба) арт.20450F6-M</t>
-  </si>
-  <si>
-    <t>                110х30 Дерев. стіл, з підставкою для праски, висота 84см арт.16030ZR</t>
-  </si>
-  <si>
-    <t>                110х30 Стандарт, дерев. стіл, з підставкою для праски, висота 84см арт.16030Е</t>
-  </si>
-  <si>
-    <t>                110х30 Цельномет, з підставкою для праски, вис. 94см, д20мм(труба) арт.20250F6-M</t>
-  </si>
-  <si>
-    <t>                120*38 металл. основа,з подрукавніком і розеткою арт.22838P-M</t>
-  </si>
-  <si>
-    <t>        2 Сушилки</t>
-  </si>
-  <si>
-    <t>            Сушарка для білизни</t>
-  </si>
-  <si>
-    <t>                Stabilo 18м, БЕЗ ШАРНИРА з доп. відділеннями, висота 101см, диам 3мм (труба) арт.0503АМ</t>
-  </si>
-  <si>
-    <t>                Stabilo 18м, з доп. відділеннями, висота 101см, диам 3мм (труба) арт.0503SE (BC0018)</t>
+    <t>33л. з таймером FCATT-23 (AF-0023) червоний</t>
+  </si>
+  <si>
+    <t>33л. з таймером FCATT-23 (AF-0023) сірий</t>
+  </si>
+  <si>
+    <t>33л. з таймером FCATT-23 (AF-0023) чорний</t>
+  </si>
+  <si>
+    <t>40л + гриль AF 0124 білий</t>
+  </si>
+  <si>
+    <t>40л з таймером AF 0123 червоний</t>
+  </si>
+  <si>
+    <t>40л з таймером AF 0123 сірий</t>
+  </si>
+  <si>
+    <t>40л з таймером AF 0123 чорний</t>
+  </si>
+  <si>
+    <t>5 Электросушители</t>
+  </si>
+  <si>
+    <t>Сушарка електрична "БелОМО" ( 5 решіток)</t>
+  </si>
+  <si>
+    <t>Сушарка електрична "Ротор" с 5-ю реш</t>
+  </si>
+  <si>
+    <t>Електросушарка ЕСОФ-0, 6/220 "Ветерок-2" (6 решіток, підвищеної продуктивності)</t>
+  </si>
+  <si>
+    <t>6 Электроконвектора, радиаторы</t>
+  </si>
+  <si>
+    <t>ИК обогреватели "Calore"</t>
+  </si>
+  <si>
+    <t>ИК обогреватель "Calore" IH-14, 1400 Вт, с телескоп. ножкой</t>
+  </si>
+  <si>
+    <t>ИК обогреватель "Calore" IH-20, 2000 Вт, с телескоп. ножкой</t>
+  </si>
+  <si>
+    <t>ИК обогреватель "Calore" IH-25, 2500 Вт, с телескоп. ножкой</t>
+  </si>
+  <si>
+    <t>Масляные радиаторы "Calore"</t>
+  </si>
+  <si>
+    <t>Масляний радіатор "Calore"</t>
+  </si>
+  <si>
+    <t>HR-11F 2500Вт</t>
+  </si>
+  <si>
+    <t>HR-7F 1500Вт</t>
+  </si>
+  <si>
+    <t>HR-9F 2000Вт</t>
+  </si>
+  <si>
+    <t>Масляные радиаторы "Sinbo"</t>
+  </si>
+  <si>
+    <t>Масляний радiатор "Sinbo" SFH-3322 9 секц</t>
+  </si>
+  <si>
+    <t>Тепловентилятор "Calore"</t>
+  </si>
+  <si>
+    <t>Тепловентилятор "Calore" FH-VR2, 1000/2000 Вт</t>
+  </si>
+  <si>
+    <t>Керамічний тепловентилятор Calore" FHС-15N, 1500 Вт</t>
+  </si>
+  <si>
+    <t>Керамічний тепловентилятор "Calore" FHС-15S, 1500 Вт</t>
+  </si>
+  <si>
+    <t>Керамічний тепловентилятор "Calore" FHС-2HR, баштовий, 2000 Вт</t>
+  </si>
+  <si>
+    <t>Электроконвектор "Calore"</t>
+  </si>
+  <si>
+    <t>Електроконвектор "Calore"  ЕТ</t>
+  </si>
+  <si>
+    <t>1000ED 1000 Вт</t>
+  </si>
+  <si>
+    <t>1000EDI 1000Вт</t>
+  </si>
+  <si>
+    <t>1500ED 1500 Вт</t>
+  </si>
+  <si>
+    <t>1500EDI 1500Вт</t>
+  </si>
+  <si>
+    <t>2000EDI 2000Вт</t>
+  </si>
+  <si>
+    <t>2500EDI 2500Вт</t>
+  </si>
+  <si>
+    <t>500ED 500 Вт</t>
+  </si>
+  <si>
+    <t>500EDI 500Вт</t>
+  </si>
+  <si>
+    <t>Електроконвектор "Calore"  МТ</t>
+  </si>
+  <si>
+    <t>1000SR 1000 Вт</t>
+  </si>
+  <si>
+    <t>1500SR 1500Вт</t>
+  </si>
+  <si>
+    <t>2000SR 2000 Вт</t>
+  </si>
+  <si>
+    <t>2500SR 2500Вт</t>
+  </si>
+  <si>
+    <t>500SR 500 Вт</t>
+  </si>
+  <si>
+    <t>Электроконвектор "Термия", "Convector"</t>
+  </si>
+  <si>
+    <t>Електроконвектор "Термія" ЕВНА (настінний)</t>
+  </si>
+  <si>
+    <t>1,0 КВт, С(450 мм), мш(1вим, штамп.решітка)</t>
+  </si>
+  <si>
+    <t>1,5 КВт, С(450 мм), сш(2 вим.,штамп.решітка)</t>
+  </si>
+  <si>
+    <t>2,0 КВт, С(450 мм), сш(2 вим, штамп.решітка)</t>
+  </si>
+  <si>
+    <t>2,5 КВт, С(450 мм), сш(2 вим, штамп.решітка)</t>
+  </si>
+  <si>
+    <t>7 Сепараторы</t>
+  </si>
+  <si>
+    <t>Сепаратор МоторСіч СЦМ-100 гр18 (метал)</t>
+  </si>
+  <si>
+    <t>Сепаратор МоторСіч СЦМ-100 гр19 (пропілен)</t>
+  </si>
+  <si>
+    <t>Сепаратор-слівкоотделітель ПЕНЗА РЗ-ОПС (механічний)</t>
+  </si>
+  <si>
+    <t>Електросепаратор "Салют" 50л</t>
+  </si>
+  <si>
+    <t>Електросепаратор ПЕНЗА ЭСБ02</t>
+  </si>
+  <si>
+    <t>11 Вентиляторы</t>
+  </si>
+  <si>
+    <t>Вентилятор напольний ArtLife (4шт/уп)</t>
+  </si>
+  <si>
+    <t>30см, 45W, сірий</t>
+  </si>
+  <si>
+    <t>17 Электрошашлычница</t>
+  </si>
+  <si>
+    <t>Електрошашличниця ЕШВ "Пікнік"</t>
+  </si>
+  <si>
+    <t>34.Товары для дома и сада Q</t>
+  </si>
+  <si>
+    <t>1 Гладильные доски, чехлы</t>
+  </si>
+  <si>
+    <t>Дошка для прасування</t>
+  </si>
+  <si>
+    <t>110х30 Basic, цельномет, з підставкою для праски і розеткою, вис. 94см, д20мм(труба) арт.20450F6-M</t>
+  </si>
+  <si>
+    <t>110х30 Дерев. стіл, з підставкою для праски, висота 84см арт.16030ZR</t>
+  </si>
+  <si>
+    <t>110х30 Стандарт, дерев. стіл, з підставкою для праски, висота 84см арт.16030Е</t>
+  </si>
+  <si>
+    <t>110х30 Цельномет, з підставкою для праски, вис. 94см, д20мм(труба) арт.20250F6-M</t>
+  </si>
+  <si>
+    <t>120*38 металл. основа,з подрукавніком і розеткою арт.22838P-M</t>
+  </si>
+  <si>
+    <t>2 Сушилки</t>
+  </si>
+  <si>
+    <t>Сушарка для білизни</t>
+  </si>
+  <si>
+    <t>Stabilo 18м, БЕЗ ШАРНИРА з доп. відділеннями, висота 101см, диам 3мм (труба) арт.0503АМ</t>
+  </si>
+  <si>
+    <t>Stabilo 18м, з доп. відділеннями, висота 101см, диам 3мм (труба) арт.0503SE (BC0018)</t>
   </si>
   <si>
     <t>Группа:ЭИ</t>
@@ -767,955 +767,952 @@
     <t>ЭИ</t>
   </si>
   <si>
-    <t>    21. SOMA бытовой электроинструмент Q</t>
-  </si>
-  <si>
-    <t>        Заточний верстат 200Вт, 150/200мм SM6402</t>
-  </si>
-  <si>
-    <t>    22. Makita  электроинструмент Q</t>
-  </si>
-  <si>
-    <t>        !MAKITA</t>
-  </si>
-  <si>
-    <t>            Makita Акумуляторний шурупокрут  6261 DWLE, 9,6 В, 2 А-ч, 400 об/хв с підсвічуванням  роб. зони 2-акум</t>
-  </si>
-  <si>
-    <t>            Makita Акумуляторний шурупокрут  6271 DWAE, 12В, 2А/год  350 об/хв</t>
-  </si>
-  <si>
-    <t>            Makita Дискова пила 5704 R, 1200Вт, 4900 об/хв, 66мм/46мм/ диск 190мм посадковий отвір 30мм</t>
-  </si>
-  <si>
-    <t>            Makita Ударний дриль HP1640, 680Вт, 2800об/мин  патрон 1,5-13мм</t>
-  </si>
-  <si>
-    <t>            Makita Стрічкова шліфмашина 9903  1010Вт, 210-440м/хв, 533*76мм</t>
-  </si>
-  <si>
-    <t>            Makita Стрічкова шліфмашина 9910, 650Вт, 270м/хв, 457мм х 76мм</t>
-  </si>
-  <si>
-    <t>            Makita Перфоратор HR 2470, 780Вт, 2.7Дж, 0-11000 об/хв, 3 режима</t>
-  </si>
-  <si>
-    <t>            Makita Термоповітродувка HG5012К 1600Вт  t350-500*C</t>
-  </si>
-  <si>
-    <t>            Makita Кутова шліфувальна машина GA 9020 SF 230мм, 2200Вт, 6600 об/хв повільний рух</t>
-  </si>
-  <si>
-    <t>            Makita Кутова шліфмашина GA 9020, 230мм, 2200В, 6600 об/хв</t>
-  </si>
-  <si>
-    <t>            Makita Ланцюгова пила UC 4020 A, 1800Вт, 400мм</t>
-  </si>
-  <si>
-    <t>            Makita Ланцюгова пила  UC 4030 A,  2000Вт, 400мм,</t>
-  </si>
-  <si>
-    <t>            Makita Ексцентрикова шліфмашина BO 5031, 300Вт, 12000 об/хв, d шліф диска 123 мм</t>
-  </si>
-  <si>
-    <t>            Makita Кутошліфувальна машина GA 9050, 230 мм</t>
-  </si>
-  <si>
-    <t>    23. Сварочные аппараты Q</t>
-  </si>
-  <si>
-    <t>        1 Сварочные аппараты "Бригадир"</t>
-  </si>
-  <si>
-    <t>            Зварювальний апарат "БРИГАДИР" Professional  BX1-200C</t>
-  </si>
-  <si>
-    <t>            Зварювальний апарат "БРИГАДИР" Professional  BX1-250C</t>
-  </si>
-  <si>
-    <t>            Зварювальний апарат "БРИГАДИР" Professional  ММА-250C</t>
-  </si>
-  <si>
-    <t>        3 Сварочные аппараты "Puls"</t>
-  </si>
-  <si>
-    <t>            Зварювальний інвертор "PULS" MMA-200D mini, дисплей</t>
+    <t>21. SOMA бытовой электроинструмент Q</t>
+  </si>
+  <si>
+    <t>Заточний верстат 200Вт, 150/200мм SM6402</t>
+  </si>
+  <si>
+    <t>22. Makita  электроинструмент Q</t>
+  </si>
+  <si>
+    <t>!MAKITA</t>
+  </si>
+  <si>
+    <t>Makita Акумуляторний шурупокрут  6261 DWLE, 9,6 В, 2 А-ч, 400 об/хв с підсвічуванням  роб. зони 2-акум</t>
+  </si>
+  <si>
+    <t>Makita Акумуляторний шурупокрут  6271 DWAE, 12В, 2А/год  350 об/хв</t>
+  </si>
+  <si>
+    <t>Makita Дискова пила 5704 R, 1200Вт, 4900 об/хв, 66мм/46мм/ диск 190мм посадковий отвір 30мм</t>
+  </si>
+  <si>
+    <t>Makita Ударний дриль HP1640, 680Вт, 2800об/мин  патрон 1,5-13мм</t>
+  </si>
+  <si>
+    <t>Makita Стрічкова шліфмашина 9903  1010Вт, 210-440м/хв, 533*76мм</t>
+  </si>
+  <si>
+    <t>Makita Стрічкова шліфмашина 9910, 650Вт, 270м/хв, 457мм х 76мм</t>
+  </si>
+  <si>
+    <t>Makita Перфоратор HR 2470, 780Вт, 2.7Дж, 0-11000 об/хв, 3 режима</t>
+  </si>
+  <si>
+    <t>Makita Термоповітродувка HG5012К 1600Вт  t350-500*C</t>
+  </si>
+  <si>
+    <t>Makita Кутова шліфувальна машина GA 9020 SF 230мм, 2200Вт, 6600 об/хв повільний рух</t>
+  </si>
+  <si>
+    <t>Makita Кутова шліфмашина GA 9020, 230мм, 2200В, 6600 об/хв</t>
+  </si>
+  <si>
+    <t>Makita Ланцюгова пила UC 4020 A, 1800Вт, 400мм</t>
+  </si>
+  <si>
+    <t>Makita Ланцюгова пила  UC 4030 A,  2000Вт, 400мм,</t>
+  </si>
+  <si>
+    <t>Makita Ексцентрикова шліфмашина BO 5031, 300Вт, 12000 об/хв, d шліф диска 123 мм</t>
+  </si>
+  <si>
+    <t>Makita Кутошліфувальна машина GA 9050, 230 мм</t>
+  </si>
+  <si>
+    <t>23. Сварочные аппараты Q</t>
+  </si>
+  <si>
+    <t>1 Сварочные аппараты "Бригадир"</t>
+  </si>
+  <si>
+    <t>Зварювальний апарат "БРИГАДИР" Professional  BX1-200C</t>
+  </si>
+  <si>
+    <t>Зварювальний апарат "БРИГАДИР" Professional  BX1-250C</t>
+  </si>
+  <si>
+    <t>Зварювальний апарат "БРИГАДИР" Professional  ММА-250C</t>
+  </si>
+  <si>
+    <t>3 Сварочные аппараты "Puls"</t>
+  </si>
+  <si>
+    <t>Зварювальний інвертор "PULS" MMA-200D mini, дисплей</t>
   </si>
   <si>
     <t>При закупке за месяц на сумму более 20тыс грн доп скидка 2%</t>
   </si>
   <si>
-    <t>            Зварювальний інвертор "PULS" MMA-200DB mini, дисплей, в кейсі</t>
-  </si>
-  <si>
-    <t>            Зварювальний інвертор "PULS" MMA-250D mini, дисплей</t>
-  </si>
-  <si>
-    <t>            Зварювальний інвертор "PULS" MMA-250DB mini, дисплей, в кейсі</t>
-  </si>
-  <si>
-    <t>            Зварювальний інвертор "PULS" ММА-200 mini</t>
-  </si>
-  <si>
-    <t>            Зварювальний інвертор "PULS" ММА-200B mini в кейсі</t>
-  </si>
-  <si>
-    <t>        4 Сварочные аппараты "Дніпро-М"</t>
-  </si>
-  <si>
-    <t>            Зварювальний інвертор "Дніпро-М" mini ММА</t>
+    <t>Зварювальний інвертор "PULS" MMA-200DB mini, дисплей, в кейсі</t>
+  </si>
+  <si>
+    <t>Зварювальний інвертор "PULS" MMA-250D mini, дисплей</t>
+  </si>
+  <si>
+    <t>Зварювальний інвертор "PULS" MMA-250DB mini, дисплей, в кейсі</t>
+  </si>
+  <si>
+    <t>Зварювальний інвертор "PULS" ММА-200 mini</t>
+  </si>
+  <si>
+    <t>Зварювальний інвертор "PULS" ММА-200B mini в кейсі</t>
+  </si>
+  <si>
+    <t>4 Сварочные аппараты "Дніпро-М"</t>
+  </si>
+  <si>
+    <t>Зварювальний інвертор "Дніпро-М" mini ММА</t>
   </si>
   <si>
     <t>при закупке за 3 месяца 6 СКЮ</t>
   </si>
   <si>
-    <t>                200 B(кейс)</t>
-  </si>
-  <si>
-    <t>                200 D(дисплей)</t>
-  </si>
-  <si>
-    <t>                200 DВ(дисплей, кейс)</t>
-  </si>
-  <si>
-    <t>                200 DВP(пласт.панель, дисп., кейс)</t>
-  </si>
-  <si>
-    <t>                250 B(кейс)</t>
-  </si>
-  <si>
-    <t>                250 D(дисплей)</t>
-  </si>
-  <si>
-    <t>                250 DPFC(дисп., пласт.панель, кейс, модель F)</t>
+    <t>200 B(кейс)</t>
+  </si>
+  <si>
+    <t>200 D(дисплей)</t>
+  </si>
+  <si>
+    <t>200 DВ(дисплей, кейс)</t>
+  </si>
+  <si>
+    <t>200 DВP(пласт.панель, дисп., кейс)</t>
+  </si>
+  <si>
+    <t>250 B(кейс)</t>
+  </si>
+  <si>
+    <t>250 D(дисплей)</t>
+  </si>
+  <si>
+    <t>250 DPFC(дисп., пласт.панель, кейс, модель F)</t>
   </si>
   <si>
     <t>от 10 шт. в ассортименте</t>
   </si>
   <si>
-    <t>                250 DPL(дисп., пласт.панель, модель L)</t>
-  </si>
-  <si>
-    <t>                250 DВ(дисплей, кейс)</t>
-  </si>
-  <si>
-    <t>                250 DВP(пласт.панель, дисп., кейс)</t>
-  </si>
-  <si>
-    <t>                250 MC(метал. кейс)</t>
-  </si>
-  <si>
-    <t>                250С DPB(пласт.панель, дисп.,метал.кейс)</t>
-  </si>
-  <si>
-    <t>            Зварювальний інвертор "Дніпро-М" ММА (MOS)</t>
-  </si>
-  <si>
-    <t>        8 Зарядные устройства "Puls"</t>
-  </si>
-  <si>
-    <t>            Зарядний пристрій CB-10 "PULS"</t>
-  </si>
-  <si>
-    <t>            Зарядний пристрій CB-18 "PULS"</t>
-  </si>
-  <si>
-    <t>            Зарядний пристрій CB-30 "PULS"</t>
-  </si>
-  <si>
-    <t>            Зарядний пристрій MAX-50 "PULS"</t>
-  </si>
-  <si>
-    <t>        Маски сварщика</t>
-  </si>
-  <si>
-    <t>            Маска зварювальника "Хамелеон" W-411 (WH-4000)</t>
-  </si>
-  <si>
-    <t>            Маска Зварювальника Герой 300F</t>
-  </si>
-  <si>
-    <t>            Маска зварювальника ДНІПРО-М</t>
-  </si>
-  <si>
-    <t>                WH-350LS</t>
-  </si>
-  <si>
-    <t>                WH-400LD</t>
-  </si>
-  <si>
-    <t>                WH-400LS</t>
-  </si>
-  <si>
-    <t>            Маска Зварювальника Едон хамелеон № 4</t>
-  </si>
-  <si>
-    <t>    24. Бензо- и электропилы Q</t>
-  </si>
-  <si>
-    <t>        1 БРИГАДИР бензопилы </t>
-  </si>
-  <si>
-    <t>            Бензопила "Бригадир Standart", 45 см, 2,4 кВт (2 шини, 2 ланцюга)</t>
+    <t>250 DPL(дисп., пласт.панель, модель L)</t>
+  </si>
+  <si>
+    <t>250 DВ(дисплей, кейс)</t>
+  </si>
+  <si>
+    <t>250 DВP(пласт.панель, дисп., кейс)</t>
+  </si>
+  <si>
+    <t>250 MC(метал. кейс)</t>
+  </si>
+  <si>
+    <t>250С DPB(пласт.панель, дисп.,метал.кейс)</t>
+  </si>
+  <si>
+    <t>Зварювальний інвертор "Дніпро-М" ММА (MOS)</t>
+  </si>
+  <si>
+    <t>8 Зарядные устройства "Puls"</t>
+  </si>
+  <si>
+    <t>Зарядний пристрій CB-10 "PULS"</t>
+  </si>
+  <si>
+    <t>Зарядний пристрій CB-18 "PULS"</t>
+  </si>
+  <si>
+    <t>Зарядний пристрій CB-30 "PULS"</t>
+  </si>
+  <si>
+    <t>Зарядний пристрій MAX-50 "PULS"</t>
+  </si>
+  <si>
+    <t>Маски сварщика</t>
+  </si>
+  <si>
+    <t>Маска зварювальника "Хамелеон" W-411 (WH-4000)</t>
+  </si>
+  <si>
+    <t>Маска Зварювальника Герой 300F</t>
+  </si>
+  <si>
+    <t>Маска зварювальника ДНІПРО-М</t>
+  </si>
+  <si>
+    <t>WH-350LS</t>
+  </si>
+  <si>
+    <t>WH-400LD</t>
+  </si>
+  <si>
+    <t>WH-400LS</t>
+  </si>
+  <si>
+    <t>Маска Зварювальника Едон хамелеон № 4</t>
+  </si>
+  <si>
+    <t>24. Бензо- и электропилы Q</t>
+  </si>
+  <si>
+    <t>1 БРИГАДИР бензопилы</t>
+  </si>
+  <si>
+    <t>Бензопила "Бригадир Standart", 45 см, 2,4 кВт (2 шини, 2 ланцюга)</t>
   </si>
   <si>
     <t>При разовой закупке от 50штук в ассортименте</t>
   </si>
   <si>
-    <t>            Бензопила "Бригадир Standart", 50 см, 2,8 кВт (2 шини, 2 ланцюга)</t>
-  </si>
-  <si>
-    <t>            Бензопила БРИГАДИР Professional , 45 см, 2,2 кВт</t>
-  </si>
-  <si>
-    <t>            Бензопила БРИГАДИР Professional , 50 см, 2,7 кВт</t>
-  </si>
-  <si>
-    <t>            Бензопила Бригадир Professional, 45 см, 2,4 кВт </t>
-  </si>
-  <si>
-    <t>            Бензопила Бригадир Professional, 50 см, 2,8 кВт </t>
-  </si>
-  <si>
-    <t>        2 БРИГАДИР электропилы</t>
-  </si>
-  <si>
-    <t>            Ланцюгова Електропила БРИГАДИР Professional, 2,8 кВт</t>
-  </si>
-  <si>
-    <t>            Ланцюгова Електропила БРИГАДИР, 2,4 кВт</t>
-  </si>
-  <si>
-    <t>            Ланцюгова Електропила БРИГАДИР боковий двигунl, 2,4 кВт</t>
-  </si>
-  <si>
-    <t>        3 FORESTA бензопилы</t>
-  </si>
-  <si>
-    <t>            Бензопила "Foresta" FA-45S, 45 см, 1,7 кВт</t>
-  </si>
-  <si>
-    <t>            Бензопила "Foresta" FA-58S, 50 см, 2,5 кВт</t>
-  </si>
-  <si>
-    <t>        4 FORESTA электропилы</t>
-  </si>
-  <si>
-    <t>            Ланцюгова електропила "Foresta", боковий двигун, 2,3 кВт </t>
-  </si>
-  <si>
-    <t>        5 ДНІПРО-М бензопилы</t>
-  </si>
-  <si>
-    <t>            Бензопила ланцюгова Дніпро-М БП-4500-1, 2,2 кВт (1 шина 45см, 1 ланцюг)</t>
-  </si>
-  <si>
-    <t>            Бензопила ланцюгова Дніпро-М БП4500-2, 2,2 кВт (2 шини 40см+45см, 2 ланцюга)</t>
-  </si>
-  <si>
-    <t>            Бензопила ланцюгова Дніпро-М БП-5200-1, 2,8 кВт (1 шина 50см, 1 ланцюг)</t>
-  </si>
-  <si>
-    <t>            Бензопила ланцюгова Дніпро-М, 45СС, 2,2 кВт (2 шини, 2 ланцюга)</t>
-  </si>
-  <si>
-    <t>            Бензопила ланцюгова Дніпро-М, 52СС, 2,8 кВт (2 шини, 2 ланцюга)</t>
-  </si>
-  <si>
-    <t>        7 HAUSGARTEN бензопилы</t>
-  </si>
-  <si>
-    <t>            Бензопила ланцюгова HAUSGARTEN HG-CS61, 51см, 3,0 кВт </t>
-  </si>
-  <si>
-    <t>            Бензопила ланцюгова HAUSGARTEN HG-CS61/2, 45см+51см, 3,0 кВт , окуляри, перчатки</t>
-  </si>
-  <si>
-    <t>    25. Бензогенераторы Q</t>
-  </si>
-  <si>
-    <t>        1 Генераторы БРИГАДИР</t>
-  </si>
-  <si>
-    <t>            Бензогенератор "Бригадир Standart" БГ-1100, 1,1 кВт, р.с.</t>
-  </si>
-  <si>
-    <t>            Бензогенератор "Бригадир Standart" БГ-2000, 2.0 кВт, р.с.</t>
-  </si>
-  <si>
-    <t>            Бензогенератор "Бригадир Standart" БГ-2000ES, 2.0 кВт, ел.с.</t>
-  </si>
-  <si>
-    <t>            Бензогенератор "Бригадир Standart" БГ-2500,  2.5 кВт, р.с.</t>
-  </si>
-  <si>
-    <t>            Бензогенератор "Бригадир Standart" БГ-2500ES, 2.5 кВт ел.с.</t>
-  </si>
-  <si>
-    <t>            Бензогенератор "Бригадир Standart" БГ-3000 3.0 кВт, р.с.</t>
-  </si>
-  <si>
-    <t>            Бензогенератор "Бригадир Standart" БГ-3000ES 3.0 кВт,ел.с.</t>
-  </si>
-  <si>
-    <t>            Бензогенератор "Бригадир Standart" БГ-503H, 3-фазный, 5.0 кВт, р.с.</t>
-  </si>
-  <si>
-    <t>            Бензогенератор "Бригадир Standart" БГ-503Е, 3-фазный, 5.0 кВт, ел.с.</t>
-  </si>
-  <si>
-    <t>            Бензогенератор "Бригадир Standart" БГ-6000, 6,0 кВт, р.с.</t>
-  </si>
-  <si>
-    <t>            Бензогенератор "Бригадир Standart" БГ-6000ES, 6,0 кВт, ел.с.</t>
-  </si>
-  <si>
-    <t>            Бензогенератор "Бригадир Standart" БГ-950, 0.75 кВт, р.с.</t>
-  </si>
-  <si>
-    <t>        2 Генераторы BRIGADIER Professional</t>
-  </si>
-  <si>
-    <t>            Бензогенератор "Brigadier Professional" BGP-09Н, 0.9 кВт, р.с.</t>
-  </si>
-  <si>
-    <t>            Бензогенератор "Brigadier Professional" BGP-20Е, 2.0 кВт, эл.с.</t>
-  </si>
-  <si>
-    <t>            Бензогенератор "Brigadier Professional" BGP-20Н, 2.0 кВт, р.с.</t>
-  </si>
-  <si>
-    <t>            Бензогенератор "Brigadier Professional" BGP-25Е, 2.5 кВт, эл.с.</t>
-  </si>
-  <si>
-    <t>            Бензогенератор "Brigadier Professional" BGP-25Н, 2.5 кВт, р.с.</t>
-  </si>
-  <si>
-    <t>            Бензогенератор "Brigadier Professional" BGP-30Е, 3.0 кВт, эл.с.</t>
-  </si>
-  <si>
-    <t>            Бензогенератор "Brigadier Professional" BGP-30Н, 3.0 кВт, р.с.</t>
-  </si>
-  <si>
-    <t>            Бензогенератор "Brigadier Professional" BGP-503Е,  3-фазний, 5.0 кВт, эл.с.</t>
-  </si>
-  <si>
-    <t>            Бензогенератор "Brigadier Professional" BGP-503Н, 3-фазний, 5.0 кВт, р.с.</t>
-  </si>
-  <si>
-    <t>            Бензогенератор "Brigadier Professional" BGP-603Е,  3-фазний, 6.0 кВт, эл.с.</t>
-  </si>
-  <si>
-    <t>            Бензогенератор "Brigadier Professional" BGP-603Н, 3-фазний, 6.0 кВт, р.с.</t>
-  </si>
-  <si>
-    <t>            Бензогенератор "Brigadier Professional" BGP-60Е, 6.0 кВт, эл.с.</t>
-  </si>
-  <si>
-    <t>            Бензогенератор "Brigadier Professional" BGP-60Н, 6.0 кВт, р.с.</t>
-  </si>
-  <si>
-    <t>        3 Генераторы PULS</t>
-  </si>
-  <si>
-    <t>            Бензогенератор "PULS" РG-603E, 3-фазный, 6.0 кВт, ел.с.</t>
-  </si>
-  <si>
-    <t>    26. Мотопомпы и компрессора Q</t>
-  </si>
-  <si>
-    <t>         1. БРИГАДИР мотопомпы</t>
-  </si>
-  <si>
-    <t>            Бензинова мотопомпа Brigadier Professional WP-3TG, 7.0 к.с., 80 мм, для брудної води </t>
-  </si>
-  <si>
-    <t>            Бензинова мотопомпа МП-2Б, 50 мм БРИГАДИР</t>
-  </si>
-  <si>
-    <t>            Бензинова мотопомпа МП-3Б, 80 мм БРИГАДИР</t>
-  </si>
-  <si>
-    <t>         3. ДНІПРО-М Компрессора</t>
-  </si>
-  <si>
-    <t>            Компресор повітряний 2-поршневий ВК100-2Р Дніпро-М, ремінний</t>
+    <t>Бензопила "Бригадир Standart", 50 см, 2,8 кВт (2 шини, 2 ланцюга)</t>
+  </si>
+  <si>
+    <t>Бензопила БРИГАДИР Professional , 45 см, 2,2 кВт</t>
+  </si>
+  <si>
+    <t>Бензопила БРИГАДИР Professional , 50 см, 2,7 кВт</t>
+  </si>
+  <si>
+    <t>Бензопила Бригадир Professional, 45 см, 2,4 кВт</t>
+  </si>
+  <si>
+    <t>Бензопила Бригадир Professional, 50 см, 2,8 кВт</t>
+  </si>
+  <si>
+    <t>2 БРИГАДИР электропилы</t>
+  </si>
+  <si>
+    <t>Ланцюгова Електропила БРИГАДИР Professional, 2,8 кВт</t>
+  </si>
+  <si>
+    <t>Ланцюгова Електропила БРИГАДИР, 2,4 кВт</t>
+  </si>
+  <si>
+    <t>Ланцюгова Електропила БРИГАДИР боковий двигунl, 2,4 кВт</t>
+  </si>
+  <si>
+    <t>3 FORESTA бензопилы</t>
+  </si>
+  <si>
+    <t>Бензопила "Foresta" FA-45S, 45 см, 1,7 кВт</t>
+  </si>
+  <si>
+    <t>Бензопила "Foresta" FA-58S, 50 см, 2,5 кВт</t>
+  </si>
+  <si>
+    <t>4 FORESTA электропилы</t>
+  </si>
+  <si>
+    <t>Ланцюгова електропила "Foresta", боковий двигун, 2,3 кВт</t>
+  </si>
+  <si>
+    <t>5 ДНІПРО-М бензопилы</t>
+  </si>
+  <si>
+    <t>Бензопила ланцюгова Дніпро-М БП-4500-1, 2,2 кВт (1 шина 45см, 1 ланцюг)</t>
+  </si>
+  <si>
+    <t>Бензопила ланцюгова Дніпро-М БП4500-2, 2,2 кВт (2 шини 40см+45см, 2 ланцюга)</t>
+  </si>
+  <si>
+    <t>Бензопила ланцюгова Дніпро-М БП-5200-1, 2,8 кВт (1 шина 50см, 1 ланцюг)</t>
+  </si>
+  <si>
+    <t>Бензопила ланцюгова Дніпро-М, 45СС, 2,2 кВт (2 шини, 2 ланцюга)</t>
+  </si>
+  <si>
+    <t>Бензопила ланцюгова Дніпро-М, 52СС, 2,8 кВт (2 шини, 2 ланцюга)</t>
+  </si>
+  <si>
+    <t>7 HAUSGARTEN бензопилы</t>
+  </si>
+  <si>
+    <t>Бензопила ланцюгова HAUSGARTEN HG-CS61, 51см, 3,0 кВт</t>
+  </si>
+  <si>
+    <t>Бензопила ланцюгова HAUSGARTEN HG-CS61/2, 45см+51см, 3,0 кВт , окуляри, перчатки</t>
+  </si>
+  <si>
+    <t>25. Бензогенераторы Q</t>
+  </si>
+  <si>
+    <t>1 Генераторы БРИГАДИР</t>
+  </si>
+  <si>
+    <t>Бензогенератор "Бригадир Standart" БГ-1100, 1,1 кВт, р.с.</t>
+  </si>
+  <si>
+    <t>Бензогенератор "Бригадир Standart" БГ-2000, 2.0 кВт, р.с.</t>
+  </si>
+  <si>
+    <t>Бензогенератор "Бригадир Standart" БГ-2000ES, 2.0 кВт, ел.с.</t>
+  </si>
+  <si>
+    <t>Бензогенератор "Бригадир Standart" БГ-2500,  2.5 кВт, р.с.</t>
+  </si>
+  <si>
+    <t>Бензогенератор "Бригадир Standart" БГ-2500ES, 2.5 кВт ел.с.</t>
+  </si>
+  <si>
+    <t>Бензогенератор "Бригадир Standart" БГ-3000 3.0 кВт, р.с.</t>
+  </si>
+  <si>
+    <t>Бензогенератор "Бригадир Standart" БГ-3000ES 3.0 кВт,ел.с.</t>
+  </si>
+  <si>
+    <t>Бензогенератор "Бригадир Standart" БГ-503H, 3-фазный, 5.0 кВт, р.с.</t>
+  </si>
+  <si>
+    <t>Бензогенератор "Бригадир Standart" БГ-503Е, 3-фазный, 5.0 кВт, ел.с.</t>
+  </si>
+  <si>
+    <t>Бензогенератор "Бригадир Standart" БГ-6000, 6,0 кВт, р.с.</t>
+  </si>
+  <si>
+    <t>Бензогенератор "Бригадир Standart" БГ-6000ES, 6,0 кВт, ел.с.</t>
+  </si>
+  <si>
+    <t>Бензогенератор "Бригадир Standart" БГ-950, 0.75 кВт, р.с.</t>
+  </si>
+  <si>
+    <t>2 Генераторы BRIGADIER Professional</t>
+  </si>
+  <si>
+    <t>Бензогенератор "Brigadier Professional" BGP-09Н, 0.9 кВт, р.с.</t>
+  </si>
+  <si>
+    <t>Бензогенератор "Brigadier Professional" BGP-20Е, 2.0 кВт, эл.с.</t>
+  </si>
+  <si>
+    <t>Бензогенератор "Brigadier Professional" BGP-20Н, 2.0 кВт, р.с.</t>
+  </si>
+  <si>
+    <t>Бензогенератор "Brigadier Professional" BGP-25Е, 2.5 кВт, эл.с.</t>
+  </si>
+  <si>
+    <t>Бензогенератор "Brigadier Professional" BGP-25Н, 2.5 кВт, р.с.</t>
+  </si>
+  <si>
+    <t>Бензогенератор "Brigadier Professional" BGP-30Е, 3.0 кВт, эл.с.</t>
+  </si>
+  <si>
+    <t>Бензогенератор "Brigadier Professional" BGP-30Н, 3.0 кВт, р.с.</t>
+  </si>
+  <si>
+    <t>Бензогенератор "Brigadier Professional" BGP-503Е,  3-фазний, 5.0 кВт, эл.с.</t>
+  </si>
+  <si>
+    <t>Бензогенератор "Brigadier Professional" BGP-503Н, 3-фазний, 5.0 кВт, р.с.</t>
+  </si>
+  <si>
+    <t>Бензогенератор "Brigadier Professional" BGP-603Е,  3-фазний, 6.0 кВт, эл.с.</t>
+  </si>
+  <si>
+    <t>Бензогенератор "Brigadier Professional" BGP-603Н, 3-фазний, 6.0 кВт, р.с.</t>
+  </si>
+  <si>
+    <t>Бензогенератор "Brigadier Professional" BGP-60Е, 6.0 кВт, эл.с.</t>
+  </si>
+  <si>
+    <t>Бензогенератор "Brigadier Professional" BGP-60Н, 6.0 кВт, р.с.</t>
+  </si>
+  <si>
+    <t>3 Генераторы PULS</t>
+  </si>
+  <si>
+    <t>Бензогенератор "PULS" РG-603E, 3-фазный, 6.0 кВт, ел.с.</t>
+  </si>
+  <si>
+    <t>26. Мотопомпы и компрессора Q</t>
+  </si>
+  <si>
+    <t>1. БРИГАДИР мотопомпы</t>
+  </si>
+  <si>
+    <t>Бензинова мотопомпа Brigadier Professional WP-3TG, 7.0 к.с., 80 мм, для брудної води</t>
+  </si>
+  <si>
+    <t>Бензинова мотопомпа МП-2Б, 50 мм БРИГАДИР</t>
+  </si>
+  <si>
+    <t>Бензинова мотопомпа МП-3Б, 80 мм БРИГАДИР</t>
+  </si>
+  <si>
+    <t>3. ДНІПРО-М Компрессора</t>
+  </si>
+  <si>
+    <t>Компресор повітряний 2-поршневий ВК100-2Р Дніпро-М, ремінний</t>
   </si>
   <si>
     <t>от 5 шт.</t>
   </si>
   <si>
-    <t>            Компресор повітряний 2-поршневий ВК50-2Р Дніпро-М, ремінний</t>
-  </si>
-  <si>
-    <t>            Компресор повітряний поршневий ПВК24-1 Дніпро-М</t>
+    <t>Компресор повітряний 2-поршневий ВК50-2Р Дніпро-М, ремінний</t>
+  </si>
+  <si>
+    <t>Компресор повітряний поршневий ПВК24-1 Дніпро-М</t>
   </si>
   <si>
     <t>от 10 шт в ассортименте</t>
   </si>
   <si>
-    <t>            Компресор повітряний поршневой ПВК24-2 Дніпро-М</t>
-  </si>
-  <si>
-    <t>            Компресор повітряний поршневий ПВК50-1 Дніпро-М</t>
-  </si>
-  <si>
-    <t>            Набор пневмоинструмента (5шт) НПІ-5П Дніпро-М</t>
-  </si>
-  <si>
-    <t>         5. Компрессора другие</t>
-  </si>
-  <si>
-    <t>            Набор лакофарбний (до компресора) "Eurotec" АТ-113 (5 шт)</t>
-  </si>
-  <si>
-    <t>        10. Компрессора "Бригадир"</t>
-  </si>
-  <si>
-    <t>            Компресор масляний Brigadier Professional, AC-24P (+ набор)</t>
-  </si>
-  <si>
-    <t>            Компресор масляний Brigadier Professional, AC-50P (+ набор)</t>
-  </si>
-  <si>
-    <t>    27. Бетономешалки Q</t>
-  </si>
-  <si>
-    <t>        1 Бетономешалки БРИГАДИР</t>
-  </si>
-  <si>
-    <t>            Бетономішалка БРИГАДИР 125 л, ел.двиг. 550Вт</t>
-  </si>
-  <si>
-    <t>            Бетономішалка БРИГАДИР 160л, ел.двиг. 750Вт</t>
-  </si>
-  <si>
-    <t>            Бетономішалка БРИГАДИР 180л, ел.двиг. 750Вт</t>
-  </si>
-  <si>
-    <t>        1 Бетономешалки ДНІПРО-М</t>
-  </si>
-  <si>
-    <t>            Бетонозмішувач ДНІПРО-М 155л з чавунним вінцем, ел.двиг., 800Вт</t>
-  </si>
-  <si>
-    <t>            Бетонозмішувач ДНІПРО-М 190л з чавунним вінцем, ел.двиг., 900Вт</t>
-  </si>
-  <si>
-    <t>            Бетономешалка ДНІПРО-М SX-125л АКЦИЯ с чугунным венцом, ел.двиг. 550Вт</t>
-  </si>
-  <si>
-    <t>            Бетонозмішувач ДНІПРО-М SX-65л, ел.двиг. 270Вт</t>
+    <t>Компресор повітряний поршневой ПВК24-2 Дніпро-М</t>
+  </si>
+  <si>
+    <t>Компресор повітряний поршневий ПВК50-1 Дніпро-М</t>
+  </si>
+  <si>
+    <t>Набор пневмоинструмента (5шт) НПІ-5П Дніпро-М</t>
+  </si>
+  <si>
+    <t>5. Компрессора другие</t>
+  </si>
+  <si>
+    <t>Набор лакофарбний (до компресора) "Eurotec" АТ-113 (5 шт)</t>
+  </si>
+  <si>
+    <t>10. Компрессора "Бригадир"</t>
+  </si>
+  <si>
+    <t>Компресор масляний Brigadier Professional, AC-24P (+ набор)</t>
+  </si>
+  <si>
+    <t>Компресор масляний Brigadier Professional, AC-50P (+ набор)</t>
+  </si>
+  <si>
+    <t>27. Бетономешалки Q</t>
+  </si>
+  <si>
+    <t>1 Бетономешалки БРИГАДИР</t>
+  </si>
+  <si>
+    <t>Бетономішалка БРИГАДИР 125 л, ел.двиг. 550Вт</t>
+  </si>
+  <si>
+    <t>Бетономішалка БРИГАДИР 160л, ел.двиг. 750Вт</t>
+  </si>
+  <si>
+    <t>Бетономішалка БРИГАДИР 180л, ел.двиг. 750Вт</t>
+  </si>
+  <si>
+    <t>1 Бетономешалки ДНІПРО-М</t>
+  </si>
+  <si>
+    <t>Бетонозмішувач ДНІПРО-М 155л з чавунним вінцем, ел.двиг., 800Вт</t>
+  </si>
+  <si>
+    <t>Бетонозмішувач ДНІПРО-М 190л з чавунним вінцем, ел.двиг., 900Вт</t>
+  </si>
+  <si>
+    <t>Бетономешалка ДНІПРО-М SX-125л АКЦИЯ с чугунным венцом, ел.двиг. 550Вт</t>
+  </si>
+  <si>
+    <t>Бетонозмішувач ДНІПРО-М SX-65л, ел.двиг. 270Вт</t>
   </si>
   <si>
     <t>от 5 шт. в ассортименте</t>
   </si>
   <si>
-    <t>        2 Бетономешалки VITALS, Кентавр</t>
-  </si>
-  <si>
-    <t>            Бетономішалка Кентавр</t>
-  </si>
-  <si>
-    <t>                140л, редуктор</t>
-  </si>
-  <si>
-    <t>    28. Бензо- электротриммера</t>
-  </si>
-  <si>
-    <t>         3. ДНІПРО-М, Hausgarten бензотриммера </t>
-  </si>
-  <si>
-    <t>            Бензиновый триммер "Hausgarten", BC-550 1,85 кВт(+окуляри, рукавиці, 2насадки-ліски, 2насадки 3Т)</t>
-  </si>
-  <si>
-    <t>         4.БРИГАДИР электротриммера</t>
-  </si>
-  <si>
-    <t>            Тример електричний  580 Вт, телескоп.ручка БРИГАДИР</t>
-  </si>
-  <si>
-    <t>         6.Газонокосилки FORESTA, ДНІПРО-М</t>
-  </si>
-  <si>
-    <t>            Газонокосарка  бензинова "Foresta" LM-4G, 4 л.с.</t>
-  </si>
-  <si>
-    <t>            Електрогазонокосилка  LМ-1200 Днiпро-М</t>
-  </si>
-  <si>
-    <t>            Електрогазонокосілка Foresta LM-1E, 1000 Вт</t>
-  </si>
-  <si>
-    <t>    29. Электроинструмент др. Q</t>
-  </si>
-  <si>
-    <t>         1. Станки</t>
-  </si>
-  <si>
-    <t>            Верстат деревообр УБДН 6М</t>
-  </si>
-  <si>
-    <t>            Верстат деревообробний ИЭ-6009 А4 2,4 кВт</t>
-  </si>
-  <si>
-    <t>            Верстат деревообр. МДС 1-05 2,2 кВт (Техноприбор)</t>
-  </si>
-  <si>
-    <t>         4. Мотокультиваторы БРИГАДИР</t>
-  </si>
-  <si>
-    <t>            Мотокультиватор "Бригадир" МК-105РБ,  6,5 л.с., бенз., руч. старт, фреза 1050 мм, колеса 4.00-10</t>
-  </si>
-  <si>
-    <t>         6. Стабилизаторы "Puls"</t>
-  </si>
-  <si>
-    <t>            Стабiлiзатор "Puls"</t>
-  </si>
-  <si>
-    <t>                DWM-5000, (100-260 В) релейний, настінний</t>
-  </si>
-  <si>
-    <t>                DWM-8000, (100-260 В) релейний, настінний</t>
-  </si>
-  <si>
-    <t>                MINI-1000, релейний</t>
-  </si>
-  <si>
-    <t>                MINI-500, релейний</t>
-  </si>
-  <si>
-    <t>                RS-1000, релейний</t>
-  </si>
-  <si>
-    <t>                RS-10000, релейний</t>
-  </si>
-  <si>
-    <t>                RS-2000, релейний</t>
-  </si>
-  <si>
-    <t>                RS-3000, релейний</t>
-  </si>
-  <si>
-    <t>                RS-500, релейний</t>
-  </si>
-  <si>
-    <t>                RS-5000, релейний</t>
-  </si>
-  <si>
-    <t>                RS-8000, релейний</t>
-  </si>
-  <si>
-    <t>                SM-3000, сервопривiд</t>
-  </si>
-  <si>
-    <t>                WM-10000, релейний, настiнний</t>
-  </si>
-  <si>
-    <t>                WM-2000, релейний, настiнний</t>
-  </si>
-  <si>
-    <t>                WM-3000, релейний, настiнний</t>
-  </si>
-  <si>
-    <t>                WM-5000, релейний, настiнний</t>
-  </si>
-  <si>
-    <t>                WM-8000, релейний, настiнний</t>
-  </si>
-  <si>
-    <t>         7. Паяльники для труб БРИГАДИР</t>
-  </si>
-  <si>
-    <t>            Паяльник з насадками для труб "Бригадир Standart", 20-63 mm</t>
-  </si>
-  <si>
-    <t>            Паяльник з насадками для труб БРИГАДИР</t>
-  </si>
-  <si>
-    <t>            Труборіз для труб ПВХ Professional (16-42 mm) БРИГАДИР</t>
-  </si>
-  <si>
-    <t>         8. Станки заточные БРИГАДИР</t>
-  </si>
-  <si>
-    <t>            Верстат для заточування ланцюга "Бригадир Standart" GM1L, 600 Вт</t>
-  </si>
-  <si>
-    <t>            Верстат для заточування ланцюга "Бригадир Standart" GM2S, 550 Вт</t>
-  </si>
-  <si>
-    <t>        10. Автомойки ДНІПРО-М</t>
-  </si>
-  <si>
-    <t>            Мойка високого тиску ДНІПРО-М</t>
-  </si>
-  <si>
-    <t>                АМ1600</t>
-  </si>
-  <si>
-    <t>                АМ1800</t>
-  </si>
-  <si>
-    <t>                АМ2200</t>
-  </si>
-  <si>
-    <t>        11. SPARKY</t>
-  </si>
-  <si>
-    <t>            Sparky  Шліфмашина кутова М750 (HD серия  ручка AVR) диск 125 мм, 750 Вт10000 об</t>
+    <t>2 Бетономешалки VITALS, Кентавр</t>
+  </si>
+  <si>
+    <t>Бетономішалка Кентавр</t>
+  </si>
+  <si>
+    <t>140л, редуктор</t>
+  </si>
+  <si>
+    <t>28. Бензо- электротриммера</t>
+  </si>
+  <si>
+    <t>3. ДНІПРО-М, Hausgarten бензотриммера</t>
+  </si>
+  <si>
+    <t>Бензиновый триммер "Hausgarten", BC-550 1,85 кВт(+окуляри, рукавиці, 2насадки-ліски, 2насадки 3Т)</t>
+  </si>
+  <si>
+    <t>4.БРИГАДИР электротриммера</t>
+  </si>
+  <si>
+    <t>Тример електричний  580 Вт, телескоп.ручка БРИГАДИР</t>
+  </si>
+  <si>
+    <t>6.Газонокосилки FORESTA, ДНІПРО-М</t>
+  </si>
+  <si>
+    <t>Газонокосарка  бензинова "Foresta" LM-4G, 4 л.с.</t>
+  </si>
+  <si>
+    <t>Електрогазонокосилка  LМ-1200 Днiпро-М</t>
+  </si>
+  <si>
+    <t>Електрогазонокосілка Foresta LM-1E, 1000 Вт</t>
+  </si>
+  <si>
+    <t>29. Электроинструмент др. Q</t>
+  </si>
+  <si>
+    <t>1. Станки</t>
+  </si>
+  <si>
+    <t>Верстат деревообр УБДН 6М</t>
+  </si>
+  <si>
+    <t>Верстат деревообробний ИЭ-6009 А4 2,4 кВт</t>
+  </si>
+  <si>
+    <t>Верстат деревообр. МДС 1-05 2,2 кВт (Техноприбор)</t>
+  </si>
+  <si>
+    <t>4. Мотокультиваторы БРИГАДИР</t>
+  </si>
+  <si>
+    <t>Мотокультиватор "Бригадир" МК-105РБ,  6,5 л.с., бенз., руч. старт, фреза 1050 мм, колеса 4.00-10</t>
+  </si>
+  <si>
+    <t>6. Стабилизаторы "Puls"</t>
+  </si>
+  <si>
+    <t>Стабiлiзатор "Puls"</t>
+  </si>
+  <si>
+    <t>DWM-5000, (100-260 В) релейний, настінний</t>
+  </si>
+  <si>
+    <t>DWM-8000, (100-260 В) релейний, настінний</t>
+  </si>
+  <si>
+    <t>MINI-1000, релейний</t>
+  </si>
+  <si>
+    <t>MINI-500, релейний</t>
+  </si>
+  <si>
+    <t>RS-1000, релейний</t>
+  </si>
+  <si>
+    <t>RS-10000, релейний</t>
+  </si>
+  <si>
+    <t>RS-2000, релейний</t>
+  </si>
+  <si>
+    <t>RS-3000, релейний</t>
+  </si>
+  <si>
+    <t>RS-500, релейний</t>
+  </si>
+  <si>
+    <t>RS-5000, релейний</t>
+  </si>
+  <si>
+    <t>RS-8000, релейний</t>
+  </si>
+  <si>
+    <t>SM-3000, сервопривiд</t>
+  </si>
+  <si>
+    <t>WM-10000, релейний, настiнний</t>
+  </si>
+  <si>
+    <t>WM-2000, релейний, настiнний</t>
+  </si>
+  <si>
+    <t>WM-3000, релейний, настiнний</t>
+  </si>
+  <si>
+    <t>WM-5000, релейний, настiнний</t>
+  </si>
+  <si>
+    <t>WM-8000, релейний, настiнний</t>
+  </si>
+  <si>
+    <t>7. Паяльники для труб БРИГАДИР</t>
+  </si>
+  <si>
+    <t>Паяльник з насадками для труб "Бригадир Standart", 20-63 mm</t>
+  </si>
+  <si>
+    <t>Паяльник з насадками для труб БРИГАДИР</t>
+  </si>
+  <si>
+    <t>Труборіз для труб ПВХ Professional (16-42 mm) БРИГАДИР</t>
+  </si>
+  <si>
+    <t>8. Станки заточные БРИГАДИР</t>
+  </si>
+  <si>
+    <t>Верстат для заточування ланцюга "Бригадир Standart" GM1L, 600 Вт</t>
+  </si>
+  <si>
+    <t>Верстат для заточування ланцюга "Бригадир Standart" GM2S, 550 Вт</t>
+  </si>
+  <si>
+    <t>10. Автомойки ДНІПРО-М</t>
+  </si>
+  <si>
+    <t>Мойка високого тиску ДНІПРО-М</t>
+  </si>
+  <si>
+    <t>АМ1600</t>
+  </si>
+  <si>
+    <t>АМ1800</t>
+  </si>
+  <si>
+    <t>АМ2200</t>
+  </si>
+  <si>
+    <t>11. SPARKY</t>
+  </si>
+  <si>
+    <t>Sparky  Шліфмашина кутова М750 (HD серия  ручка AVR) диск 125 мм, 750 Вт10000 об</t>
   </si>
   <si>
     <t>от 5 штук</t>
   </si>
   <si>
-    <t>            Sparky Ланцюгова пила TV 1835 електрична</t>
-  </si>
-  <si>
-    <t>            Sparky Ланцюгова пила TV 2040 електрична</t>
-  </si>
-  <si>
-    <t>        15. Einhell</t>
-  </si>
-  <si>
-    <t>            Аккумуляторная дрель-шуруповерт  Einhell BCD 12</t>
-  </si>
-  <si>
-    <t>            Акумуляторна дриль-шуруповерт  Einhell BCD 18 1h</t>
-  </si>
-  <si>
-    <t>            Акумуляторний дриль-шуруповерт  Einhell BCD 18 2В</t>
-  </si>
-  <si>
-    <t>            Аккумуляторний дриль-шуруповерт  Einhell BT-CD 10.8/1 Li Kit</t>
-  </si>
-  <si>
-    <t>            Акумуляторна дриль-шурупокрут  Einhell BT-CD 10.8/2 Li Kit</t>
-  </si>
-  <si>
-    <t>            Акумуляторний дриль-шуруповерт  Einhell BT-CD 18</t>
-  </si>
-  <si>
-    <t>            Аккумуляторная дрель-шуруповерт  Einhell RT-CD 10.8Li</t>
-  </si>
-  <si>
-    <t>            Акумуляторна дриль-шуруповерт Einhell BCD 14,4 2B</t>
-  </si>
-  <si>
-    <t>            Аккумуляторная дрель-шуруповерт Einhell BCD 18 /1 2B</t>
-  </si>
-  <si>
-    <t>            Аккумуляторная отвёртка  Einhell BT-SD 3,6 /1Li</t>
-  </si>
-  <si>
-    <t>            Аккумуляторная отвертка Einhell BSD 3,6/1Li</t>
-  </si>
-  <si>
-    <t>            Аккумуляторна викрутка Einhell BT-SD 3,6/2 Li</t>
-  </si>
-  <si>
-    <t>            Вібраційна шліфувальна машина Einhell BOS 150 </t>
-  </si>
-  <si>
-    <t>            Вібраційна шліфувальна машина Einhell BT-OS 280 Е</t>
-  </si>
-  <si>
-    <t>            Гайковерт акумуляторний Einhell BUSS 18   АВТО</t>
-  </si>
-  <si>
-    <t>            Стрічкова шліфмашина Einhell НБ BBS 720</t>
-  </si>
-  <si>
-    <t>            Лобзик Einhell BJS 750  </t>
-  </si>
-  <si>
-    <t>            Лобзик Einhell BT-JS 650 E</t>
-  </si>
-  <si>
-    <t>            Лобзик Einhell BT-JS 800 E</t>
-  </si>
-  <si>
-    <t>            Лобзик Einhell RT-JS 85</t>
-  </si>
-  <si>
-    <t>            Лобзик Einhell TН-JS 85</t>
+    <t>Sparky Ланцюгова пила TV 1835 електрична</t>
+  </si>
+  <si>
+    <t>Sparky Ланцюгова пила TV 2040 електрична</t>
+  </si>
+  <si>
+    <t>15. Einhell</t>
+  </si>
+  <si>
+    <t>Аккумуляторная дрель-шуруповерт  Einhell BCD 12</t>
+  </si>
+  <si>
+    <t>Акумуляторна дриль-шуруповерт  Einhell BCD 18 1h</t>
+  </si>
+  <si>
+    <t>Акумуляторний дриль-шуруповерт  Einhell BCD 18 2В</t>
+  </si>
+  <si>
+    <t>Аккумуляторний дриль-шуруповерт  Einhell BT-CD 10.8/1 Li Kit</t>
+  </si>
+  <si>
+    <t>Акумуляторна дриль-шурупокрут  Einhell BT-CD 10.8/2 Li Kit</t>
+  </si>
+  <si>
+    <t>Акумуляторний дриль-шуруповерт  Einhell BT-CD 18</t>
+  </si>
+  <si>
+    <t>Аккумуляторная дрель-шуруповерт  Einhell RT-CD 10.8Li</t>
+  </si>
+  <si>
+    <t>Акумуляторна дриль-шуруповерт Einhell BCD 14,4 2B</t>
+  </si>
+  <si>
+    <t>Аккумуляторная дрель-шуруповерт Einhell BCD 18 /1 2B</t>
+  </si>
+  <si>
+    <t>Аккумуляторная отвёртка  Einhell BT-SD 3,6 /1Li</t>
+  </si>
+  <si>
+    <t>Аккумуляторная отвертка Einhell BSD 3,6/1Li</t>
+  </si>
+  <si>
+    <t>Аккумуляторна викрутка Einhell BT-SD 3,6/2 Li</t>
+  </si>
+  <si>
+    <t>Вібраційна шліфувальна машина Einhell BOS 150</t>
+  </si>
+  <si>
+    <t>Вібраційна шліфувальна машина Einhell BT-OS 280 Е</t>
+  </si>
+  <si>
+    <t>Гайковерт акумуляторний Einhell BUSS 18   АВТО</t>
+  </si>
+  <si>
+    <t>Стрічкова шліфмашина Einhell НБ BBS 720</t>
+  </si>
+  <si>
+    <t>Лобзик Einhell BJS 750</t>
+  </si>
+  <si>
+    <t>Лобзик Einhell BT-JS 650 E</t>
+  </si>
+  <si>
+    <t>Лобзик Einhell BT-JS 800 E</t>
+  </si>
+  <si>
+    <t>Лобзик Einhell RT-JS 85</t>
+  </si>
+  <si>
+    <t>Лобзик Einhell TН-JS 85</t>
   </si>
   <si>
     <t>от 3 тыс грн</t>
   </si>
   <si>
-    <t>            Міксер Einhell BT-МХ 1100 Е</t>
-  </si>
-  <si>
-    <t>            Багатофункціональний пристрій Einhell BТ-MG 135/1</t>
-  </si>
-  <si>
-    <t>            Викрутка електрична Einhell BDY 720E</t>
-  </si>
-  <si>
-    <t>            Перфоратор Einhell BRH 920 Е</t>
-  </si>
-  <si>
-    <t>            Перфоратор Einhell BT-RH 1500</t>
-  </si>
-  <si>
-    <t>            Перфоратор Einhell BT-RH 1500 Kit</t>
-  </si>
-  <si>
-    <t>            Перфоратор Einhell BT-RH 600</t>
-  </si>
-  <si>
-    <t>            Перфоратор Einhell BT-RH 900</t>
-  </si>
-  <si>
-    <t>            Перфоратор Einhell BT-RH 920 E</t>
-  </si>
-  <si>
-    <t>            Перфоратор Einhell BT-RH 920/1 </t>
-  </si>
-  <si>
-    <t>            Перфоратор Einhell RT-RH 32 Kit</t>
-  </si>
-  <si>
-    <t>            Полірувальна машина Einhell BT-PO 110</t>
-  </si>
-  <si>
-    <t>            Полірувальна машина Einhell BT-PO 1100/1 E</t>
-  </si>
-  <si>
-    <t>            Рубанок Einhell BT-PL 750</t>
-  </si>
-  <si>
-    <t>            Рубанок Einhell BT-PL 900</t>
-  </si>
-  <si>
-    <t>            Точило Einhell BT-BG 150</t>
-  </si>
-  <si>
-    <t>            Точило Einhell BT-BG 175</t>
-  </si>
-  <si>
-    <t>            Точило Einhell BT-BG 200</t>
-  </si>
-  <si>
-    <t>            Шліфмашина кутова Einhell BAG 230</t>
-  </si>
-  <si>
-    <t>            Шліфмашина кутова Einhell BT-AG 1000</t>
-  </si>
-  <si>
-    <t>            Шліфмашина кутова Einhell RT-AG 230</t>
-  </si>
-  <si>
-    <t>            Кутова шліфмашина Einhell TЕ-AG 125/750</t>
-  </si>
-  <si>
-    <t>            Ударная дрель Einhell BED 500 E</t>
-  </si>
-  <si>
-    <t>            Ударний дриль Einhell BID 650 E</t>
-  </si>
-  <si>
-    <t>            Дриль ударний Einhell BID 710 E </t>
-  </si>
-  <si>
-    <t>            Дриль ударний Einhell BT-ID 650E</t>
-  </si>
-  <si>
-    <t>            Дриль ударний Einhell BT-ID 710E</t>
-  </si>
-  <si>
-    <t>            Дриль ударний Einhell RT-ID 75</t>
-  </si>
-  <si>
-    <t>            Фен Einhell BHA 1500</t>
-  </si>
-  <si>
-    <t>            Фен Einhell BHA 2000</t>
-  </si>
-  <si>
-    <t>            Фрезер Einhell TH-RO 1100 E</t>
-  </si>
-  <si>
-    <t>            Фрезер багатофункціональний Einhell RT-MG 10,8/Li</t>
-  </si>
-  <si>
-    <t>            Циркулярна пила Einhell BCS 55</t>
-  </si>
-  <si>
-    <t>            Циркулярна пила Einhell BCS 64</t>
-  </si>
-  <si>
-    <t>            Циркулярная пила Einhell BCS 64/1</t>
-  </si>
-  <si>
-    <t>            Циркулярна пила Einhell BT-CS 1400/1</t>
-  </si>
-  <si>
-    <t>            Ексцентрикова шліфувальна машина Einhell BT-RS 420 E</t>
-  </si>
-  <si>
-    <t>        29. Снегоуборщики БРИГАДИР, BUFF</t>
-  </si>
-  <si>
-    <t>            Снігоприбиральна машина 6,5 лс руч. старт SB-65</t>
-  </si>
-  <si>
-    <t>    30. Кормоизмельчители Q</t>
-  </si>
-  <si>
-    <t>        2 Кормоизмельчители ИКОР</t>
-  </si>
-  <si>
-    <t>            Кормоподріб. "Ікор-4" (зерно)</t>
-  </si>
-  <si>
-    <t>            Подрiбнювач кормiв "Икор-5" (зерно, кукурудза, коренеплоды)</t>
-  </si>
-  <si>
-    <t>        3 Зернодробилки Ярмаш</t>
-  </si>
-  <si>
-    <t>            Зернодробарка побутова "Ярмаш" - 170</t>
+    <t>Міксер Einhell BT-МХ 1100 Е</t>
+  </si>
+  <si>
+    <t>Багатофункціональний пристрій Einhell BТ-MG 135/1</t>
+  </si>
+  <si>
+    <t>Викрутка електрична Einhell BDY 720E</t>
+  </si>
+  <si>
+    <t>Перфоратор Einhell BRH 920 Е</t>
+  </si>
+  <si>
+    <t>Перфоратор Einhell BT-RH 1500</t>
+  </si>
+  <si>
+    <t>Перфоратор Einhell BT-RH 1500 Kit</t>
+  </si>
+  <si>
+    <t>Перфоратор Einhell BT-RH 600</t>
+  </si>
+  <si>
+    <t>Перфоратор Einhell BT-RH 900</t>
+  </si>
+  <si>
+    <t>Перфоратор Einhell BT-RH 920 E</t>
+  </si>
+  <si>
+    <t>Перфоратор Einhell BT-RH 920/1</t>
+  </si>
+  <si>
+    <t>Перфоратор Einhell RT-RH 32 Kit</t>
+  </si>
+  <si>
+    <t>Полірувальна машина Einhell BT-PO 110</t>
+  </si>
+  <si>
+    <t>Полірувальна машина Einhell BT-PO 1100/1 E</t>
+  </si>
+  <si>
+    <t>Рубанок Einhell BT-PL 750</t>
+  </si>
+  <si>
+    <t>Рубанок Einhell BT-PL 900</t>
+  </si>
+  <si>
+    <t>Точило Einhell BT-BG 150</t>
+  </si>
+  <si>
+    <t>Точило Einhell BT-BG 175</t>
+  </si>
+  <si>
+    <t>Точило Einhell BT-BG 200</t>
+  </si>
+  <si>
+    <t>Шліфмашина кутова Einhell BAG 230</t>
+  </si>
+  <si>
+    <t>Шліфмашина кутова Einhell BT-AG 1000</t>
+  </si>
+  <si>
+    <t>Шліфмашина кутова Einhell RT-AG 230</t>
+  </si>
+  <si>
+    <t>Кутова шліфмашина Einhell TЕ-AG 125/750</t>
+  </si>
+  <si>
+    <t>Ударная дрель Einhell BED 500 E</t>
+  </si>
+  <si>
+    <t>Ударний дриль Einhell BID 650 E</t>
+  </si>
+  <si>
+    <t>Дриль ударний Einhell BID 710 E</t>
+  </si>
+  <si>
+    <t>Дриль ударний Einhell BT-ID 650E</t>
+  </si>
+  <si>
+    <t>Дриль ударний Einhell BT-ID 710E</t>
+  </si>
+  <si>
+    <t>Дриль ударний Einhell RT-ID 75</t>
+  </si>
+  <si>
+    <t>Фен Einhell BHA 1500</t>
+  </si>
+  <si>
+    <t>Фен Einhell BHA 2000</t>
+  </si>
+  <si>
+    <t>Фрезер Einhell TH-RO 1100 E</t>
+  </si>
+  <si>
+    <t>Фрезер багатофункціональний Einhell RT-MG 10,8/Li</t>
+  </si>
+  <si>
+    <t>Циркулярна пила Einhell BCS 55</t>
+  </si>
+  <si>
+    <t>Циркулярна пила Einhell BCS 64</t>
+  </si>
+  <si>
+    <t>Циркулярная пила Einhell BCS 64/1</t>
+  </si>
+  <si>
+    <t>Циркулярна пила Einhell BT-CS 1400/1</t>
+  </si>
+  <si>
+    <t>Ексцентрикова шліфувальна машина Einhell BT-RS 420 E</t>
+  </si>
+  <si>
+    <t>29. Снегоуборщики БРИГАДИР, BUFF</t>
+  </si>
+  <si>
+    <t>Снігоприбиральна машина 6,5 лс руч. старт SB-65</t>
+  </si>
+  <si>
+    <t>30. Кормоизмельчители Q</t>
+  </si>
+  <si>
+    <t>2 Кормоизмельчители ИКОР</t>
+  </si>
+  <si>
+    <t>Кормоподріб. "Ікор-4" (зерно)</t>
+  </si>
+  <si>
+    <t>Подрiбнювач кормiв "Икор-5" (зерно, кукурудза, коренеплоды)</t>
+  </si>
+  <si>
+    <t>3 Зернодробилки Ярмаш</t>
+  </si>
+  <si>
+    <t>Зернодробарка побутова "Ярмаш" - 170</t>
   </si>
   <si>
     <t>от 10 шт.</t>
   </si>
   <si>
-    <t>            Зернодробарка побутова "Ярмаш" - 250</t>
-  </si>
-  <si>
-    <t>            Зернодробарка побутова "Ярмаш" - 300</t>
-  </si>
-  <si>
-    <t>        4 Корнерезки </t>
-  </si>
-  <si>
-    <t>            Коренерізка дискова з двигуном (фарбов.барабан) м. Вінниця</t>
-  </si>
-  <si>
-    <t>            Коренерізка ручна "Коза-Нова" (барабан-нерж) г. Вінниця</t>
-  </si>
-  <si>
-    <t>            Корнерізка ручна (барабан нерж., аналог "Коза-Нова") м.Харків</t>
-  </si>
-  <si>
-    <t>            Корнерезка ручна (барабан оцинк., аналог "Коза-Нова")</t>
-  </si>
-  <si>
-    <t>            Корнерезка ручная дисковая, г.Харьков</t>
-  </si>
-  <si>
-    <t>            Кукурудзолущилка ручна м. Винница</t>
+    <t>Зернодробарка побутова "Ярмаш" - 250</t>
+  </si>
+  <si>
+    <t>Зернодробарка побутова "Ярмаш" - 300</t>
+  </si>
+  <si>
+    <t>4 Корнерезки</t>
+  </si>
+  <si>
+    <t>Коренерізка дискова з двигуном (фарбов.барабан) м. Вінниця</t>
+  </si>
+  <si>
+    <t>Коренерізка ручна "Коза-Нова" (барабан-нерж) г. Вінниця</t>
+  </si>
+  <si>
+    <t>Корнерізка ручна (барабан нерж., аналог "Коза-Нова") м.Харків</t>
+  </si>
+  <si>
+    <t>Корнерезка ручна (барабан оцинк., аналог "Коза-Нова")</t>
+  </si>
+  <si>
+    <t>Корнерезка ручная дисковая, г.Харьков</t>
+  </si>
+  <si>
+    <t>Кукурудзолущилка ручна м. Винница</t>
   </si>
   <si>
     <t>от 5шт.</t>
   </si>
   <si>
-    <t>            Кукурудзолущилка з двигуном "ЛАН"</t>
+    <t>Кукурудзолущилка з двигуном "ЛАН"</t>
   </si>
   <si>
     <t>от 5шт. в ассорт</t>
   </si>
   <si>
-    <t>            Кукурудзолущилка з двигуном м. Вінниця</t>
-  </si>
-  <si>
-    <t>от 5шт. </t>
-  </si>
-  <si>
-    <t>        5 Кормоизмельчители и зернодробилки другие</t>
-  </si>
-  <si>
-    <t>            Зернодробарка ЛАН-1 (зерно)</t>
+    <t>Кукурудзолущилка з двигуном м. Вінниця</t>
+  </si>
+  <si>
+    <t>5 Кормоизмельчители и зернодробилки другие</t>
+  </si>
+  <si>
+    <t>Зернодробарка ЛАН-1 (зерно)</t>
   </si>
   <si>
     <t>от 10шт</t>
   </si>
   <si>
-    <t>            Зернодробарка ЛАН-2 (зерно+кукуруза)</t>
-  </si>
-  <si>
-    <t>            Зернодробарка ТМ "VEGIS" (зерно-початки) 2.2кВт</t>
-  </si>
-  <si>
-    <t>    30.1 Насосы</t>
-  </si>
-  <si>
-    <t>        Насос "Струмочок" Білорусь</t>
+    <t>Зернодробарка ЛАН-2 (зерно+кукуруза)</t>
+  </si>
+  <si>
+    <t>Зернодробарка ТМ "VEGIS" (зерно-початки) 2.2кВт</t>
+  </si>
+  <si>
+    <t>30.1 Насосы</t>
+  </si>
+  <si>
+    <t>Насос "Струмочок" Білорусь</t>
   </si>
   <si>
     <t>при закупке 50штук</t>
   </si>
   <si>
-    <t>        Насос вібраційний ДНІПРО-М НВ-1</t>
-  </si>
-  <si>
-    <t>        Насосные станции ДНІПРО-М</t>
-  </si>
-  <si>
-    <t>            Насосна станція ДНІПРО-М (насос+бак+пульт)</t>
-  </si>
-  <si>
-    <t>                JET-110A (чавун) 1.1КВт</t>
-  </si>
-  <si>
-    <t>                JET-110ST (нерж) 1.1КВт</t>
-  </si>
-  <si>
-    <t>                JET-80A (чавун) 0.8КВт</t>
-  </si>
-  <si>
-    <t>                JET-80ST (нерж) 0.8КВт</t>
-  </si>
-  <si>
-    <t>        Насосы для грязной воды (фекальные)</t>
-  </si>
-  <si>
-    <t>            Шланг для насосів и мотопомп (ткань, д50мм) 50м</t>
-  </si>
-  <si>
-    <t>            Электронасос дренажний EuroKraft 1.6кВт P-203 (пластик, з ситом, з поплавком)</t>
-  </si>
-  <si>
-    <t>            Електронасос дренажний Eurotec 2.45кВт PU206 (чавунний, з ситом, з поплавком)</t>
-  </si>
-  <si>
-    <t>            Електронасос дренажний Eurotec 2.45кВт PU206 (чавунний, з ситом) </t>
-  </si>
-  <si>
-    <t>        Насосы погружные дренажные ДНІПРО-М</t>
-  </si>
-  <si>
-    <t>            Насос дренажний Дніпро-М НДА-1 2.45кВт  (алюмінійовий, з ситом, фекальный)</t>
+    <t>Насос вібраційний ДНІПРО-М НВ-1</t>
+  </si>
+  <si>
+    <t>Насосные станции ДНІПРО-М</t>
+  </si>
+  <si>
+    <t>Насосна станція ДНІПРО-М (насос+бак+пульт)</t>
+  </si>
+  <si>
+    <t>JET-110A (чавун) 1.1КВт</t>
+  </si>
+  <si>
+    <t>JET-110ST (нерж) 1.1КВт</t>
+  </si>
+  <si>
+    <t>JET-80A (чавун) 0.8КВт</t>
+  </si>
+  <si>
+    <t>JET-80ST (нерж) 0.8КВт</t>
+  </si>
+  <si>
+    <t>Насосы для грязной воды (фекальные)</t>
+  </si>
+  <si>
+    <t>Шланг для насосів и мотопомп (ткань, д50мм) 50м</t>
+  </si>
+  <si>
+    <t>Электронасос дренажний EuroKraft 1.6кВт P-203 (пластик, з ситом, з поплавком)</t>
+  </si>
+  <si>
+    <t>Електронасос дренажний Eurotec 2.45кВт PU206 (чавунний, з ситом, з поплавком)</t>
+  </si>
+  <si>
+    <t>Електронасос дренажний Eurotec 2.45кВт PU206 (чавунний, з ситом)</t>
+  </si>
+  <si>
+    <t>Насосы погружные дренажные ДНІПРО-М</t>
+  </si>
+  <si>
+    <t>Насос дренажний Дніпро-М НДА-1 2.45кВт  (алюмінійовий, з ситом, фекальный)</t>
   </si>
   <si>
     <t>от 20 шт в ассортименте</t>
   </si>
   <si>
-    <t>            Насос дренажний Дніпро-М НДА-1П 2.45кВт  (алюмінійовий з поплавком, з ситом, фекальный)</t>
-  </si>
-  <si>
-    <t>            Насос дренажный Дніпро-М НДН-1 2.75кВт (нерж)</t>
-  </si>
-  <si>
-    <t>            Насос дренажный Дніпро-М НДН-1П 2.75кВт (нерж, з поплавком)</t>
-  </si>
-  <si>
-    <t>            Насос дренажний Дніпро-М НДП-600П (пластик)</t>
-  </si>
-  <si>
-    <t>            Насос дренажний Дніпро-М НДЧ-1 2.75кВт  (чавунний, фекальний)</t>
-  </si>
-  <si>
-    <t>            Насос дренажний Дніпро-М НДЧ-1П 2.75кВт  (чавуний, фекальний, з поплавком)</t>
-  </si>
-  <si>
-    <t>            Насос дренажний Дніпро-М НДЧ-2Н 2.75кВт (чавун, з подрібнювачем, без поплавка)</t>
-  </si>
-  <si>
-    <t>            Насос дренажний Дніпро-М НДЧ-2НП 2.75кВт (чавун, з подрібнювачем, з поплавком)</t>
+    <t>Насос дренажний Дніпро-М НДА-1П 2.45кВт  (алюмінійовий з поплавком, з ситом, фекальный)</t>
+  </si>
+  <si>
+    <t>Насос дренажный Дніпро-М НДН-1 2.75кВт (нерж)</t>
+  </si>
+  <si>
+    <t>Насос дренажный Дніпро-М НДН-1П 2.75кВт (нерж, з поплавком)</t>
+  </si>
+  <si>
+    <t>Насос дренажний Дніпро-М НДП-600П (пластик)</t>
+  </si>
+  <si>
+    <t>Насос дренажний Дніпро-М НДЧ-1 2.75кВт  (чавунний, фекальний)</t>
+  </si>
+  <si>
+    <t>Насос дренажний Дніпро-М НДЧ-1П 2.75кВт  (чавуний, фекальний, з поплавком)</t>
+  </si>
+  <si>
+    <t>Насос дренажний Дніпро-М НДЧ-2Н 2.75кВт (чавун, з подрібнювачем, без поплавка)</t>
+  </si>
+  <si>
+    <t>Насос дренажний Дніпро-М НДЧ-2НП 2.75кВт (чавун, з подрібнювачем, з поплавком)</t>
   </si>
 </sst>
 </file>
@@ -1734,6 +1731,7 @@
   <fonts count="13">
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="8"/>
     </font>
@@ -1784,29 +1782,34 @@
     </font>
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <b val="true"/>
       <sz val="9"/>
     </font>
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <b val="true"/>
       <sz val="8"/>
     </font>
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="5"/>
     </font>
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <i val="true"/>
       <sz val="9"/>
     </font>
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <b val="true"/>
       <i val="true"/>
@@ -1860,16 +1863,16 @@
       <diagonal/>
     </border>
     <border diagonalDown="false" diagonalUp="false">
-      <left style="thin">
+      <left style="thick">
         <color rgb="003C3C3C"/>
       </left>
-      <right style="thin">
+      <right style="thick">
         <color rgb="003C3C3C"/>
       </right>
-      <top style="thin">
+      <top style="thick">
         <color rgb="003C3C3C"/>
       </top>
-      <bottom style="thin">
+      <bottom style="thick">
         <color rgb="003C3C3C"/>
       </bottom>
       <diagonal/>
@@ -2159,15 +2162,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
+      <xdr:colOff>54360</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>567720</xdr:colOff>
+      <xdr:colOff>621000</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>87120</xdr:rowOff>
+      <xdr:rowOff>86400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2182,18 +2185,18 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="64800" y="0"/>
-          <a:ext cx="8181720" cy="8316360"/>
+          <a:off x="118800" y="0"/>
+          <a:ext cx="8242560" cy="13253400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="9360">
+        <a:ln cap="rnd" w="9360">
           <a:solidFill>
             <a:srgbClr val="ffffff"/>
           </a:solidFill>
           <a:custDash>
-            <a:ds d="26000" sp="26000"/>
+            <a:ds d="1785228928000" sp="1785228928000"/>
           </a:custDash>
           <a:miter/>
         </a:ln>
@@ -2204,15 +2207,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>54360</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>144720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>577440</xdr:colOff>
+      <xdr:colOff>630720</xdr:colOff>
       <xdr:row>86</xdr:row>
-      <xdr:rowOff>164160</xdr:rowOff>
+      <xdr:rowOff>145440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2227,18 +2230,18 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="64800" y="8331120"/>
-          <a:ext cx="8191440" cy="1062000"/>
+          <a:off x="118800" y="13311720"/>
+          <a:ext cx="8252280" cy="1061280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="9360">
+        <a:ln cap="rnd" w="9360">
           <a:solidFill>
             <a:srgbClr val="ffffff"/>
           </a:solidFill>
           <a:custDash>
-            <a:ds d="26000" sp="26000"/>
+            <a:ds d="1785228928000" sp="1785228928000"/>
           </a:custDash>
           <a:miter/>
         </a:ln>
@@ -2249,15 +2252,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
-      <xdr:row>326</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>54360</xdr:colOff>
+      <xdr:row>325</xdr:row>
+      <xdr:rowOff>284040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>605520</xdr:colOff>
+      <xdr:colOff>658800</xdr:colOff>
       <xdr:row>407</xdr:row>
-      <xdr:rowOff>87120</xdr:rowOff>
+      <xdr:rowOff>68400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2272,18 +2275,18 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="64800" y="57195000"/>
-          <a:ext cx="8219520" cy="8316720"/>
+          <a:off x="118800" y="62236440"/>
+          <a:ext cx="8280360" cy="13253760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="9360">
+        <a:ln cap="rnd" w="9360">
           <a:solidFill>
             <a:srgbClr val="ffffff"/>
           </a:solidFill>
           <a:custDash>
-            <a:ds d="26000" sp="26000"/>
+            <a:ds d="1785228928000" sp="1785228928000"/>
           </a:custDash>
           <a:miter/>
         </a:ln>
@@ -2294,15 +2297,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
-      <xdr:row>408</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>54360</xdr:colOff>
+      <xdr:row>407</xdr:row>
+      <xdr:rowOff>144720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>577440</xdr:colOff>
+      <xdr:colOff>630720</xdr:colOff>
       <xdr:row>412</xdr:row>
-      <xdr:rowOff>164160</xdr:rowOff>
+      <xdr:rowOff>145440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2317,18 +2320,18 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="64800" y="65526120"/>
-          <a:ext cx="8191440" cy="1062000"/>
+          <a:off x="118800" y="75566520"/>
+          <a:ext cx="8252280" cy="1061280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="9360">
+        <a:ln cap="rnd" w="9360">
           <a:solidFill>
             <a:srgbClr val="ffffff"/>
           </a:solidFill>
           <a:custDash>
-            <a:ds d="26000" sp="26000"/>
+            <a:ds d="1785228928000" sp="1785228928000"/>
           </a:custDash>
           <a:miter/>
         </a:ln>
@@ -2346,18 +2349,19 @@
   </sheetPr>
   <dimension ref="A83:L731"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A84" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B89" activeCellId="0" pane="topLeft" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="1.14901960784314"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="51.3803921568628"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.4509803921569"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="13.4588235294118"/>
-    <col collapsed="false" hidden="false" max="10" min="7" style="1" width="16.0274509803922"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="10.3098039215686"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="12.3058823529412"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="51.7960784313726"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.5411764705882"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="13.5686274509804"/>
+    <col collapsed="false" hidden="false" max="10" min="7" style="1" width="16.1529411764706"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="10.4"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="12.3960784313726"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.57254901960784"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="83" s="1">
@@ -2418,9 +2422,6 @@
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
       <c r="I91" s="6"/>
-      <c r="J91" s="0"/>
-      <c r="K91" s="0"/>
-      <c r="L91" s="0"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="9.55" outlineLevel="0" r="92" s="8">
       <c r="A92" s="7"/>
@@ -2499,7 +2500,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="11.8" outlineLevel="0" r="99">
-      <c r="A99" s="0"/>
       <c r="B99" s="13" t="s">
         <v>17</v>
       </c>
@@ -2515,7 +2515,6 @@
       <c r="L99" s="16"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="11.8" outlineLevel="1" r="100">
-      <c r="A100" s="0"/>
       <c r="B100" s="17" t="s">
         <v>18</v>
       </c>
@@ -2531,7 +2530,6 @@
       <c r="L100" s="17"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="11.8" outlineLevel="2" r="101">
-      <c r="A101" s="0"/>
       <c r="B101" s="20" t="s">
         <v>19</v>
       </c>
@@ -2547,7 +2545,6 @@
       <c r="L101" s="20"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="102">
-      <c r="A102" s="0"/>
       <c r="B102" s="23" t="s">
         <v>20</v>
       </c>
@@ -2563,7 +2560,6 @@
       <c r="L102" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="4" r="103">
-      <c r="A103" s="0"/>
       <c r="B103" s="23" t="s">
         <v>21</v>
       </c>
@@ -2595,7 +2591,6 @@
       <c r="L103" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="2" r="104">
-      <c r="A104" s="0"/>
       <c r="B104" s="29" t="s">
         <v>22</v>
       </c>
@@ -2611,7 +2606,6 @@
       <c r="L104" s="29"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="105">
-      <c r="A105" s="0"/>
       <c r="B105" s="23" t="s">
         <v>23</v>
       </c>
@@ -2627,7 +2621,6 @@
       <c r="L105" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="106">
-      <c r="A106" s="0"/>
       <c r="B106" s="23" t="s">
         <v>24</v>
       </c>
@@ -2659,7 +2652,6 @@
       <c r="L106" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="107">
-      <c r="A107" s="0"/>
       <c r="B107" s="23" t="s">
         <v>25</v>
       </c>
@@ -2691,7 +2683,6 @@
       <c r="L107" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="108">
-      <c r="A108" s="0"/>
       <c r="B108" s="23" t="s">
         <v>26</v>
       </c>
@@ -2723,7 +2714,6 @@
       <c r="L108" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="109">
-      <c r="A109" s="0"/>
       <c r="B109" s="23" t="s">
         <v>27</v>
       </c>
@@ -2739,7 +2729,6 @@
       <c r="L109" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="110">
-      <c r="A110" s="0"/>
       <c r="B110" s="23" t="s">
         <v>28</v>
       </c>
@@ -2771,7 +2760,6 @@
       <c r="L110" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="111">
-      <c r="A111" s="0"/>
       <c r="B111" s="23" t="s">
         <v>29</v>
       </c>
@@ -2803,7 +2791,6 @@
       <c r="L111" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="112">
-      <c r="A112" s="0"/>
       <c r="B112" s="23" t="s">
         <v>30</v>
       </c>
@@ -2835,7 +2822,6 @@
       <c r="L112" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="113">
-      <c r="A113" s="0"/>
       <c r="B113" s="23" t="s">
         <v>31</v>
       </c>
@@ -2851,7 +2837,6 @@
       <c r="L113" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="114">
-      <c r="A114" s="0"/>
       <c r="B114" s="32" t="s">
         <v>32</v>
       </c>
@@ -2883,7 +2868,6 @@
       <c r="L114" s="32"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="115">
-      <c r="A115" s="0"/>
       <c r="B115" s="32" t="s">
         <v>33</v>
       </c>
@@ -2913,7 +2897,6 @@
       <c r="L115" s="32"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="116">
-      <c r="A116" s="0"/>
       <c r="B116" s="23" t="s">
         <v>34</v>
       </c>
@@ -2945,7 +2928,6 @@
       <c r="L116" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="117">
-      <c r="A117" s="0"/>
       <c r="B117" s="23" t="s">
         <v>35</v>
       </c>
@@ -2961,7 +2943,6 @@
       <c r="L117" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="118">
-      <c r="A118" s="0"/>
       <c r="B118" s="23" t="s">
         <v>36</v>
       </c>
@@ -2993,7 +2974,6 @@
       <c r="L118" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="119">
-      <c r="A119" s="0"/>
       <c r="B119" s="23" t="s">
         <v>37</v>
       </c>
@@ -3009,7 +2989,6 @@
       <c r="L119" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="120">
-      <c r="A120" s="0"/>
       <c r="B120" s="23" t="s">
         <v>38</v>
       </c>
@@ -3039,7 +3018,6 @@
       <c r="L120" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="121">
-      <c r="A121" s="0"/>
       <c r="B121" s="23" t="s">
         <v>39</v>
       </c>
@@ -3055,7 +3033,6 @@
       <c r="L121" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="122">
-      <c r="A122" s="0"/>
       <c r="B122" s="23" t="s">
         <v>40</v>
       </c>
@@ -3085,7 +3062,6 @@
       <c r="L122" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="123">
-      <c r="A123" s="0"/>
       <c r="B123" s="23" t="s">
         <v>41</v>
       </c>
@@ -3101,7 +3077,6 @@
       <c r="L123" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="124">
-      <c r="A124" s="0"/>
       <c r="B124" s="23" t="s">
         <v>42</v>
       </c>
@@ -3133,7 +3108,6 @@
       <c r="L124" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="125">
-      <c r="A125" s="0"/>
       <c r="B125" s="23" t="s">
         <v>43</v>
       </c>
@@ -3165,7 +3139,6 @@
       <c r="L125" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="126">
-      <c r="A126" s="0"/>
       <c r="B126" s="23" t="s">
         <v>44</v>
       </c>
@@ -3195,7 +3168,6 @@
       <c r="L126" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="127">
-      <c r="A127" s="0"/>
       <c r="B127" s="23" t="s">
         <v>45</v>
       </c>
@@ -3225,7 +3197,6 @@
       <c r="L127" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="128">
-      <c r="A128" s="0"/>
       <c r="B128" s="23" t="s">
         <v>46</v>
       </c>
@@ -3241,7 +3212,6 @@
       <c r="L128" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="129">
-      <c r="A129" s="0"/>
       <c r="B129" s="23" t="s">
         <v>47</v>
       </c>
@@ -3273,7 +3243,6 @@
       <c r="L129" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="130">
-      <c r="A130" s="0"/>
       <c r="B130" s="23" t="s">
         <v>48</v>
       </c>
@@ -3305,7 +3274,6 @@
       <c r="L130" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="131">
-      <c r="A131" s="0"/>
       <c r="B131" s="23" t="s">
         <v>49</v>
       </c>
@@ -3337,7 +3305,6 @@
       <c r="L131" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="132">
-      <c r="A132" s="0"/>
       <c r="B132" s="23" t="s">
         <v>50</v>
       </c>
@@ -3369,7 +3336,6 @@
       <c r="L132" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="133">
-      <c r="A133" s="0"/>
       <c r="B133" s="23" t="s">
         <v>51</v>
       </c>
@@ -3385,7 +3351,6 @@
       <c r="L133" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="134">
-      <c r="A134" s="0"/>
       <c r="B134" s="23" t="s">
         <v>52</v>
       </c>
@@ -3417,7 +3382,6 @@
       <c r="L134" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="135">
-      <c r="A135" s="0"/>
       <c r="B135" s="23" t="s">
         <v>53</v>
       </c>
@@ -3449,7 +3413,6 @@
       <c r="L135" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="136">
-      <c r="A136" s="0"/>
       <c r="B136" s="23" t="s">
         <v>54</v>
       </c>
@@ -3465,7 +3428,6 @@
       <c r="L136" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="137">
-      <c r="A137" s="0"/>
       <c r="B137" s="23" t="s">
         <v>55</v>
       </c>
@@ -3497,7 +3459,6 @@
       <c r="L137" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="138">
-      <c r="A138" s="0"/>
       <c r="B138" s="23" t="s">
         <v>56</v>
       </c>
@@ -3529,7 +3490,6 @@
       <c r="L138" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="139">
-      <c r="A139" s="0"/>
       <c r="B139" s="23" t="s">
         <v>57</v>
       </c>
@@ -3561,7 +3521,6 @@
       <c r="L139" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="140">
-      <c r="A140" s="0"/>
       <c r="B140" s="23" t="s">
         <v>58</v>
       </c>
@@ -3593,7 +3552,6 @@
       <c r="L140" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="141">
-      <c r="A141" s="0"/>
       <c r="B141" s="23" t="s">
         <v>59</v>
       </c>
@@ -3609,7 +3567,6 @@
       <c r="L141" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="142">
-      <c r="A142" s="0"/>
       <c r="B142" s="23" t="s">
         <v>60</v>
       </c>
@@ -3641,7 +3598,6 @@
       <c r="L142" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="143">
-      <c r="A143" s="0"/>
       <c r="B143" s="23" t="s">
         <v>61</v>
       </c>
@@ -3673,7 +3629,6 @@
       <c r="L143" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="144">
-      <c r="A144" s="0"/>
       <c r="B144" s="23" t="s">
         <v>62</v>
       </c>
@@ -3689,7 +3644,6 @@
       <c r="L144" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="145">
-      <c r="A145" s="0"/>
       <c r="B145" s="23" t="s">
         <v>63</v>
       </c>
@@ -3721,7 +3675,6 @@
       <c r="L145" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="146">
-      <c r="A146" s="0"/>
       <c r="B146" s="23" t="s">
         <v>64</v>
       </c>
@@ -3753,7 +3706,6 @@
       <c r="L146" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="147">
-      <c r="A147" s="0"/>
       <c r="B147" s="23" t="s">
         <v>65</v>
       </c>
@@ -3785,7 +3737,6 @@
       <c r="L147" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="148">
-      <c r="A148" s="0"/>
       <c r="B148" s="23" t="s">
         <v>66</v>
       </c>
@@ -3801,7 +3752,6 @@
       <c r="L148" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="149">
-      <c r="A149" s="0"/>
       <c r="B149" s="23" t="s">
         <v>67</v>
       </c>
@@ -3831,7 +3781,6 @@
       <c r="L149" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="150">
-      <c r="A150" s="0"/>
       <c r="B150" s="23" t="s">
         <v>68</v>
       </c>
@@ -3861,7 +3810,6 @@
       <c r="L150" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="151">
-      <c r="A151" s="0"/>
       <c r="B151" s="23" t="s">
         <v>69</v>
       </c>
@@ -3893,7 +3841,6 @@
       <c r="L151" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="152">
-      <c r="A152" s="0"/>
       <c r="B152" s="23" t="s">
         <v>70</v>
       </c>
@@ -3909,7 +3856,6 @@
       <c r="L152" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="153">
-      <c r="A153" s="0"/>
       <c r="B153" s="23" t="s">
         <v>71</v>
       </c>
@@ -3941,7 +3887,6 @@
       <c r="L153" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="154">
-      <c r="A154" s="0"/>
       <c r="B154" s="23" t="s">
         <v>72</v>
       </c>
@@ -3957,7 +3902,6 @@
       <c r="L154" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="155">
-      <c r="A155" s="0"/>
       <c r="B155" s="23" t="s">
         <v>73</v>
       </c>
@@ -3989,7 +3933,6 @@
       <c r="L155" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="156">
-      <c r="A156" s="0"/>
       <c r="B156" s="23" t="s">
         <v>74</v>
       </c>
@@ -4021,7 +3964,6 @@
       <c r="L156" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="157">
-      <c r="A157" s="0"/>
       <c r="B157" s="23" t="s">
         <v>75</v>
       </c>
@@ -4037,7 +3979,6 @@
       <c r="L157" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="158">
-      <c r="A158" s="0"/>
       <c r="B158" s="23" t="s">
         <v>76</v>
       </c>
@@ -4069,7 +4010,6 @@
       <c r="L158" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="159">
-      <c r="A159" s="0"/>
       <c r="B159" s="23" t="s">
         <v>77</v>
       </c>
@@ -4085,7 +4025,6 @@
       <c r="L159" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="160">
-      <c r="A160" s="0"/>
       <c r="B160" s="23" t="s">
         <v>78</v>
       </c>
@@ -4117,7 +4056,6 @@
       <c r="L160" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="161">
-      <c r="A161" s="0"/>
       <c r="B161" s="23" t="s">
         <v>79</v>
       </c>
@@ -4149,7 +4087,6 @@
       <c r="L161" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="162">
-      <c r="A162" s="0"/>
       <c r="B162" s="23" t="s">
         <v>80</v>
       </c>
@@ -4181,7 +4118,6 @@
       <c r="L162" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="163">
-      <c r="A163" s="0"/>
       <c r="B163" s="23" t="s">
         <v>81</v>
       </c>
@@ -4213,7 +4149,6 @@
       <c r="L163" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="164">
-      <c r="A164" s="0"/>
       <c r="B164" s="23" t="s">
         <v>82</v>
       </c>
@@ -4245,7 +4180,6 @@
       <c r="L164" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="165">
-      <c r="A165" s="0"/>
       <c r="B165" s="23" t="s">
         <v>83</v>
       </c>
@@ -4261,7 +4195,6 @@
       <c r="L165" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="166">
-      <c r="A166" s="0"/>
       <c r="B166" s="23" t="s">
         <v>84</v>
       </c>
@@ -4293,7 +4226,6 @@
       <c r="L166" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="167">
-      <c r="A167" s="0"/>
       <c r="B167" s="23" t="s">
         <v>85</v>
       </c>
@@ -4309,7 +4241,6 @@
       <c r="L167" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="168">
-      <c r="A168" s="0"/>
       <c r="B168" s="23" t="s">
         <v>86</v>
       </c>
@@ -4341,7 +4272,6 @@
       <c r="L168" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="169">
-      <c r="A169" s="0"/>
       <c r="B169" s="23" t="s">
         <v>87</v>
       </c>
@@ -4373,7 +4303,6 @@
       <c r="L169" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="170">
-      <c r="A170" s="0"/>
       <c r="B170" s="23" t="s">
         <v>88</v>
       </c>
@@ -4405,7 +4334,6 @@
       <c r="L170" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="171">
-      <c r="A171" s="0"/>
       <c r="B171" s="23" t="s">
         <v>89</v>
       </c>
@@ -4437,7 +4365,6 @@
       <c r="L171" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="172">
-      <c r="A172" s="0"/>
       <c r="B172" s="23" t="s">
         <v>90</v>
       </c>
@@ -4469,7 +4396,6 @@
       <c r="L172" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="173">
-      <c r="A173" s="0"/>
       <c r="B173" s="23" t="s">
         <v>91</v>
       </c>
@@ -4485,7 +4411,6 @@
       <c r="L173" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="174">
-      <c r="A174" s="0"/>
       <c r="B174" s="23" t="s">
         <v>92</v>
       </c>
@@ -4515,7 +4440,6 @@
       <c r="L174" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="2" r="175">
-      <c r="A175" s="0"/>
       <c r="B175" s="29" t="s">
         <v>93</v>
       </c>
@@ -4531,7 +4455,6 @@
       <c r="L175" s="29"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="176">
-      <c r="A176" s="0"/>
       <c r="B176" s="38" t="s">
         <v>94</v>
       </c>
@@ -4547,7 +4470,6 @@
       <c r="L176" s="38"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="177">
-      <c r="A177" s="0"/>
       <c r="B177" s="23" t="s">
         <v>95</v>
       </c>
@@ -4579,7 +4501,6 @@
       <c r="L177" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="178">
-      <c r="A178" s="0"/>
       <c r="B178" s="23" t="s">
         <v>96</v>
       </c>
@@ -4611,7 +4532,6 @@
       <c r="L178" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="179">
-      <c r="A179" s="0"/>
       <c r="B179" s="23" t="s">
         <v>97</v>
       </c>
@@ -4643,7 +4563,6 @@
       <c r="L179" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="180">
-      <c r="A180" s="0"/>
       <c r="B180" s="23" t="s">
         <v>98</v>
       </c>
@@ -4675,7 +4594,6 @@
       <c r="L180" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="181">
-      <c r="A181" s="0"/>
       <c r="B181" s="23" t="s">
         <v>99</v>
       </c>
@@ -4691,7 +4609,6 @@
       <c r="L181" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="4" r="182">
-      <c r="A182" s="0"/>
       <c r="B182" s="23" t="s">
         <v>100</v>
       </c>
@@ -4725,7 +4642,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="183">
-      <c r="A183" s="0"/>
       <c r="B183" s="23" t="s">
         <v>102</v>
       </c>
@@ -4759,7 +4675,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="4" r="184">
-      <c r="A184" s="0"/>
       <c r="B184" s="23" t="s">
         <v>103</v>
       </c>
@@ -4793,7 +4708,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="185">
-      <c r="A185" s="0"/>
       <c r="B185" s="23" t="s">
         <v>104</v>
       </c>
@@ -4827,7 +4741,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="4" r="186">
-      <c r="A186" s="0"/>
       <c r="B186" s="23" t="s">
         <v>105</v>
       </c>
@@ -4861,7 +4774,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="4" r="187">
-      <c r="A187" s="0"/>
       <c r="B187" s="23" t="s">
         <v>106</v>
       </c>
@@ -4895,7 +4807,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="188">
-      <c r="A188" s="0"/>
       <c r="B188" s="23" t="s">
         <v>107</v>
       </c>
@@ -4929,7 +4840,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="189">
-      <c r="A189" s="0"/>
       <c r="B189" s="32" t="s">
         <v>108</v>
       </c>
@@ -4963,7 +4873,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="190">
-      <c r="A190" s="0"/>
       <c r="B190" s="32" t="s">
         <v>109</v>
       </c>
@@ -4997,7 +4906,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="4" r="191">
-      <c r="A191" s="0"/>
       <c r="B191" s="32" t="s">
         <v>110</v>
       </c>
@@ -5031,7 +4939,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="4" r="192">
-      <c r="A192" s="0"/>
       <c r="B192" s="23" t="s">
         <v>111</v>
       </c>
@@ -5065,7 +4972,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="193">
-      <c r="A193" s="0"/>
       <c r="B193" s="32" t="s">
         <v>112</v>
       </c>
@@ -5099,7 +5005,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="194">
-      <c r="A194" s="0"/>
       <c r="B194" s="23" t="s">
         <v>113</v>
       </c>
@@ -5133,7 +5038,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="195">
-      <c r="A195" s="0"/>
       <c r="B195" s="23" t="s">
         <v>114</v>
       </c>
@@ -5167,7 +5071,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="196">
-      <c r="A196" s="0"/>
       <c r="B196" s="23" t="s">
         <v>115</v>
       </c>
@@ -5201,7 +5104,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="197">
-      <c r="A197" s="0"/>
       <c r="B197" s="23" t="s">
         <v>116</v>
       </c>
@@ -5235,7 +5137,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="198">
-      <c r="A198" s="0"/>
       <c r="B198" s="23" t="s">
         <v>117</v>
       </c>
@@ -5269,7 +5170,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="199">
-      <c r="A199" s="0"/>
       <c r="B199" s="23" t="s">
         <v>118</v>
       </c>
@@ -5303,7 +5203,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="200">
-      <c r="A200" s="0"/>
       <c r="B200" s="23" t="s">
         <v>119</v>
       </c>
@@ -5337,7 +5236,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="201">
-      <c r="A201" s="0"/>
       <c r="B201" s="23" t="s">
         <v>120</v>
       </c>
@@ -5371,7 +5269,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="2" r="202">
-      <c r="A202" s="0"/>
       <c r="B202" s="29" t="s">
         <v>121</v>
       </c>
@@ -5387,7 +5284,6 @@
       <c r="L202" s="29"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="203">
-      <c r="A203" s="0"/>
       <c r="B203" s="23" t="s">
         <v>122</v>
       </c>
@@ -5419,7 +5315,6 @@
       <c r="L203" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="204">
-      <c r="A204" s="0"/>
       <c r="B204" s="23" t="s">
         <v>123</v>
       </c>
@@ -5451,7 +5346,6 @@
       <c r="L204" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="205">
-      <c r="A205" s="0"/>
       <c r="B205" s="23" t="s">
         <v>124</v>
       </c>
@@ -5467,7 +5361,6 @@
       <c r="L205" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="206">
-      <c r="A206" s="0"/>
       <c r="B206" s="23" t="s">
         <v>125</v>
       </c>
@@ -5499,7 +5392,6 @@
       <c r="L206" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="207">
-      <c r="A207" s="0"/>
       <c r="B207" s="23" t="s">
         <v>126</v>
       </c>
@@ -5529,7 +5421,6 @@
       <c r="L207" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="208">
-      <c r="A208" s="0"/>
       <c r="B208" s="23" t="s">
         <v>127</v>
       </c>
@@ -5561,7 +5452,6 @@
       <c r="L208" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="209">
-      <c r="A209" s="0"/>
       <c r="B209" s="23" t="s">
         <v>128</v>
       </c>
@@ -5593,7 +5483,6 @@
       <c r="L209" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="210">
-      <c r="A210" s="0"/>
       <c r="B210" s="23" t="s">
         <v>129</v>
       </c>
@@ -5623,7 +5512,6 @@
       <c r="L210" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="211">
-      <c r="A211" s="0"/>
       <c r="B211" s="23" t="s">
         <v>130</v>
       </c>
@@ -5655,7 +5543,6 @@
       <c r="L211" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="212">
-      <c r="A212" s="0"/>
       <c r="B212" s="23" t="s">
         <v>131</v>
       </c>
@@ -5687,7 +5574,6 @@
       <c r="L212" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="213">
-      <c r="A213" s="0"/>
       <c r="B213" s="23" t="s">
         <v>132</v>
       </c>
@@ -5719,7 +5605,6 @@
       <c r="L213" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="214">
-      <c r="A214" s="0"/>
       <c r="B214" s="23" t="s">
         <v>133</v>
       </c>
@@ -5751,7 +5636,6 @@
       <c r="L214" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="215">
-      <c r="A215" s="0"/>
       <c r="B215" s="23" t="s">
         <v>134</v>
       </c>
@@ -5783,7 +5667,6 @@
       <c r="L215" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="2" r="216">
-      <c r="A216" s="0"/>
       <c r="B216" s="29" t="s">
         <v>135</v>
       </c>
@@ -5799,7 +5682,6 @@
       <c r="L216" s="29"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="217">
-      <c r="A217" s="0"/>
       <c r="B217" s="38" t="s">
         <v>136</v>
       </c>
@@ -5815,7 +5697,6 @@
       <c r="L217" s="38"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="218">
-      <c r="A218" s="0"/>
       <c r="B218" s="23" t="s">
         <v>137</v>
       </c>
@@ -5831,7 +5712,6 @@
       <c r="L218" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="5" r="219">
-      <c r="A219" s="0"/>
       <c r="B219" s="32" t="s">
         <v>138</v>
       </c>
@@ -5865,7 +5745,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="5" r="220">
-      <c r="A220" s="0"/>
       <c r="B220" s="32" t="s">
         <v>140</v>
       </c>
@@ -5899,7 +5778,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="5" r="221">
-      <c r="A221" s="0"/>
       <c r="B221" s="32" t="s">
         <v>141</v>
       </c>
@@ -5933,7 +5811,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="5" r="222">
-      <c r="A222" s="0"/>
       <c r="B222" s="23" t="s">
         <v>142</v>
       </c>
@@ -5967,7 +5844,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="5" r="223">
-      <c r="A223" s="0"/>
       <c r="B223" s="23" t="s">
         <v>143</v>
       </c>
@@ -6001,7 +5877,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="5" r="224">
-      <c r="A224" s="0"/>
       <c r="B224" s="23" t="s">
         <v>144</v>
       </c>
@@ -6035,7 +5910,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="5" r="225">
-      <c r="A225" s="0"/>
       <c r="B225" s="23" t="s">
         <v>145</v>
       </c>
@@ -6069,7 +5943,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="226">
-      <c r="A226" s="0"/>
       <c r="B226" s="38" t="s">
         <v>146</v>
       </c>
@@ -6085,7 +5958,6 @@
       <c r="L226" s="38"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="227">
-      <c r="A227" s="0"/>
       <c r="B227" s="23" t="s">
         <v>147</v>
       </c>
@@ -6101,7 +5973,6 @@
       <c r="L227" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="5" r="228">
-      <c r="A228" s="0"/>
       <c r="B228" s="23" t="s">
         <v>148</v>
       </c>
@@ -6135,7 +6006,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="5" r="229">
-      <c r="A229" s="0"/>
       <c r="B229" s="23" t="s">
         <v>149</v>
       </c>
@@ -6169,7 +6039,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="230">
-      <c r="A230" s="0"/>
       <c r="B230" s="38" t="s">
         <v>150</v>
       </c>
@@ -6185,7 +6054,6 @@
       <c r="L230" s="38"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="231">
-      <c r="A231" s="0"/>
       <c r="B231" s="23" t="s">
         <v>151</v>
       </c>
@@ -6201,7 +6069,6 @@
       <c r="L231" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="5" r="232">
-      <c r="A232" s="0"/>
       <c r="B232" s="23" t="s">
         <v>152</v>
       </c>
@@ -6235,7 +6102,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="5" r="233">
-      <c r="A233" s="0"/>
       <c r="B233" s="23" t="s">
         <v>153</v>
       </c>
@@ -6269,7 +6135,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="5" r="234">
-      <c r="A234" s="0"/>
       <c r="B234" s="23" t="s">
         <v>154</v>
       </c>
@@ -6303,7 +6168,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="235">
-      <c r="A235" s="0"/>
       <c r="B235" s="23" t="s">
         <v>155</v>
       </c>
@@ -6319,7 +6183,6 @@
       <c r="L235" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="5" r="236">
-      <c r="A236" s="0"/>
       <c r="B236" s="23" t="s">
         <v>156</v>
       </c>
@@ -6351,7 +6214,6 @@
       <c r="L236" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="5" r="237">
-      <c r="A237" s="0"/>
       <c r="B237" s="23" t="s">
         <v>157</v>
       </c>
@@ -6383,7 +6245,6 @@
       <c r="L237" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="5" r="238">
-      <c r="A238" s="0"/>
       <c r="B238" s="23" t="s">
         <v>158</v>
       </c>
@@ -6415,7 +6276,6 @@
       <c r="L238" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="239">
-      <c r="A239" s="0"/>
       <c r="B239" s="23" t="s">
         <v>159</v>
       </c>
@@ -6431,7 +6291,6 @@
       <c r="L239" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="5" r="240">
-      <c r="A240" s="0"/>
       <c r="B240" s="23" t="s">
         <v>160</v>
       </c>
@@ -6465,7 +6324,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="5" r="241">
-      <c r="A241" s="0"/>
       <c r="B241" s="23" t="s">
         <v>161</v>
       </c>
@@ -6499,7 +6357,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="242">
-      <c r="A242" s="0"/>
       <c r="B242" s="23" t="s">
         <v>162</v>
       </c>
@@ -6515,7 +6372,6 @@
       <c r="L242" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="5" r="243">
-      <c r="A243" s="0"/>
       <c r="B243" s="23" t="s">
         <v>163</v>
       </c>
@@ -6549,7 +6405,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="5" r="244">
-      <c r="A244" s="0"/>
       <c r="B244" s="23" t="s">
         <v>164</v>
       </c>
@@ -6581,7 +6436,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="245">
-      <c r="A245" s="0"/>
       <c r="B245" s="23" t="s">
         <v>165</v>
       </c>
@@ -6597,7 +6451,6 @@
       <c r="L245" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="5" r="246">
-      <c r="A246" s="0"/>
       <c r="B246" s="32" t="s">
         <v>166</v>
       </c>
@@ -6631,7 +6484,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="5" r="247">
-      <c r="A247" s="0"/>
       <c r="B247" s="32" t="s">
         <v>167</v>
       </c>
@@ -6665,7 +6517,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="248">
-      <c r="A248" s="0"/>
       <c r="B248" s="23" t="s">
         <v>168</v>
       </c>
@@ -6681,7 +6532,6 @@
       <c r="L248" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="5" r="249">
-      <c r="A249" s="0"/>
       <c r="B249" s="32" t="s">
         <v>169</v>
       </c>
@@ -6715,7 +6565,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="5" r="250">
-      <c r="A250" s="0"/>
       <c r="B250" s="32" t="s">
         <v>170</v>
       </c>
@@ -6749,7 +6598,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="2" r="251">
-      <c r="A251" s="0"/>
       <c r="B251" s="29" t="s">
         <v>171</v>
       </c>
@@ -6765,7 +6613,6 @@
       <c r="L251" s="29"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="252">
-      <c r="A252" s="0"/>
       <c r="B252" s="23" t="s">
         <v>172</v>
       </c>
@@ -6781,7 +6628,6 @@
       <c r="L252" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="4" r="253">
-      <c r="A253" s="0"/>
       <c r="B253" s="23" t="s">
         <v>173</v>
       </c>
@@ -6815,7 +6661,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="4" r="254">
-      <c r="A254" s="0"/>
       <c r="B254" s="23" t="s">
         <v>175</v>
       </c>
@@ -6849,7 +6694,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="4" r="255">
-      <c r="A255" s="0"/>
       <c r="B255" s="23" t="s">
         <v>176</v>
       </c>
@@ -6883,7 +6727,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="4" r="256">
-      <c r="A256" s="0"/>
       <c r="B256" s="23" t="s">
         <v>177</v>
       </c>
@@ -6917,7 +6760,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="4" r="257">
-      <c r="A257" s="0"/>
       <c r="B257" s="23" t="s">
         <v>178</v>
       </c>
@@ -6951,7 +6793,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="4" r="258">
-      <c r="A258" s="0"/>
       <c r="B258" s="23" t="s">
         <v>179</v>
       </c>
@@ -6983,7 +6824,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="4" r="259">
-      <c r="A259" s="0"/>
       <c r="B259" s="23" t="s">
         <v>180</v>
       </c>
@@ -7017,7 +6857,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="4" r="260">
-      <c r="A260" s="0"/>
       <c r="B260" s="23" t="s">
         <v>181</v>
       </c>
@@ -7051,7 +6890,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="2" r="261">
-      <c r="A261" s="0"/>
       <c r="B261" s="29" t="s">
         <v>182</v>
       </c>
@@ -7067,7 +6905,6 @@
       <c r="L261" s="29"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="262">
-      <c r="A262" s="0"/>
       <c r="B262" s="23" t="s">
         <v>183</v>
       </c>
@@ -7099,7 +6936,6 @@
       <c r="L262" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="263">
-      <c r="A263" s="0"/>
       <c r="B263" s="23" t="s">
         <v>184</v>
       </c>
@@ -7129,7 +6965,6 @@
       <c r="L263" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="264">
-      <c r="A264" s="0"/>
       <c r="B264" s="23" t="s">
         <v>185</v>
       </c>
@@ -7161,7 +6996,6 @@
       <c r="L264" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="2" r="265">
-      <c r="A265" s="0"/>
       <c r="B265" s="29" t="s">
         <v>186</v>
       </c>
@@ -7177,7 +7011,6 @@
       <c r="L265" s="29"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="266">
-      <c r="A266" s="0"/>
       <c r="B266" s="38" t="s">
         <v>187</v>
       </c>
@@ -7193,7 +7026,6 @@
       <c r="L266" s="38"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="4" r="267">
-      <c r="A267" s="0"/>
       <c r="B267" s="23" t="s">
         <v>188</v>
       </c>
@@ -7225,7 +7057,6 @@
       <c r="L267" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="4" r="268">
-      <c r="A268" s="0"/>
       <c r="B268" s="23" t="s">
         <v>189</v>
       </c>
@@ -7257,7 +7088,6 @@
       <c r="L268" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="4" r="269">
-      <c r="A269" s="0"/>
       <c r="B269" s="23" t="s">
         <v>190</v>
       </c>
@@ -7289,7 +7119,6 @@
       <c r="L269" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="270">
-      <c r="A270" s="0"/>
       <c r="B270" s="38" t="s">
         <v>191</v>
       </c>
@@ -7305,7 +7134,6 @@
       <c r="L270" s="38"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="271">
-      <c r="A271" s="0"/>
       <c r="B271" s="23" t="s">
         <v>192</v>
       </c>
@@ -7321,7 +7149,6 @@
       <c r="L271" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="5" r="272">
-      <c r="A272" s="0"/>
       <c r="B272" s="23" t="s">
         <v>193</v>
       </c>
@@ -7353,7 +7180,6 @@
       <c r="L272" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="5" r="273">
-      <c r="A273" s="0"/>
       <c r="B273" s="23" t="s">
         <v>194</v>
       </c>
@@ -7385,7 +7211,6 @@
       <c r="L273" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="5" r="274">
-      <c r="A274" s="0"/>
       <c r="B274" s="23" t="s">
         <v>195</v>
       </c>
@@ -7417,7 +7242,6 @@
       <c r="L274" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="275">
-      <c r="A275" s="0"/>
       <c r="B275" s="38" t="s">
         <v>196</v>
       </c>
@@ -7433,7 +7257,6 @@
       <c r="L275" s="38"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="276">
-      <c r="A276" s="0"/>
       <c r="B276" s="23" t="s">
         <v>197</v>
       </c>
@@ -7465,7 +7288,6 @@
       <c r="L276" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="277">
-      <c r="A277" s="0"/>
       <c r="B277" s="38" t="s">
         <v>198</v>
       </c>
@@ -7481,7 +7303,6 @@
       <c r="L277" s="38"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="4" r="278">
-      <c r="A278" s="0"/>
       <c r="B278" s="32" t="s">
         <v>199</v>
       </c>
@@ -7513,7 +7334,6 @@
       <c r="L278" s="32"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="4" r="279">
-      <c r="A279" s="0"/>
       <c r="B279" s="23" t="s">
         <v>200</v>
       </c>
@@ -7545,7 +7365,6 @@
       <c r="L279" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="4" r="280">
-      <c r="A280" s="0"/>
       <c r="B280" s="23" t="s">
         <v>201</v>
       </c>
@@ -7575,7 +7394,6 @@
       <c r="L280" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="4" r="281">
-      <c r="A281" s="0"/>
       <c r="B281" s="23" t="s">
         <v>202</v>
       </c>
@@ -7607,7 +7425,6 @@
       <c r="L281" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="282">
-      <c r="A282" s="0"/>
       <c r="B282" s="38" t="s">
         <v>203</v>
       </c>
@@ -7623,7 +7440,6 @@
       <c r="L282" s="38"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="283">
-      <c r="A283" s="0"/>
       <c r="B283" s="23" t="s">
         <v>204</v>
       </c>
@@ -7639,7 +7455,6 @@
       <c r="L283" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="5" r="284">
-      <c r="A284" s="0"/>
       <c r="B284" s="23" t="s">
         <v>205</v>
       </c>
@@ -7671,7 +7486,6 @@
       <c r="L284" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="5" r="285">
-      <c r="A285" s="0"/>
       <c r="B285" s="23" t="s">
         <v>206</v>
       </c>
@@ -7703,7 +7517,6 @@
       <c r="L285" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="5" r="286">
-      <c r="A286" s="0"/>
       <c r="B286" s="23" t="s">
         <v>207</v>
       </c>
@@ -7735,7 +7548,6 @@
       <c r="L286" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="5" r="287">
-      <c r="A287" s="0"/>
       <c r="B287" s="32" t="s">
         <v>208</v>
       </c>
@@ -7767,7 +7579,6 @@
       <c r="L287" s="32"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="5" r="288">
-      <c r="A288" s="0"/>
       <c r="B288" s="23" t="s">
         <v>209</v>
       </c>
@@ -7799,7 +7610,6 @@
       <c r="L288" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="5" r="289">
-      <c r="A289" s="0"/>
       <c r="B289" s="23" t="s">
         <v>210</v>
       </c>
@@ -7831,7 +7641,6 @@
       <c r="L289" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="5" r="290">
-      <c r="A290" s="0"/>
       <c r="B290" s="23" t="s">
         <v>211</v>
       </c>
@@ -7863,7 +7672,6 @@
       <c r="L290" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="5" r="291">
-      <c r="A291" s="0"/>
       <c r="B291" s="23" t="s">
         <v>212</v>
       </c>
@@ -7895,7 +7703,6 @@
       <c r="L291" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="292">
-      <c r="A292" s="0"/>
       <c r="B292" s="23" t="s">
         <v>213</v>
       </c>
@@ -7911,7 +7718,6 @@
       <c r="L292" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="5" r="293">
-      <c r="A293" s="0"/>
       <c r="B293" s="23" t="s">
         <v>214</v>
       </c>
@@ -7943,7 +7749,6 @@
       <c r="L293" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="5" r="294">
-      <c r="A294" s="0"/>
       <c r="B294" s="32" t="s">
         <v>215</v>
       </c>
@@ -7975,7 +7780,6 @@
       <c r="L294" s="32"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="5" r="295">
-      <c r="A295" s="0"/>
       <c r="B295" s="32" t="s">
         <v>216</v>
       </c>
@@ -8007,7 +7811,6 @@
       <c r="L295" s="32"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="5" r="296">
-      <c r="A296" s="0"/>
       <c r="B296" s="23" t="s">
         <v>217</v>
       </c>
@@ -8039,7 +7842,6 @@
       <c r="L296" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="5" r="297">
-      <c r="A297" s="0"/>
       <c r="B297" s="23" t="s">
         <v>218</v>
       </c>
@@ -8071,7 +7873,6 @@
       <c r="L297" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="298">
-      <c r="A298" s="0"/>
       <c r="B298" s="38" t="s">
         <v>219</v>
       </c>
@@ -8087,7 +7888,6 @@
       <c r="L298" s="38"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="4" r="299">
-      <c r="A299" s="0"/>
       <c r="B299" s="23" t="s">
         <v>220</v>
       </c>
@@ -8103,7 +7903,6 @@
       <c r="L299" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="5" r="300">
-      <c r="A300" s="0"/>
       <c r="B300" s="23" t="s">
         <v>221</v>
       </c>
@@ -8135,7 +7934,6 @@
       <c r="L300" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="5" r="301">
-      <c r="A301" s="0"/>
       <c r="B301" s="23" t="s">
         <v>222</v>
       </c>
@@ -8167,7 +7965,6 @@
       <c r="L301" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="5" r="302">
-      <c r="A302" s="0"/>
       <c r="B302" s="23" t="s">
         <v>223</v>
       </c>
@@ -8199,7 +7996,6 @@
       <c r="L302" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="5" r="303">
-      <c r="A303" s="0"/>
       <c r="B303" s="23" t="s">
         <v>224</v>
       </c>
@@ -8231,7 +8027,6 @@
       <c r="L303" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="2" r="304">
-      <c r="A304" s="0"/>
       <c r="B304" s="29" t="s">
         <v>225</v>
       </c>
@@ -8247,7 +8042,6 @@
       <c r="L304" s="29"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="305">
-      <c r="A305" s="0"/>
       <c r="B305" s="23" t="s">
         <v>226</v>
       </c>
@@ -8277,7 +8071,6 @@
       <c r="L305" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="306">
-      <c r="A306" s="0"/>
       <c r="B306" s="23" t="s">
         <v>227</v>
       </c>
@@ -8307,7 +8100,6 @@
       <c r="L306" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="307">
-      <c r="A307" s="0"/>
       <c r="B307" s="23" t="s">
         <v>228</v>
       </c>
@@ -8339,7 +8131,6 @@
       <c r="L307" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="308">
-      <c r="A308" s="0"/>
       <c r="B308" s="23" t="s">
         <v>229</v>
       </c>
@@ -8371,7 +8162,6 @@
       <c r="L308" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="309">
-      <c r="A309" s="0"/>
       <c r="B309" s="23" t="s">
         <v>230</v>
       </c>
@@ -8403,7 +8193,6 @@
       <c r="L309" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="2" r="310">
-      <c r="A310" s="0"/>
       <c r="B310" s="29" t="s">
         <v>231</v>
       </c>
@@ -8419,7 +8208,6 @@
       <c r="L310" s="29"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="311">
-      <c r="A311" s="0"/>
       <c r="B311" s="23" t="s">
         <v>232</v>
       </c>
@@ -8435,7 +8223,6 @@
       <c r="L311" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="312">
-      <c r="A312" s="0"/>
       <c r="B312" s="23" t="s">
         <v>233</v>
       </c>
@@ -8467,7 +8254,6 @@
       <c r="L312" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="2" r="313">
-      <c r="A313" s="0"/>
       <c r="B313" s="29" t="s">
         <v>234</v>
       </c>
@@ -8483,7 +8269,6 @@
       <c r="L313" s="29"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="314">
-      <c r="A314" s="0"/>
       <c r="B314" s="23" t="s">
         <v>235</v>
       </c>
@@ -8513,7 +8298,6 @@
       <c r="L314" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="1" r="315">
-      <c r="A315" s="0"/>
       <c r="B315" s="44" t="s">
         <v>236</v>
       </c>
@@ -8529,7 +8313,6 @@
       <c r="L315" s="44"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="2" r="316">
-      <c r="A316" s="0"/>
       <c r="B316" s="29" t="s">
         <v>237</v>
       </c>
@@ -8545,7 +8328,6 @@
       <c r="L316" s="29"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="317">
-      <c r="A317" s="0"/>
       <c r="B317" s="23" t="s">
         <v>238</v>
       </c>
@@ -8561,7 +8343,6 @@
       <c r="L317" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="4" r="318">
-      <c r="A318" s="0"/>
       <c r="B318" s="23" t="s">
         <v>239</v>
       </c>
@@ -8593,7 +8374,6 @@
       <c r="L318" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="4" r="319">
-      <c r="A319" s="0"/>
       <c r="B319" s="23" t="s">
         <v>240</v>
       </c>
@@ -8625,7 +8405,6 @@
       <c r="L319" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="4" r="320">
-      <c r="A320" s="0"/>
       <c r="B320" s="23" t="s">
         <v>241</v>
       </c>
@@ -8657,7 +8436,6 @@
       <c r="L320" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="4" r="321">
-      <c r="A321" s="0"/>
       <c r="B321" s="23" t="s">
         <v>242</v>
       </c>
@@ -8689,7 +8467,6 @@
       <c r="L321" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="4" r="322">
-      <c r="A322" s="0"/>
       <c r="B322" s="23" t="s">
         <v>243</v>
       </c>
@@ -8721,7 +8498,6 @@
       <c r="L322" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="2" r="323">
-      <c r="A323" s="0"/>
       <c r="B323" s="29" t="s">
         <v>244</v>
       </c>
@@ -8737,7 +8513,6 @@
       <c r="L323" s="29"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="324">
-      <c r="A324" s="0"/>
       <c r="B324" s="23" t="s">
         <v>245</v>
       </c>
@@ -8753,7 +8528,6 @@
       <c r="L324" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="4" r="325">
-      <c r="A325" s="0"/>
       <c r="B325" s="23" t="s">
         <v>246</v>
       </c>
@@ -8873,9 +8647,6 @@
       <c r="G417" s="6"/>
       <c r="H417" s="6"/>
       <c r="I417" s="6"/>
-      <c r="J417" s="0"/>
-      <c r="K417" s="0"/>
-      <c r="L417" s="0"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="9.55" outlineLevel="0" r="418" s="8">
       <c r="A418" s="7"/>
@@ -8954,7 +8725,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="11.8" outlineLevel="0" r="425">
-      <c r="A425" s="0"/>
       <c r="B425" s="13" t="s">
         <v>249</v>
       </c>
@@ -8970,7 +8740,6 @@
       <c r="L425" s="16"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="11.8" outlineLevel="1" r="426">
-      <c r="A426" s="0"/>
       <c r="B426" s="17" t="s">
         <v>250</v>
       </c>
@@ -8986,7 +8755,6 @@
       <c r="L426" s="17"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="2" r="427">
-      <c r="A427" s="0"/>
       <c r="B427" s="23" t="s">
         <v>251</v>
       </c>
@@ -9018,7 +8786,6 @@
       <c r="L427" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="1" r="428">
-      <c r="A428" s="0"/>
       <c r="B428" s="44" t="s">
         <v>252</v>
       </c>
@@ -9034,7 +8801,6 @@
       <c r="L428" s="44"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="2" r="429">
-      <c r="A429" s="0"/>
       <c r="B429" s="29" t="s">
         <v>253</v>
       </c>
@@ -9050,7 +8816,6 @@
       <c r="L429" s="29"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="3" r="430">
-      <c r="A430" s="0"/>
       <c r="B430" s="23" t="s">
         <v>254</v>
       </c>
@@ -9082,7 +8847,6 @@
       <c r="L430" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="431">
-      <c r="A431" s="0"/>
       <c r="B431" s="23" t="s">
         <v>255</v>
       </c>
@@ -9114,7 +8878,6 @@
       <c r="L431" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="3" r="432">
-      <c r="A432" s="0"/>
       <c r="B432" s="23" t="s">
         <v>256</v>
       </c>
@@ -9146,7 +8909,6 @@
       <c r="L432" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="433">
-      <c r="A433" s="0"/>
       <c r="B433" s="23" t="s">
         <v>257</v>
       </c>
@@ -9178,7 +8940,6 @@
       <c r="L433" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="434">
-      <c r="A434" s="0"/>
       <c r="B434" s="23" t="s">
         <v>258</v>
       </c>
@@ -9210,7 +8971,6 @@
       <c r="L434" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="435">
-      <c r="A435" s="0"/>
       <c r="B435" s="23" t="s">
         <v>259</v>
       </c>
@@ -9242,7 +9002,6 @@
       <c r="L435" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="436">
-      <c r="A436" s="0"/>
       <c r="B436" s="23" t="s">
         <v>260</v>
       </c>
@@ -9274,7 +9033,6 @@
       <c r="L436" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="437">
-      <c r="A437" s="0"/>
       <c r="B437" s="23" t="s">
         <v>261</v>
       </c>
@@ -9306,7 +9064,6 @@
       <c r="L437" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="438">
-      <c r="A438" s="0"/>
       <c r="B438" s="23" t="s">
         <v>262</v>
       </c>
@@ -9338,7 +9095,6 @@
       <c r="L438" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="439">
-      <c r="A439" s="0"/>
       <c r="B439" s="23" t="s">
         <v>263</v>
       </c>
@@ -9370,7 +9126,6 @@
       <c r="L439" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="440">
-      <c r="A440" s="0"/>
       <c r="B440" s="23" t="s">
         <v>264</v>
       </c>
@@ -9402,7 +9157,6 @@
       <c r="L440" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="441">
-      <c r="A441" s="0"/>
       <c r="B441" s="23" t="s">
         <v>265</v>
       </c>
@@ -9434,7 +9188,6 @@
       <c r="L441" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="442">
-      <c r="A442" s="0"/>
       <c r="B442" s="23" t="s">
         <v>266</v>
       </c>
@@ -9466,7 +9219,6 @@
       <c r="L442" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="443">
-      <c r="A443" s="0"/>
       <c r="B443" s="23" t="s">
         <v>267</v>
       </c>
@@ -9498,7 +9250,6 @@
       <c r="L443" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="1" r="444">
-      <c r="A444" s="0"/>
       <c r="B444" s="44" t="s">
         <v>268</v>
       </c>
@@ -9514,7 +9265,6 @@
       <c r="L444" s="44"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="2" r="445">
-      <c r="A445" s="0"/>
       <c r="B445" s="29" t="s">
         <v>269</v>
       </c>
@@ -9530,7 +9280,6 @@
       <c r="L445" s="29"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="446">
-      <c r="A446" s="0"/>
       <c r="B446" s="23" t="s">
         <v>270</v>
       </c>
@@ -9562,7 +9311,6 @@
       <c r="L446" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="447">
-      <c r="A447" s="0"/>
       <c r="B447" s="23" t="s">
         <v>271</v>
       </c>
@@ -9594,7 +9342,6 @@
       <c r="L447" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="448">
-      <c r="A448" s="0"/>
       <c r="B448" s="32" t="s">
         <v>272</v>
       </c>
@@ -9626,7 +9373,6 @@
       <c r="L448" s="32"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="2" r="449">
-      <c r="A449" s="0"/>
       <c r="B449" s="49" t="s">
         <v>273</v>
       </c>
@@ -9642,7 +9388,6 @@
       <c r="L449" s="49"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="91.3" outlineLevel="3" r="450">
-      <c r="A450" s="0"/>
       <c r="B450" s="23" t="s">
         <v>274</v>
       </c>
@@ -9678,7 +9423,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="91.3" outlineLevel="3" r="451">
-      <c r="A451" s="0"/>
       <c r="B451" s="23" t="s">
         <v>276</v>
       </c>
@@ -9714,7 +9458,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="91.3" outlineLevel="3" r="452">
-      <c r="A452" s="0"/>
       <c r="B452" s="23" t="s">
         <v>277</v>
       </c>
@@ -9750,7 +9493,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="91.3" outlineLevel="3" r="453">
-      <c r="A453" s="0"/>
       <c r="B453" s="23" t="s">
         <v>278</v>
       </c>
@@ -9786,7 +9528,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="91.3" outlineLevel="3" r="454">
-      <c r="A454" s="0"/>
       <c r="B454" s="32" t="s">
         <v>279</v>
       </c>
@@ -9822,7 +9563,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="91.3" outlineLevel="3" r="455">
-      <c r="A455" s="0"/>
       <c r="B455" s="23" t="s">
         <v>280</v>
       </c>
@@ -9858,7 +9598,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="2" r="456">
-      <c r="A456" s="0"/>
       <c r="B456" s="29" t="s">
         <v>281</v>
       </c>
@@ -9874,7 +9613,6 @@
       <c r="L456" s="29"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="457">
-      <c r="A457" s="0"/>
       <c r="B457" s="23" t="s">
         <v>282</v>
       </c>
@@ -9890,7 +9628,6 @@
       <c r="L457" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="4" r="458">
-      <c r="A458" s="0"/>
       <c r="B458" s="54" t="n">
         <v>200</v>
       </c>
@@ -9924,7 +9661,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="4" r="459">
-      <c r="A459" s="0"/>
       <c r="B459" s="23" t="s">
         <v>284</v>
       </c>
@@ -9958,7 +9694,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="4" r="460">
-      <c r="A460" s="0"/>
       <c r="B460" s="23" t="s">
         <v>285</v>
       </c>
@@ -9992,7 +9727,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="4" r="461">
-      <c r="A461" s="0"/>
       <c r="B461" s="23" t="s">
         <v>286</v>
       </c>
@@ -10026,7 +9760,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="4" r="462">
-      <c r="A462" s="0"/>
       <c r="B462" s="23" t="s">
         <v>287</v>
       </c>
@@ -10062,7 +9795,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.3" outlineLevel="4" r="463">
-      <c r="A463" s="0"/>
       <c r="B463" s="55" t="n">
         <v>250</v>
       </c>
@@ -10096,7 +9828,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.3" outlineLevel="4" r="464">
-      <c r="A464" s="0"/>
       <c r="B464" s="32" t="s">
         <v>288</v>
       </c>
@@ -10132,7 +9863,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="4" r="465">
-      <c r="A465" s="0"/>
       <c r="B465" s="23" t="s">
         <v>289</v>
       </c>
@@ -10166,7 +9896,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.3" outlineLevel="4" r="466">
-      <c r="A466" s="0"/>
       <c r="B466" s="23" t="s">
         <v>290</v>
       </c>
@@ -10200,7 +9929,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.3" outlineLevel="4" r="467">
-      <c r="A467" s="0"/>
       <c r="B467" s="23" t="s">
         <v>292</v>
       </c>
@@ -10234,7 +9962,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="4" r="468">
-      <c r="A468" s="0"/>
       <c r="B468" s="23" t="s">
         <v>293</v>
       </c>
@@ -10268,7 +9995,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="4" r="469">
-      <c r="A469" s="0"/>
       <c r="B469" s="23" t="s">
         <v>294</v>
       </c>
@@ -10302,7 +10028,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.3" outlineLevel="4" r="470">
-      <c r="A470" s="0"/>
       <c r="B470" s="23" t="s">
         <v>295</v>
       </c>
@@ -10338,7 +10063,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="4" r="471">
-      <c r="A471" s="0"/>
       <c r="B471" s="23" t="s">
         <v>296</v>
       </c>
@@ -10372,7 +10096,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="472">
-      <c r="A472" s="0"/>
       <c r="B472" s="23" t="s">
         <v>297</v>
       </c>
@@ -10388,7 +10111,6 @@
       <c r="L472" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="4" r="473">
-      <c r="A473" s="0"/>
       <c r="B473" s="54" t="n">
         <v>200</v>
       </c>
@@ -10422,7 +10144,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="4" r="474">
-      <c r="A474" s="0"/>
       <c r="B474" s="54" t="n">
         <v>250</v>
       </c>
@@ -10456,7 +10177,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="4" r="475">
-      <c r="A475" s="0"/>
       <c r="B475" s="23" t="s">
         <v>293</v>
       </c>
@@ -10490,7 +10210,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="2" r="476">
-      <c r="A476" s="0"/>
       <c r="B476" s="29" t="s">
         <v>298</v>
       </c>
@@ -10506,7 +10225,6 @@
       <c r="L476" s="29"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="477">
-      <c r="A477" s="0"/>
       <c r="B477" s="23" t="s">
         <v>299</v>
       </c>
@@ -10538,7 +10256,6 @@
       <c r="L477" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="478">
-      <c r="A478" s="0"/>
       <c r="B478" s="23" t="s">
         <v>300</v>
       </c>
@@ -10570,7 +10287,6 @@
       <c r="L478" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="479">
-      <c r="A479" s="0"/>
       <c r="B479" s="23" t="s">
         <v>301</v>
       </c>
@@ -10602,7 +10318,6 @@
       <c r="L479" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="480">
-      <c r="A480" s="0"/>
       <c r="B480" s="23" t="s">
         <v>302</v>
       </c>
@@ -10634,7 +10349,6 @@
       <c r="L480" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="2" r="481">
-      <c r="A481" s="0"/>
       <c r="B481" s="29" t="s">
         <v>303</v>
       </c>
@@ -10650,7 +10364,6 @@
       <c r="L481" s="29"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="482">
-      <c r="A482" s="0"/>
       <c r="B482" s="23" t="s">
         <v>304</v>
       </c>
@@ -10682,7 +10395,6 @@
       <c r="L482" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="483">
-      <c r="A483" s="0"/>
       <c r="B483" s="23" t="s">
         <v>305</v>
       </c>
@@ -10714,7 +10426,6 @@
       <c r="L483" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="484">
-      <c r="A484" s="0"/>
       <c r="B484" s="23" t="s">
         <v>306</v>
       </c>
@@ -10730,7 +10441,6 @@
       <c r="L484" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="485">
-      <c r="A485" s="0"/>
       <c r="B485" s="23" t="s">
         <v>307</v>
       </c>
@@ -10760,7 +10470,6 @@
       <c r="L485" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="486">
-      <c r="A486" s="0"/>
       <c r="B486" s="23" t="s">
         <v>308</v>
       </c>
@@ -10792,7 +10501,6 @@
       <c r="L486" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="487">
-      <c r="A487" s="0"/>
       <c r="B487" s="23" t="s">
         <v>309</v>
       </c>
@@ -10824,7 +10532,6 @@
       <c r="L487" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="488">
-      <c r="A488" s="0"/>
       <c r="B488" s="23" t="s">
         <v>310</v>
       </c>
@@ -10856,7 +10563,6 @@
       <c r="L488" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="1" r="489">
-      <c r="A489" s="0"/>
       <c r="B489" s="44" t="s">
         <v>311</v>
       </c>
@@ -10872,7 +10578,6 @@
       <c r="L489" s="44"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="2" r="490">
-      <c r="A490" s="0"/>
       <c r="B490" s="29" t="s">
         <v>312</v>
       </c>
@@ -10888,7 +10593,6 @@
       <c r="L490" s="29"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="80.05" outlineLevel="3" r="491">
-      <c r="A491" s="0"/>
       <c r="B491" s="32" t="s">
         <v>313</v>
       </c>
@@ -10922,7 +10626,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="80.05" outlineLevel="3" r="492">
-      <c r="A492" s="0"/>
       <c r="B492" s="32" t="s">
         <v>315</v>
       </c>
@@ -10956,7 +10659,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="493">
-      <c r="A493" s="0"/>
       <c r="B493" s="23" t="s">
         <v>316</v>
       </c>
@@ -10988,7 +10690,6 @@
       <c r="L493" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="494">
-      <c r="A494" s="0"/>
       <c r="B494" s="23" t="s">
         <v>317</v>
       </c>
@@ -11020,7 +10721,6 @@
       <c r="L494" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="495">
-      <c r="A495" s="0"/>
       <c r="B495" s="23" t="s">
         <v>318</v>
       </c>
@@ -11052,7 +10752,6 @@
       <c r="L495" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="496">
-      <c r="A496" s="0"/>
       <c r="B496" s="23" t="s">
         <v>319</v>
       </c>
@@ -11084,7 +10783,6 @@
       <c r="L496" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="2" r="497">
-      <c r="A497" s="0"/>
       <c r="B497" s="29" t="s">
         <v>320</v>
       </c>
@@ -11100,7 +10798,6 @@
       <c r="L497" s="29"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="498">
-      <c r="A498" s="0"/>
       <c r="B498" s="23" t="s">
         <v>321</v>
       </c>
@@ -11132,7 +10829,6 @@
       <c r="L498" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="80.05" outlineLevel="3" r="499">
-      <c r="A499" s="0"/>
       <c r="B499" s="32" t="s">
         <v>322</v>
       </c>
@@ -11168,7 +10864,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="80.05" outlineLevel="3" r="500">
-      <c r="A500" s="0"/>
       <c r="B500" s="32" t="s">
         <v>323</v>
       </c>
@@ -11204,7 +10899,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="2" r="501">
-      <c r="A501" s="0"/>
       <c r="B501" s="49" t="s">
         <v>324</v>
       </c>
@@ -11220,7 +10914,6 @@
       <c r="L501" s="49"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="502">
-      <c r="A502" s="0"/>
       <c r="B502" s="32" t="s">
         <v>325</v>
       </c>
@@ -11252,7 +10945,6 @@
       <c r="L502" s="32"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="503">
-      <c r="A503" s="0"/>
       <c r="B503" s="32" t="s">
         <v>326</v>
       </c>
@@ -11284,7 +10976,6 @@
       <c r="L503" s="32"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="2" r="504">
-      <c r="A504" s="0"/>
       <c r="B504" s="49" t="s">
         <v>327</v>
       </c>
@@ -11300,7 +10991,6 @@
       <c r="L504" s="49"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="505">
-      <c r="A505" s="0"/>
       <c r="B505" s="23" t="s">
         <v>328</v>
       </c>
@@ -11332,7 +11022,6 @@
       <c r="L505" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="2" r="506">
-      <c r="A506" s="0"/>
       <c r="B506" s="29" t="s">
         <v>329</v>
       </c>
@@ -11348,7 +11037,6 @@
       <c r="L506" s="29"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="507">
-      <c r="A507" s="0"/>
       <c r="B507" s="23" t="s">
         <v>330</v>
       </c>
@@ -11380,7 +11068,6 @@
       <c r="L507" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="508">
-      <c r="A508" s="0"/>
       <c r="B508" s="23" t="s">
         <v>331</v>
       </c>
@@ -11412,7 +11099,6 @@
       <c r="L508" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="509">
-      <c r="A509" s="0"/>
       <c r="B509" s="23" t="s">
         <v>332</v>
       </c>
@@ -11444,7 +11130,6 @@
       <c r="L509" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="510">
-      <c r="A510" s="0"/>
       <c r="B510" s="23" t="s">
         <v>333</v>
       </c>
@@ -11476,7 +11161,6 @@
       <c r="L510" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="511">
-      <c r="A511" s="0"/>
       <c r="B511" s="23" t="s">
         <v>334</v>
       </c>
@@ -11508,7 +11192,6 @@
       <c r="L511" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="2" r="512">
-      <c r="A512" s="0"/>
       <c r="B512" s="29" t="s">
         <v>335</v>
       </c>
@@ -11524,7 +11207,6 @@
       <c r="L512" s="29"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="513">
-      <c r="A513" s="0"/>
       <c r="B513" s="32" t="s">
         <v>336</v>
       </c>
@@ -11558,7 +11240,6 @@
       <c r="L513" s="32"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="3" r="514">
-      <c r="A514" s="0"/>
       <c r="B514" s="32" t="s">
         <v>337</v>
       </c>
@@ -11592,7 +11273,6 @@
       <c r="L514" s="32"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="1" r="515">
-      <c r="A515" s="0"/>
       <c r="B515" s="57" t="s">
         <v>338</v>
       </c>
@@ -11608,7 +11288,6 @@
       <c r="L515" s="57"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="2" r="516">
-      <c r="A516" s="0"/>
       <c r="B516" s="49" t="s">
         <v>339</v>
       </c>
@@ -11624,7 +11303,6 @@
       <c r="L516" s="49"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="517">
-      <c r="A517" s="0"/>
       <c r="B517" s="23" t="s">
         <v>340</v>
       </c>
@@ -11656,7 +11334,6 @@
       <c r="L517" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="518">
-      <c r="A518" s="0"/>
       <c r="B518" s="23" t="s">
         <v>341</v>
       </c>
@@ -11690,7 +11367,6 @@
       <c r="L518" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="519">
-      <c r="A519" s="0"/>
       <c r="B519" s="23" t="s">
         <v>342</v>
       </c>
@@ -11722,7 +11398,6 @@
       <c r="L519" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="520">
-      <c r="A520" s="0"/>
       <c r="B520" s="23" t="s">
         <v>343</v>
       </c>
@@ -11754,7 +11429,6 @@
       <c r="L520" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="521">
-      <c r="A521" s="0"/>
       <c r="B521" s="23" t="s">
         <v>344</v>
       </c>
@@ -11786,7 +11460,6 @@
       <c r="L521" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="522">
-      <c r="A522" s="0"/>
       <c r="B522" s="23" t="s">
         <v>345</v>
       </c>
@@ -11818,7 +11491,6 @@
       <c r="L522" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="523">
-      <c r="A523" s="0"/>
       <c r="B523" s="23" t="s">
         <v>346</v>
       </c>
@@ -11850,7 +11522,6 @@
       <c r="L523" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="524">
-      <c r="A524" s="0"/>
       <c r="B524" s="23" t="s">
         <v>347</v>
       </c>
@@ -11882,7 +11553,6 @@
       <c r="L524" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="525">
-      <c r="A525" s="0"/>
       <c r="B525" s="23" t="s">
         <v>348</v>
       </c>
@@ -11914,7 +11584,6 @@
       <c r="L525" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="526">
-      <c r="A526" s="0"/>
       <c r="B526" s="23" t="s">
         <v>349</v>
       </c>
@@ -11946,7 +11615,6 @@
       <c r="L526" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="527">
-      <c r="A527" s="0"/>
       <c r="B527" s="23" t="s">
         <v>350</v>
       </c>
@@ -11978,7 +11646,6 @@
       <c r="L527" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="528">
-      <c r="A528" s="0"/>
       <c r="B528" s="23" t="s">
         <v>351</v>
       </c>
@@ -12010,7 +11677,6 @@
       <c r="L528" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="2" r="529">
-      <c r="A529" s="0"/>
       <c r="B529" s="29" t="s">
         <v>352</v>
       </c>
@@ -12026,7 +11692,6 @@
       <c r="L529" s="29"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="530">
-      <c r="A530" s="0"/>
       <c r="B530" s="23" t="s">
         <v>353</v>
       </c>
@@ -12058,7 +11723,6 @@
       <c r="L530" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="531">
-      <c r="A531" s="0"/>
       <c r="B531" s="23" t="s">
         <v>354</v>
       </c>
@@ -12090,7 +11754,6 @@
       <c r="L531" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="532">
-      <c r="A532" s="0"/>
       <c r="B532" s="23" t="s">
         <v>355</v>
       </c>
@@ -12122,7 +11785,6 @@
       <c r="L532" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="533">
-      <c r="A533" s="0"/>
       <c r="B533" s="23" t="s">
         <v>356</v>
       </c>
@@ -12154,7 +11816,6 @@
       <c r="L533" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="534">
-      <c r="A534" s="0"/>
       <c r="B534" s="23" t="s">
         <v>357</v>
       </c>
@@ -12186,7 +11847,6 @@
       <c r="L534" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="535">
-      <c r="A535" s="0"/>
       <c r="B535" s="23" t="s">
         <v>358</v>
       </c>
@@ -12218,7 +11878,6 @@
       <c r="L535" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="536">
-      <c r="A536" s="0"/>
       <c r="B536" s="23" t="s">
         <v>359</v>
       </c>
@@ -12250,7 +11909,6 @@
       <c r="L536" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="537">
-      <c r="A537" s="0"/>
       <c r="B537" s="23" t="s">
         <v>360</v>
       </c>
@@ -12282,7 +11940,6 @@
       <c r="L537" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="538">
-      <c r="A538" s="0"/>
       <c r="B538" s="23" t="s">
         <v>361</v>
       </c>
@@ -12314,7 +11971,6 @@
       <c r="L538" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="539">
-      <c r="A539" s="0"/>
       <c r="B539" s="23" t="s">
         <v>362</v>
       </c>
@@ -12346,7 +12002,6 @@
       <c r="L539" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="540">
-      <c r="A540" s="0"/>
       <c r="B540" s="23" t="s">
         <v>363</v>
       </c>
@@ -12378,7 +12033,6 @@
       <c r="L540" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="541">
-      <c r="A541" s="0"/>
       <c r="B541" s="23" t="s">
         <v>364</v>
       </c>
@@ -12410,7 +12064,6 @@
       <c r="L541" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="542">
-      <c r="A542" s="0"/>
       <c r="B542" s="23" t="s">
         <v>365</v>
       </c>
@@ -12442,7 +12095,6 @@
       <c r="L542" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="2" r="543">
-      <c r="A543" s="0"/>
       <c r="B543" s="29" t="s">
         <v>366</v>
       </c>
@@ -12458,7 +12110,6 @@
       <c r="L543" s="29"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="544">
-      <c r="A544" s="0"/>
       <c r="B544" s="23" t="s">
         <v>367</v>
       </c>
@@ -12490,7 +12141,6 @@
       <c r="L544" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="1" r="545">
-      <c r="A545" s="0"/>
       <c r="B545" s="44" t="s">
         <v>368</v>
       </c>
@@ -12506,7 +12156,6 @@
       <c r="L545" s="44"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="2" r="546">
-      <c r="A546" s="0"/>
       <c r="B546" s="29" t="s">
         <v>369</v>
       </c>
@@ -12522,7 +12171,6 @@
       <c r="L546" s="29"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="547">
-      <c r="A547" s="0"/>
       <c r="B547" s="23" t="s">
         <v>370</v>
       </c>
@@ -12554,7 +12202,6 @@
       <c r="L547" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="548">
-      <c r="A548" s="0"/>
       <c r="B548" s="23" t="s">
         <v>371</v>
       </c>
@@ -12586,7 +12233,6 @@
       <c r="L548" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="549">
-      <c r="A549" s="0"/>
       <c r="B549" s="23" t="s">
         <v>372</v>
       </c>
@@ -12618,7 +12264,6 @@
       <c r="L549" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="2" r="550">
-      <c r="A550" s="0"/>
       <c r="B550" s="29" t="s">
         <v>373</v>
       </c>
@@ -12634,7 +12279,6 @@
       <c r="L550" s="29"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="551">
-      <c r="A551" s="0"/>
       <c r="B551" s="23" t="s">
         <v>374</v>
       </c>
@@ -12666,7 +12310,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="552">
-      <c r="A552" s="0"/>
       <c r="B552" s="23" t="s">
         <v>376</v>
       </c>
@@ -12700,7 +12343,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.3" outlineLevel="3" r="553">
-      <c r="A553" s="0"/>
       <c r="B553" s="32" t="s">
         <v>377</v>
       </c>
@@ -12734,7 +12376,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.3" outlineLevel="3" r="554">
-      <c r="A554" s="0"/>
       <c r="B554" s="32" t="s">
         <v>379</v>
       </c>
@@ -12768,7 +12409,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.3" outlineLevel="3" r="555">
-      <c r="A555" s="0"/>
       <c r="B555" s="32" t="s">
         <v>380</v>
       </c>
@@ -12802,7 +12442,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="556">
-      <c r="A556" s="0"/>
       <c r="B556" s="23" t="s">
         <v>381</v>
       </c>
@@ -12836,7 +12475,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="2" r="557">
-      <c r="A557" s="0"/>
       <c r="B557" s="29" t="s">
         <v>382</v>
       </c>
@@ -12852,7 +12490,6 @@
       <c r="L557" s="29"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="558">
-      <c r="A558" s="0"/>
       <c r="B558" s="23" t="s">
         <v>383</v>
       </c>
@@ -12882,7 +12519,6 @@
       <c r="L558" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="2" r="559">
-      <c r="A559" s="0"/>
       <c r="B559" s="29" t="s">
         <v>384</v>
       </c>
@@ -12898,7 +12534,6 @@
       <c r="L559" s="29"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="560">
-      <c r="A560" s="0"/>
       <c r="B560" s="23" t="s">
         <v>385</v>
       </c>
@@ -12930,7 +12565,6 @@
       <c r="L560" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="561">
-      <c r="A561" s="0"/>
       <c r="B561" s="23" t="s">
         <v>386</v>
       </c>
@@ -12962,7 +12596,6 @@
       <c r="L561" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="1" r="562">
-      <c r="A562" s="0"/>
       <c r="B562" s="44" t="s">
         <v>387</v>
       </c>
@@ -12978,7 +12611,6 @@
       <c r="L562" s="44"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="2" r="563">
-      <c r="A563" s="0"/>
       <c r="B563" s="29" t="s">
         <v>388</v>
       </c>
@@ -12994,7 +12626,6 @@
       <c r="L563" s="29"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="564">
-      <c r="A564" s="0"/>
       <c r="B564" s="23" t="s">
         <v>389</v>
       </c>
@@ -13026,7 +12657,6 @@
       <c r="L564" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="565">
-      <c r="A565" s="0"/>
       <c r="B565" s="23" t="s">
         <v>390</v>
       </c>
@@ -13058,7 +12688,6 @@
       <c r="L565" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="566">
-      <c r="A566" s="0"/>
       <c r="B566" s="23" t="s">
         <v>391</v>
       </c>
@@ -13090,7 +12719,6 @@
       <c r="L566" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="2" r="567">
-      <c r="A567" s="0"/>
       <c r="B567" s="29" t="s">
         <v>392</v>
       </c>
@@ -13106,7 +12734,6 @@
       <c r="L567" s="29"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="3" r="568">
-      <c r="A568" s="0"/>
       <c r="B568" s="23" t="s">
         <v>393</v>
       </c>
@@ -13142,7 +12769,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="3" r="569">
-      <c r="A569" s="0"/>
       <c r="B569" s="23" t="s">
         <v>394</v>
       </c>
@@ -13178,7 +12804,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="3" r="570">
-      <c r="A570" s="0"/>
       <c r="B570" s="23" t="s">
         <v>395</v>
       </c>
@@ -13214,7 +12839,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="3" r="571">
-      <c r="A571" s="0"/>
       <c r="B571" s="23" t="s">
         <v>396</v>
       </c>
@@ -13250,7 +12874,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="2" r="572">
-      <c r="A572" s="0"/>
       <c r="B572" s="29" t="s">
         <v>398</v>
       </c>
@@ -13266,7 +12889,6 @@
       <c r="L572" s="29"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="573">
-      <c r="A573" s="0"/>
       <c r="B573" s="23" t="s">
         <v>399</v>
       </c>
@@ -13282,7 +12904,6 @@
       <c r="L573" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="574">
-      <c r="A574" s="0"/>
       <c r="B574" s="23" t="s">
         <v>400</v>
       </c>
@@ -13314,7 +12935,6 @@
       <c r="L574" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="1" r="575">
-      <c r="A575" s="0"/>
       <c r="B575" s="44" t="s">
         <v>401</v>
       </c>
@@ -13330,7 +12950,6 @@
       <c r="L575" s="44"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="2" r="576">
-      <c r="A576" s="0"/>
       <c r="B576" s="29" t="s">
         <v>402</v>
       </c>
@@ -13346,7 +12965,6 @@
       <c r="L576" s="29"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="3" r="577">
-      <c r="A577" s="0"/>
       <c r="B577" s="23" t="s">
         <v>403</v>
       </c>
@@ -13378,7 +12996,6 @@
       <c r="L577" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="2" r="578">
-      <c r="A578" s="0"/>
       <c r="B578" s="29" t="s">
         <v>404</v>
       </c>
@@ -13394,7 +13011,6 @@
       <c r="L578" s="29"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="579">
-      <c r="A579" s="0"/>
       <c r="B579" s="23" t="s">
         <v>405</v>
       </c>
@@ -13426,7 +13042,6 @@
       <c r="L579" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="2" r="580">
-      <c r="A580" s="0"/>
       <c r="B580" s="29" t="s">
         <v>406</v>
       </c>
@@ -13442,7 +13057,6 @@
       <c r="L580" s="29"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="581">
-      <c r="A581" s="0"/>
       <c r="B581" s="23" t="s">
         <v>407</v>
       </c>
@@ -13474,7 +13088,6 @@
       <c r="L581" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="582">
-      <c r="A582" s="0"/>
       <c r="B582" s="23" t="s">
         <v>408</v>
       </c>
@@ -13506,7 +13119,6 @@
       <c r="L582" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="583">
-      <c r="A583" s="0"/>
       <c r="B583" s="23" t="s">
         <v>409</v>
       </c>
@@ -13538,7 +13150,6 @@
       <c r="L583" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="1" r="584">
-      <c r="A584" s="0"/>
       <c r="B584" s="44" t="s">
         <v>410</v>
       </c>
@@ -13554,7 +13165,6 @@
       <c r="L584" s="44"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="2" r="585">
-      <c r="A585" s="0"/>
       <c r="B585" s="29" t="s">
         <v>411</v>
       </c>
@@ -13570,7 +13180,6 @@
       <c r="L585" s="29"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="586">
-      <c r="A586" s="0"/>
       <c r="B586" s="23" t="s">
         <v>412</v>
       </c>
@@ -13602,7 +13211,6 @@
       <c r="L586" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="587">
-      <c r="A587" s="0"/>
       <c r="B587" s="32" t="s">
         <v>413</v>
       </c>
@@ -13634,7 +13242,6 @@
       <c r="L587" s="32"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="588">
-      <c r="A588" s="0"/>
       <c r="B588" s="32" t="s">
         <v>414</v>
       </c>
@@ -13666,7 +13273,6 @@
       <c r="L588" s="32"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="2" r="589">
-      <c r="A589" s="0"/>
       <c r="B589" s="49" t="s">
         <v>415</v>
       </c>
@@ -13682,7 +13288,6 @@
       <c r="L589" s="49"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="3" r="590">
-      <c r="A590" s="0"/>
       <c r="B590" s="23" t="s">
         <v>416</v>
       </c>
@@ -13714,7 +13319,6 @@
       <c r="L590" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="2" r="591">
-      <c r="A591" s="0"/>
       <c r="B591" s="29" t="s">
         <v>417</v>
       </c>
@@ -13730,7 +13334,6 @@
       <c r="L591" s="29"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="592">
-      <c r="A592" s="0"/>
       <c r="B592" s="23" t="s">
         <v>418</v>
       </c>
@@ -13746,7 +13349,6 @@
       <c r="L592" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.3" outlineLevel="4" r="593">
-      <c r="A593" s="0"/>
       <c r="B593" s="23" t="s">
         <v>419</v>
       </c>
@@ -13778,7 +13380,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.3" outlineLevel="4" r="594">
-      <c r="A594" s="0"/>
       <c r="B594" s="23" t="s">
         <v>420</v>
       </c>
@@ -13810,7 +13411,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.3" outlineLevel="4" r="595">
-      <c r="A595" s="0"/>
       <c r="B595" s="32" t="s">
         <v>421</v>
       </c>
@@ -13844,7 +13444,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.3" outlineLevel="4" r="596">
-      <c r="A596" s="0"/>
       <c r="B596" s="23" t="s">
         <v>422</v>
       </c>
@@ -13878,7 +13477,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.3" outlineLevel="4" r="597">
-      <c r="A597" s="0"/>
       <c r="B597" s="23" t="s">
         <v>423</v>
       </c>
@@ -13912,7 +13510,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.3" outlineLevel="4" r="598">
-      <c r="A598" s="0"/>
       <c r="B598" s="23" t="s">
         <v>424</v>
       </c>
@@ -13946,7 +13543,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.3" outlineLevel="4" r="599">
-      <c r="A599" s="0"/>
       <c r="B599" s="32" t="s">
         <v>425</v>
       </c>
@@ -13980,7 +13576,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.3" outlineLevel="4" r="600">
-      <c r="A600" s="0"/>
       <c r="B600" s="32" t="s">
         <v>426</v>
       </c>
@@ -14014,7 +13609,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.3" outlineLevel="4" r="601">
-      <c r="A601" s="0"/>
       <c r="B601" s="32" t="s">
         <v>427</v>
       </c>
@@ -14048,7 +13642,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.3" outlineLevel="4" r="602">
-      <c r="A602" s="0"/>
       <c r="B602" s="23" t="s">
         <v>428</v>
       </c>
@@ -14082,7 +13675,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.3" outlineLevel="4" r="603">
-      <c r="A603" s="0"/>
       <c r="B603" s="23" t="s">
         <v>429</v>
       </c>
@@ -14116,7 +13708,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.3" outlineLevel="4" r="604">
-      <c r="A604" s="0"/>
       <c r="B604" s="23" t="s">
         <v>430</v>
       </c>
@@ -14150,7 +13741,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.3" outlineLevel="4" r="605">
-      <c r="A605" s="0"/>
       <c r="B605" s="23" t="s">
         <v>431</v>
       </c>
@@ -14184,7 +13774,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.3" outlineLevel="4" r="606">
-      <c r="A606" s="0"/>
       <c r="B606" s="23" t="s">
         <v>432</v>
       </c>
@@ -14218,7 +13807,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.3" outlineLevel="4" r="607">
-      <c r="A607" s="0"/>
       <c r="B607" s="23" t="s">
         <v>433</v>
       </c>
@@ -14252,7 +13840,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.3" outlineLevel="4" r="608">
-      <c r="A608" s="0"/>
       <c r="B608" s="23" t="s">
         <v>434</v>
       </c>
@@ -14286,7 +13873,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.3" outlineLevel="4" r="609">
-      <c r="A609" s="0"/>
       <c r="B609" s="23" t="s">
         <v>435</v>
       </c>
@@ -14320,7 +13906,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="2" r="610">
-      <c r="A610" s="0"/>
       <c r="B610" s="29" t="s">
         <v>436</v>
       </c>
@@ -14336,7 +13921,6 @@
       <c r="L610" s="29"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="611">
-      <c r="A611" s="0"/>
       <c r="B611" s="23" t="s">
         <v>437</v>
       </c>
@@ -14368,7 +13952,6 @@
       <c r="L611" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="612">
-      <c r="A612" s="0"/>
       <c r="B612" s="23" t="s">
         <v>438</v>
       </c>
@@ -14400,7 +13983,6 @@
       <c r="L612" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="613">
-      <c r="A613" s="0"/>
       <c r="B613" s="23" t="s">
         <v>439</v>
       </c>
@@ -14432,7 +14014,6 @@
       <c r="L613" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="2" r="614">
-      <c r="A614" s="0"/>
       <c r="B614" s="29" t="s">
         <v>440</v>
       </c>
@@ -14448,7 +14029,6 @@
       <c r="L614" s="29"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="615">
-      <c r="A615" s="0"/>
       <c r="B615" s="23" t="s">
         <v>441</v>
       </c>
@@ -14480,7 +14060,6 @@
       <c r="L615" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="616">
-      <c r="A616" s="0"/>
       <c r="B616" s="23" t="s">
         <v>442</v>
       </c>
@@ -14512,7 +14091,6 @@
       <c r="L616" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="2" r="617">
-      <c r="A617" s="0"/>
       <c r="B617" s="29" t="s">
         <v>443</v>
       </c>
@@ -14528,7 +14106,6 @@
       <c r="L617" s="29"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="618">
-      <c r="A618" s="0"/>
       <c r="B618" s="23" t="s">
         <v>444</v>
       </c>
@@ -14544,7 +14121,6 @@
       <c r="L618" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="619">
-      <c r="A619" s="0"/>
       <c r="B619" s="23" t="s">
         <v>445</v>
       </c>
@@ -14574,7 +14150,6 @@
       <c r="L619" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="620">
-      <c r="A620" s="0"/>
       <c r="B620" s="23" t="s">
         <v>446</v>
       </c>
@@ -14604,7 +14179,6 @@
       <c r="L620" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="621">
-      <c r="A621" s="0"/>
       <c r="B621" s="23" t="s">
         <v>447</v>
       </c>
@@ -14634,7 +14208,6 @@
       <c r="L621" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="2" r="622">
-      <c r="A622" s="0"/>
       <c r="B622" s="29" t="s">
         <v>448</v>
       </c>
@@ -14650,7 +14223,6 @@
       <c r="L622" s="29"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="623">
-      <c r="A623" s="0"/>
       <c r="B623" s="23" t="s">
         <v>449</v>
       </c>
@@ -14686,7 +14258,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="624">
-      <c r="A624" s="0"/>
       <c r="B624" s="23" t="s">
         <v>451</v>
       </c>
@@ -14718,7 +14289,6 @@
       <c r="L624" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="625">
-      <c r="A625" s="0"/>
       <c r="B625" s="23" t="s">
         <v>452</v>
       </c>
@@ -14750,7 +14320,6 @@
       <c r="L625" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="2" r="626">
-      <c r="A626" s="0"/>
       <c r="B626" s="29" t="s">
         <v>453</v>
       </c>
@@ -14766,7 +14335,6 @@
       <c r="L626" s="29"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="627">
-      <c r="A627" s="0"/>
       <c r="B627" s="23" t="s">
         <v>454</v>
       </c>
@@ -14798,7 +14366,6 @@
       <c r="L627" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="628">
-      <c r="A628" s="0"/>
       <c r="B628" s="23" t="s">
         <v>455</v>
       </c>
@@ -14830,7 +14397,6 @@
       <c r="L628" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="629">
-      <c r="A629" s="0"/>
       <c r="B629" s="23" t="s">
         <v>456</v>
       </c>
@@ -14862,7 +14428,6 @@
       <c r="L629" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="630">
-      <c r="A630" s="0"/>
       <c r="B630" s="23" t="s">
         <v>457</v>
       </c>
@@ -14894,7 +14459,6 @@
       <c r="L630" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="631">
-      <c r="A631" s="0"/>
       <c r="B631" s="23" t="s">
         <v>458</v>
       </c>
@@ -14926,7 +14490,6 @@
       <c r="L631" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="632">
-      <c r="A632" s="0"/>
       <c r="B632" s="23" t="s">
         <v>459</v>
       </c>
@@ -14958,7 +14521,6 @@
       <c r="L632" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="633">
-      <c r="A633" s="0"/>
       <c r="B633" s="23" t="s">
         <v>460</v>
       </c>
@@ -14990,7 +14552,6 @@
       <c r="L633" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="634">
-      <c r="A634" s="0"/>
       <c r="B634" s="23" t="s">
         <v>461</v>
       </c>
@@ -15022,7 +14583,6 @@
       <c r="L634" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="635">
-      <c r="A635" s="0"/>
       <c r="B635" s="23" t="s">
         <v>462</v>
       </c>
@@ -15054,7 +14614,6 @@
       <c r="L635" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="636">
-      <c r="A636" s="0"/>
       <c r="B636" s="23" t="s">
         <v>463</v>
       </c>
@@ -15086,7 +14645,6 @@
       <c r="L636" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="637">
-      <c r="A637" s="0"/>
       <c r="B637" s="23" t="s">
         <v>464</v>
       </c>
@@ -15118,7 +14676,6 @@
       <c r="L637" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="638">
-      <c r="A638" s="0"/>
       <c r="B638" s="23" t="s">
         <v>465</v>
       </c>
@@ -15150,7 +14707,6 @@
       <c r="L638" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="639">
-      <c r="A639" s="0"/>
       <c r="B639" s="23" t="s">
         <v>466</v>
       </c>
@@ -15182,7 +14738,6 @@
       <c r="L639" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="640">
-      <c r="A640" s="0"/>
       <c r="B640" s="23" t="s">
         <v>467</v>
       </c>
@@ -15214,7 +14769,6 @@
       <c r="L640" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="641">
-      <c r="A641" s="0"/>
       <c r="B641" s="23" t="s">
         <v>468</v>
       </c>
@@ -15246,7 +14800,6 @@
       <c r="L641" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="642">
-      <c r="A642" s="0"/>
       <c r="B642" s="23" t="s">
         <v>469</v>
       </c>
@@ -15278,7 +14831,6 @@
       <c r="L642" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="643">
-      <c r="A643" s="0"/>
       <c r="B643" s="23" t="s">
         <v>470</v>
       </c>
@@ -15310,7 +14862,6 @@
       <c r="L643" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="644">
-      <c r="A644" s="0"/>
       <c r="B644" s="23" t="s">
         <v>471</v>
       </c>
@@ -15342,7 +14893,6 @@
       <c r="L644" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="645">
-      <c r="A645" s="0"/>
       <c r="B645" s="23" t="s">
         <v>472</v>
       </c>
@@ -15374,7 +14924,6 @@
       <c r="L645" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="646">
-      <c r="A646" s="0"/>
       <c r="B646" s="23" t="s">
         <v>473</v>
       </c>
@@ -15406,7 +14955,6 @@
       <c r="L646" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="647">
-      <c r="A647" s="0"/>
       <c r="B647" s="23" t="s">
         <v>474</v>
       </c>
@@ -15442,7 +14990,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="648">
-      <c r="A648" s="0"/>
       <c r="B648" s="23" t="s">
         <v>476</v>
       </c>
@@ -15474,7 +15021,6 @@
       <c r="L648" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="649">
-      <c r="A649" s="0"/>
       <c r="B649" s="23" t="s">
         <v>477</v>
       </c>
@@ -15506,7 +15052,6 @@
       <c r="L649" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="650">
-      <c r="A650" s="0"/>
       <c r="B650" s="23" t="s">
         <v>478</v>
       </c>
@@ -15538,7 +15083,6 @@
       <c r="L650" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="651">
-      <c r="A651" s="0"/>
       <c r="B651" s="23" t="s">
         <v>479</v>
       </c>
@@ -15570,7 +15114,6 @@
       <c r="L651" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="652">
-      <c r="A652" s="0"/>
       <c r="B652" s="23" t="s">
         <v>480</v>
       </c>
@@ -15602,7 +15145,6 @@
       <c r="L652" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="653">
-      <c r="A653" s="0"/>
       <c r="B653" s="23" t="s">
         <v>481</v>
       </c>
@@ -15634,7 +15176,6 @@
       <c r="L653" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="654">
-      <c r="A654" s="0"/>
       <c r="B654" s="23" t="s">
         <v>482</v>
       </c>
@@ -15666,7 +15207,6 @@
       <c r="L654" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="655">
-      <c r="A655" s="0"/>
       <c r="B655" s="23" t="s">
         <v>483</v>
       </c>
@@ -15698,7 +15238,6 @@
       <c r="L655" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="656">
-      <c r="A656" s="0"/>
       <c r="B656" s="23" t="s">
         <v>484</v>
       </c>
@@ -15730,7 +15269,6 @@
       <c r="L656" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="657">
-      <c r="A657" s="0"/>
       <c r="B657" s="23" t="s">
         <v>485</v>
       </c>
@@ -15762,7 +15300,6 @@
       <c r="L657" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="658">
-      <c r="A658" s="0"/>
       <c r="B658" s="23" t="s">
         <v>486</v>
       </c>
@@ -15794,7 +15331,6 @@
       <c r="L658" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="659">
-      <c r="A659" s="0"/>
       <c r="B659" s="23" t="s">
         <v>487</v>
       </c>
@@ -15826,7 +15362,6 @@
       <c r="L659" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="660">
-      <c r="A660" s="0"/>
       <c r="B660" s="23" t="s">
         <v>488</v>
       </c>
@@ -15858,7 +15393,6 @@
       <c r="L660" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="661">
-      <c r="A661" s="0"/>
       <c r="B661" s="23" t="s">
         <v>489</v>
       </c>
@@ -15890,7 +15424,6 @@
       <c r="L661" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="662">
-      <c r="A662" s="0"/>
       <c r="B662" s="23" t="s">
         <v>490</v>
       </c>
@@ -15922,7 +15455,6 @@
       <c r="L662" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="663">
-      <c r="A663" s="0"/>
       <c r="B663" s="23" t="s">
         <v>491</v>
       </c>
@@ -15954,7 +15486,6 @@
       <c r="L663" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="664">
-      <c r="A664" s="0"/>
       <c r="B664" s="23" t="s">
         <v>492</v>
       </c>
@@ -15986,7 +15517,6 @@
       <c r="L664" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="665">
-      <c r="A665" s="0"/>
       <c r="B665" s="23" t="s">
         <v>493</v>
       </c>
@@ -16018,7 +15548,6 @@
       <c r="L665" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="666">
-      <c r="A666" s="0"/>
       <c r="B666" s="23" t="s">
         <v>494</v>
       </c>
@@ -16050,7 +15579,6 @@
       <c r="L666" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="667">
-      <c r="A667" s="0"/>
       <c r="B667" s="23" t="s">
         <v>495</v>
       </c>
@@ -16082,7 +15610,6 @@
       <c r="L667" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="668">
-      <c r="A668" s="0"/>
       <c r="B668" s="23" t="s">
         <v>496</v>
       </c>
@@ -16114,7 +15641,6 @@
       <c r="L668" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="669">
-      <c r="A669" s="0"/>
       <c r="B669" s="23" t="s">
         <v>497</v>
       </c>
@@ -16146,7 +15672,6 @@
       <c r="L669" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="670">
-      <c r="A670" s="0"/>
       <c r="B670" s="23" t="s">
         <v>498</v>
       </c>
@@ -16178,7 +15703,6 @@
       <c r="L670" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="671">
-      <c r="A671" s="0"/>
       <c r="B671" s="23" t="s">
         <v>499</v>
       </c>
@@ -16210,7 +15734,6 @@
       <c r="L671" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="672">
-      <c r="A672" s="0"/>
       <c r="B672" s="23" t="s">
         <v>500</v>
       </c>
@@ -16242,7 +15765,6 @@
       <c r="L672" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="673">
-      <c r="A673" s="0"/>
       <c r="B673" s="23" t="s">
         <v>501</v>
       </c>
@@ -16274,7 +15796,6 @@
       <c r="L673" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="674">
-      <c r="A674" s="0"/>
       <c r="B674" s="23" t="s">
         <v>502</v>
       </c>
@@ -16306,7 +15827,6 @@
       <c r="L674" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="675">
-      <c r="A675" s="0"/>
       <c r="B675" s="23" t="s">
         <v>503</v>
       </c>
@@ -16338,7 +15858,6 @@
       <c r="L675" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="676">
-      <c r="A676" s="0"/>
       <c r="B676" s="23" t="s">
         <v>504</v>
       </c>
@@ -16370,7 +15889,6 @@
       <c r="L676" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="677">
-      <c r="A677" s="0"/>
       <c r="B677" s="23" t="s">
         <v>505</v>
       </c>
@@ -16402,7 +15920,6 @@
       <c r="L677" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="678">
-      <c r="A678" s="0"/>
       <c r="B678" s="23" t="s">
         <v>506</v>
       </c>
@@ -16434,7 +15951,6 @@
       <c r="L678" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="679">
-      <c r="A679" s="0"/>
       <c r="B679" s="23" t="s">
         <v>507</v>
       </c>
@@ -16466,7 +15982,6 @@
       <c r="L679" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="680">
-      <c r="A680" s="0"/>
       <c r="B680" s="23" t="s">
         <v>508</v>
       </c>
@@ -16498,7 +16013,6 @@
       <c r="L680" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="681">
-      <c r="A681" s="0"/>
       <c r="B681" s="23" t="s">
         <v>509</v>
       </c>
@@ -16530,7 +16044,6 @@
       <c r="L681" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="682">
-      <c r="A682" s="0"/>
       <c r="B682" s="23" t="s">
         <v>510</v>
       </c>
@@ -16562,7 +16075,6 @@
       <c r="L682" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="683">
-      <c r="A683" s="0"/>
       <c r="B683" s="23" t="s">
         <v>511</v>
       </c>
@@ -16594,7 +16106,6 @@
       <c r="L683" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="684">
-      <c r="A684" s="0"/>
       <c r="B684" s="23" t="s">
         <v>512</v>
       </c>
@@ -16626,7 +16137,6 @@
       <c r="L684" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="2" r="685">
-      <c r="A685" s="0"/>
       <c r="B685" s="29" t="s">
         <v>513</v>
       </c>
@@ -16642,7 +16152,6 @@
       <c r="L685" s="29"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="686">
-      <c r="A686" s="0"/>
       <c r="B686" s="23" t="s">
         <v>514</v>
       </c>
@@ -16674,7 +16183,6 @@
       <c r="L686" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="1" r="687">
-      <c r="A687" s="0"/>
       <c r="B687" s="44" t="s">
         <v>515</v>
       </c>
@@ -16690,7 +16198,6 @@
       <c r="L687" s="44"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="2" r="688">
-      <c r="A688" s="0"/>
       <c r="B688" s="29" t="s">
         <v>516</v>
       </c>
@@ -16706,7 +16213,6 @@
       <c r="L688" s="29"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="689">
-      <c r="A689" s="0"/>
       <c r="B689" s="32" t="s">
         <v>517</v>
       </c>
@@ -16740,7 +16246,6 @@
       <c r="L689" s="32"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="690">
-      <c r="A690" s="0"/>
       <c r="B690" s="32" t="s">
         <v>518</v>
       </c>
@@ -16774,7 +16279,6 @@
       <c r="L690" s="32"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="2" r="691">
-      <c r="A691" s="0"/>
       <c r="B691" s="49" t="s">
         <v>519</v>
       </c>
@@ -16790,7 +16294,6 @@
       <c r="L691" s="49"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="692">
-      <c r="A692" s="0"/>
       <c r="B692" s="23" t="s">
         <v>520</v>
       </c>
@@ -16826,7 +16329,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="693">
-      <c r="A693" s="0"/>
       <c r="B693" s="23" t="s">
         <v>522</v>
       </c>
@@ -16862,7 +16364,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="694">
-      <c r="A694" s="0"/>
       <c r="B694" s="23" t="s">
         <v>523</v>
       </c>
@@ -16898,7 +16399,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="2" r="695">
-      <c r="A695" s="0"/>
       <c r="B695" s="29" t="s">
         <v>524</v>
       </c>
@@ -16914,7 +16414,6 @@
       <c r="L695" s="29"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="3" r="696">
-      <c r="A696" s="0"/>
       <c r="B696" s="23" t="s">
         <v>525</v>
       </c>
@@ -16948,7 +16447,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="3" r="697">
-      <c r="A697" s="0"/>
       <c r="B697" s="23" t="s">
         <v>526</v>
       </c>
@@ -16984,7 +16482,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.3" outlineLevel="3" r="698">
-      <c r="A698" s="0"/>
       <c r="B698" s="23" t="s">
         <v>527</v>
       </c>
@@ -17020,7 +16517,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.3" outlineLevel="3" r="699">
-      <c r="A699" s="0"/>
       <c r="B699" s="23" t="s">
         <v>528</v>
       </c>
@@ -17056,7 +16552,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="3" r="700">
-      <c r="A700" s="0"/>
       <c r="B700" s="23" t="s">
         <v>529</v>
       </c>
@@ -17092,7 +16587,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="701">
-      <c r="A701" s="0"/>
       <c r="B701" s="23" t="s">
         <v>530</v>
       </c>
@@ -17128,7 +16622,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="702">
-      <c r="A702" s="0"/>
       <c r="B702" s="32" t="s">
         <v>532</v>
       </c>
@@ -17164,7 +16657,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="703">
-      <c r="A703" s="0"/>
       <c r="B703" s="23" t="s">
         <v>534</v>
       </c>
@@ -17196,13 +16688,12 @@
         <v>459</v>
       </c>
       <c r="L703" s="23" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="2" r="704">
+      <c r="B704" s="29" t="s">
         <v>535</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="2" r="704">
-      <c r="A704" s="0"/>
-      <c r="B704" s="29" t="s">
-        <v>536</v>
       </c>
       <c r="C704" s="30"/>
       <c r="D704" s="31"/>
@@ -17216,9 +16707,8 @@
       <c r="L704" s="29"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="705">
-      <c r="A705" s="0"/>
       <c r="B705" s="32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C705" s="33" t="n">
         <v>5</v>
@@ -17246,13 +16736,12 @@
         <v>765</v>
       </c>
       <c r="L705" s="32" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="706">
+      <c r="B706" s="32" t="s">
         <v>538</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="3" r="706">
-      <c r="A706" s="0"/>
-      <c r="B706" s="32" t="s">
-        <v>539</v>
       </c>
       <c r="C706" s="33" t="n">
         <v>9</v>
@@ -17280,13 +16769,12 @@
         <v>850</v>
       </c>
       <c r="L706" s="32" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="707">
-      <c r="A707" s="0"/>
       <c r="B707" s="23" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C707" s="26" t="n">
         <v>2</v>
@@ -17320,9 +16808,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="1" r="708">
-      <c r="A708" s="0"/>
       <c r="B708" s="44" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C708" s="45"/>
       <c r="D708" s="46"/>
@@ -17336,9 +16823,8 @@
       <c r="L708" s="44"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="2" r="709">
-      <c r="A709" s="0"/>
       <c r="B709" s="23" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C709" s="26" t="n">
         <v>131</v>
@@ -17368,13 +16854,12 @@
         <v>218</v>
       </c>
       <c r="L709" s="23" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="2" r="710">
+      <c r="B710" s="32" t="s">
         <v>543</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="2" r="710">
-      <c r="A710" s="0"/>
-      <c r="B710" s="32" t="s">
-        <v>544</v>
       </c>
       <c r="C710" s="33" t="n">
         <v>32</v>
@@ -17404,13 +16889,12 @@
         <v>170</v>
       </c>
       <c r="L710" s="32" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="2" r="711">
-      <c r="A711" s="0"/>
       <c r="B711" s="49" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C711" s="50"/>
       <c r="D711" s="51"/>
@@ -17424,9 +16908,8 @@
       <c r="L711" s="49"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="712">
-      <c r="A712" s="0"/>
       <c r="B712" s="23" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C712" s="24"/>
       <c r="D712" s="25"/>
@@ -17440,9 +16923,8 @@
       <c r="L712" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="713">
-      <c r="A713" s="0"/>
       <c r="B713" s="23" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C713" s="26" t="n">
         <v>2</v>
@@ -17470,9 +16952,8 @@
       <c r="L713" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="714">
-      <c r="A714" s="0"/>
       <c r="B714" s="23" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C714" s="26" t="n">
         <v>1</v>
@@ -17500,9 +16981,8 @@
       <c r="L714" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="715">
-      <c r="A715" s="0"/>
       <c r="B715" s="23" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C715" s="26" t="n">
         <v>3</v>
@@ -17530,9 +17010,8 @@
       <c r="L715" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="4" r="716">
-      <c r="A716" s="0"/>
       <c r="B716" s="23" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C716" s="26" t="n">
         <v>2</v>
@@ -17560,9 +17039,8 @@
       <c r="L716" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="2" r="717">
-      <c r="A717" s="0"/>
       <c r="B717" s="29" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C717" s="30"/>
       <c r="D717" s="31"/>
@@ -17576,9 +17054,8 @@
       <c r="L717" s="29"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="718">
-      <c r="A718" s="0"/>
       <c r="B718" s="23" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C718" s="26" t="n">
         <v>3</v>
@@ -17606,9 +17083,8 @@
       <c r="L718" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="719">
-      <c r="A719" s="0"/>
       <c r="B719" s="23" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C719" s="26" t="n">
         <v>2</v>
@@ -17636,9 +17112,8 @@
       <c r="L719" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="720">
-      <c r="A720" s="0"/>
       <c r="B720" s="23" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C720" s="26" t="n">
         <v>4</v>
@@ -17666,9 +17141,8 @@
       <c r="L720" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="721">
-      <c r="A721" s="0"/>
       <c r="B721" s="23" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C721" s="26" t="n">
         <v>2</v>
@@ -17696,9 +17170,8 @@
       <c r="L721" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.55" outlineLevel="2" r="722">
-      <c r="A722" s="0"/>
       <c r="B722" s="29" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C722" s="30"/>
       <c r="D722" s="31"/>
@@ -17712,9 +17185,8 @@
       <c r="L722" s="29"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="3" r="723">
-      <c r="A723" s="0"/>
       <c r="B723" s="23" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C723" s="26" t="n">
         <v>2</v>
@@ -17742,13 +17214,12 @@
         <v>260</v>
       </c>
       <c r="L723" s="23" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="3" r="724">
+      <c r="B724" s="23" t="s">
         <v>558</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="3" r="724">
-      <c r="A724" s="0"/>
-      <c r="B724" s="23" t="s">
-        <v>559</v>
       </c>
       <c r="C724" s="26" t="n">
         <v>3</v>
@@ -17776,13 +17247,12 @@
         <v>280</v>
       </c>
       <c r="L724" s="23" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="3" r="725">
-      <c r="A725" s="0"/>
       <c r="B725" s="23" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C725" s="26" t="n">
         <v>1</v>
@@ -17810,13 +17280,12 @@
         <v>430</v>
       </c>
       <c r="L725" s="23" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="3" r="726">
-      <c r="A726" s="0"/>
       <c r="B726" s="23" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C726" s="26" t="n">
         <v>2</v>
@@ -17844,13 +17313,12 @@
         <v>445</v>
       </c>
       <c r="L726" s="23" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.8" outlineLevel="3" r="727">
-      <c r="A727" s="0"/>
       <c r="B727" s="23" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C727" s="26" t="n">
         <v>1</v>
@@ -17878,9 +17346,8 @@
       <c r="L727" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="3" r="728">
-      <c r="A728" s="0"/>
       <c r="B728" s="23" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C728" s="26" t="n">
         <v>3</v>
@@ -17908,13 +17375,12 @@
         <v>400</v>
       </c>
       <c r="L728" s="23" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="3" r="729">
-      <c r="A729" s="0"/>
       <c r="B729" s="23" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C729" s="26" t="n">
         <v>5</v>
@@ -17942,13 +17408,12 @@
         <v>420</v>
       </c>
       <c r="L729" s="23" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="3" r="730">
-      <c r="A730" s="0"/>
       <c r="B730" s="23" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C730" s="26" t="n">
         <v>1</v>
@@ -17976,12 +17441,12 @@
         <v>610</v>
       </c>
       <c r="L730" s="23" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="35.05" outlineLevel="3" r="731" s="1">
       <c r="B731" s="23" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C731" s="26" t="n">
         <v>4</v>
@@ -18009,7 +17474,7 @@
         <v>630</v>
       </c>
       <c r="L731" s="23" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
   </sheetData>
